--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="156">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -488,9 +488,6 @@
   </si>
   <si>
     <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
   </si>
   <si>
     <t xml:space="preserve">reaction_1-forward</t>
@@ -1114,7 +1111,7 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -1262,8 +1259,8 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1271,7 +1268,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1288,7 +1285,7 @@
         <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>76</v>
@@ -1302,102 +1299,102 @@
     </row>
     <row r="2" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>109</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>98</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>109</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="G5" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>108</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>109</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1451,16 +1448,16 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>121</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1506,10 +1503,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>123</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>124</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>74</v>
@@ -1523,13 +1520,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>126</v>
-      </c>
       <c r="C2" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" s="17" t="n">
         <v>-3</v>
@@ -1538,19 +1535,19 @@
         <v>68</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2" s="16"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>129</v>
-      </c>
       <c r="C3" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" s="17" t="n">
         <v>-4</v>
@@ -1561,13 +1558,13 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>131</v>
-      </c>
       <c r="C4" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="17" t="n">
         <v>1</v>
@@ -1634,31 +1631,31 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>0.3</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>2000</v>
@@ -1666,11 +1663,11 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.001</v>
@@ -1759,46 +1756,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -1837,19 +1834,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>85</v>
@@ -1864,7 +1861,7 @@
         <v>104</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,8 +20,8 @@
     <sheet name="dFBA objectives" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Reactions" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="Rate laws" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Biomass components" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="dFBA net reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="dFBA net components" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Parameters" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="References" sheetId="17" state="visible" r:id="rId18"/>
@@ -59,6 +59,8 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
@@ -84,6 +86,8 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
@@ -109,6 +113,8 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
@@ -134,6 +140,8 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
@@ -159,6 +167,8 @@
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -170,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="155">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -433,7 +443,7 @@
     <t xml:space="preserve">dfba-obj-dfba_submodel</t>
   </si>
   <si>
-    <t xml:space="preserve">2*Metabolism_biomass</t>
+    <t xml:space="preserve">2*Metabolism_net_rxn</t>
   </si>
   <si>
     <t xml:space="preserve">Participants</t>
@@ -529,40 +539,40 @@
     <t xml:space="preserve">reaction_4-forward</t>
   </si>
   <si>
-    <t xml:space="preserve">Metabolism_biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism biomass reaction</t>
+    <t xml:space="preserve">Metabolism_net_rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism net reaction</t>
   </si>
   <si>
     <t xml:space="preserve">No comment</t>
   </si>
   <si>
-    <t xml:space="preserve">Biomass reaction</t>
+    <t xml:space="preserve">dFBA net reaction</t>
   </si>
   <si>
     <t xml:space="preserve">Coefficient</t>
   </si>
   <si>
-    <t xml:space="preserve">biomass_id_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_1</t>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-specie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dFBA net component 1</t>
   </si>
   <si>
     <t xml:space="preserve">test</t>
   </si>
   <si>
-    <t xml:space="preserve">biomass_id_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_3</t>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dFBA net component 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-specie_3[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dFBA net component 3</t>
   </si>
   <si>
     <t xml:space="preserve">fractionDryWeight</t>
@@ -626,9 +636,6 @@
   </si>
   <si>
     <t xml:space="preserve">Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
   </si>
   <si>
     <t xml:space="preserve">Model</t>
@@ -1051,14 +1058,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="9" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="9" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="9" width="42.5263157894737"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="9" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1122,9 +1129,9 @@
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="9" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="9" width="42.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="9" width="43.17004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="9" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1259,7 +1266,7 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -1420,7 +1427,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1483,13 +1490,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="14" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="14" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="14" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="15" width="8.78542510121457"/>
@@ -1519,13 +1526,13 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>124</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>119</v>
       </c>
       <c r="D2" s="17" t="n">
@@ -1540,13 +1547,13 @@
       <c r="G2" s="16"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>127</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>119</v>
       </c>
       <c r="D3" s="17" t="n">
@@ -1557,13 +1564,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>129</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>119</v>
       </c>
       <c r="D4" s="17" t="n">
@@ -1822,31 +1829,34 @@
   </sheetPr>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="10" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>85</v>
@@ -1861,7 +1871,7 @@
         <v>104</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,69 +25,70 @@
     <sheet name="Parameters" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="References" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="Database references" sheetId="18" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="true" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
@@ -115,6 +116,7 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
@@ -142,6 +144,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
@@ -169,6 +172,7 @@
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -180,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="152">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -230,6 +234,9 @@
     <t xml:space="preserve">Author email</t>
   </si>
   <si>
+    <t xml:space="preserve">Database references</t>
+  </si>
+  <si>
     <t xml:space="preserve">Comments</t>
   </si>
   <si>
@@ -633,18 +640,6 @@
   </si>
   <si>
     <t xml:space="preserve">Pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference</t>
   </si>
 </sst>
 </file>
@@ -934,10 +929,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1017,12 +1012,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1030,6 +1025,11 @@
     <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1051,21 +1051,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="9" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="9" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="9" width="42.9554655870445"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="9" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1077,27 +1077,30 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1116,22 +1119,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="9" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="9" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="9" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="9" width="43.5991902834008"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="9" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1143,39 +1146,42 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E2" s="9" t="n">
         <v>0</v>
@@ -1186,20 +1192,20 @@
       <c r="G2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E3" s="9" t="n">
         <v>1</v>
@@ -1210,20 +1216,20 @@
       <c r="G3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E4" s="9" t="n">
         <v>1</v>
@@ -1231,16 +1237,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>0</v>
@@ -1264,10 +1270,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1275,7 +1281,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1283,126 +1289,134 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E4" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E6" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>110</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="H6" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1420,20 +1434,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="X1" activeCellId="0" sqref="X1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="12" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="12" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1444,27 +1458,30 @@
         <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>121</v>
+        <v>27</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1483,23 +1500,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="14" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="14" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="15" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="14" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="15" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1510,75 +1527,81 @@
         <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D2" s="17" t="n">
         <v>-3</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2" s="16"/>
+        <v>69</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D3" s="17" t="n">
         <v>-4</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>69</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D4" s="17" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>70</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F4" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1596,20 +1619,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="3" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1620,49 +1643,51 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AMJ1" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>0.3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="3" t="s">
         <v>134</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>2000</v>
@@ -1670,11 +1695,11 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.001</v>
@@ -1698,19 +1723,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1718,13 +1743,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>24</v>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1743,16 +1771,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1023" min="1" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="3" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1763,51 +1790,53 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AMJ1" s="1"/>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
@@ -1822,78 +1851,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" activeCellId="0" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1907,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1915,28 +1881,33 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1962,14 +1933,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1020" min="1" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1021" min="1021" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1021" min="1" style="3" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1022" min="1022" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1980,40 +1951,42 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AMG1" s="1"/>
-      <c r="AMH1" s="0"/>
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AMH1" s="1"/>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2032,10 +2005,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2051,54 +2024,59 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="5" t="n">
         <v>4.58E-017</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>37</v>
+      <c r="E2" s="5"/>
+      <c r="F2" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>1E-012</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>40</v>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3"/>
+  <autoFilter ref="A1:F3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2115,16 +2093,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1023" min="1" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="3" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2135,37 +2112,39 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AMJ1" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>1</v>
@@ -2174,19 +2153,20 @@
         <v>0</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>2</v>
@@ -2195,19 +2175,20 @@
         <v>0</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>3</v>
@@ -2216,19 +2197,20 @@
         <v>0</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>4</v>
@@ -2237,19 +2219,20 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>5</v>
@@ -2258,19 +2241,20 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>6</v>
@@ -2279,11 +2263,12 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>48</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H7" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I6"/>
+  <autoFilter ref="A1:J6"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2300,23 +2285,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2324,104 +2309,107 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2440,17 +2428,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="3" style="3" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2461,104 +2449,113 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" s="6" t="n">
         <v>0.000148</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>78</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>0.0002</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>78</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>0.0005</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>78</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="6" t="n">
         <v>0.0005</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>78</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0.001</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>78</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>0.002</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>78</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="F7" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2576,19 +2573,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2596,15 +2593,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2621,19 +2622,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2641,13 +2642,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>24</v>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -61,6 +61,8 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
@@ -89,6 +91,8 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
@@ -117,6 +121,8 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
@@ -145,6 +151,8 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
@@ -173,6 +181,8 @@
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -330,7 +340,7 @@
     <t xml:space="preserve">specie_name_1</t>
   </si>
   <si>
-    <t xml:space="preserve">CO</t>
+    <t xml:space="preserve">NaHCO</t>
   </si>
   <si>
     <t xml:space="preserve">pseudo_species</t>
@@ -342,7 +352,7 @@
     <t xml:space="preserve">specie_name_2</t>
   </si>
   <si>
-    <t xml:space="preserve">O2</t>
+    <t xml:space="preserve">N2O2P</t>
   </si>
   <si>
     <t xml:space="preserve">specie_3</t>
@@ -351,7 +361,7 @@
     <t xml:space="preserve">specie_name_3</t>
   </si>
   <si>
-    <t xml:space="preserve">N2O2Na3</t>
+    <t xml:space="preserve">N4O4P2</t>
   </si>
   <si>
     <t xml:space="preserve">specie_4</t>
@@ -360,7 +370,7 @@
     <t xml:space="preserve">specie_name_4</t>
   </si>
   <si>
-    <t xml:space="preserve">H3SO4C9</t>
+    <t xml:space="preserve">N10O10P5</t>
   </si>
   <si>
     <t xml:space="preserve">specie_5</t>
@@ -369,7 +379,7 @@
     <t xml:space="preserve">specie_name_5</t>
   </si>
   <si>
-    <t xml:space="preserve">H20</t>
+    <t xml:space="preserve">N5O5</t>
   </si>
   <si>
     <t xml:space="preserve">specie_6</t>
@@ -378,7 +388,7 @@
     <t xml:space="preserve">specie_name_6</t>
   </si>
   <si>
-    <t xml:space="preserve">U238</t>
+    <t xml:space="preserve">P5</t>
   </si>
   <si>
     <t xml:space="preserve">Species type</t>
@@ -652,7 +662,7 @@
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -687,14 +697,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -758,44 +760,24 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -807,28 +789,24 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -931,17 +909,18 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -949,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -957,7 +936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -965,7 +944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -973,7 +952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -981,7 +960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -989,7 +968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -997,37 +976,37 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1058,15 +1037,15 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="9" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="9" width="42.9554655870445"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="9" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1093,13 +1072,13 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1126,16 +1105,16 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="9" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="9" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="44.2388663967611"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1171,84 +1150,84 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="9" t="n">
+      <c r="E2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="9" t="n">
+      <c r="F2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="9" t="n">
+      <c r="G2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="10"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="9" t="n">
+      <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="n">
+      <c r="F3" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="G3" s="9" t="n">
+      <c r="G3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="10"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="E5" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1272,16 +1251,20 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1313,110 +1296,105 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="7" t="s">
         <v>109</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="7" t="s">
         <v>109</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="7" t="s">
         <v>109</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="7" t="s">
         <v>109</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="7" t="s">
         <v>109</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1437,50 +1415,50 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="X1" activeCellId="0" sqref="X1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="12" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="7" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="8" t="s">
         <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="7" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1507,101 +1485,100 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="14" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="14" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="15" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="7" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="7" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="8" t="s">
         <v>75</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="17" t="n">
+      <c r="D2" s="9" t="n">
         <v>-3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="16" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H2" s="16"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="17" t="n">
+      <c r="D3" s="9" t="n">
         <v>-4</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="17" t="n">
+      <c r="D4" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1626,16 +1603,15 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1662,22 +1638,22 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1685,11 +1661,10 @@
       <c r="A3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="3" t="n">
         <v>2000</v>
       </c>
     </row>
@@ -1697,11 +1672,10 @@
       <c r="A4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="3" t="n">
         <v>0.001</v>
       </c>
     </row>
@@ -1725,33 +1699,36 @@
   </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="10" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>85</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1773,16 +1750,20 @@
   </sheetPr>
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="3" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="11" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="10" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1858,17 +1839,18 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1876,7 +1858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1884,7 +1866,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -1892,12 +1874,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1905,7 +1888,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1926,24 +1909,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1021" min="1" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1022" min="1022" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1962,30 +1943,26 @@
       <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AMH1" s="1"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2007,16 +1984,20 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="3" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2039,39 +2020,39 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="3" t="n">
         <v>4.58E-017</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="3" t="n">
         <v>1E-012</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2095,16 +2076,20 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="3" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2136,136 +2121,136 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="1" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J6"/>
@@ -2292,123 +2277,123 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2430,18 +2415,20 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="3" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2467,95 +2454,95 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="4" t="n">
         <v>0.000148</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="4" t="n">
         <v>0.0002</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="4" t="n">
         <v>0.0005</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="4" t="n">
         <v>0.0005</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="4" t="n">
         <v>0.001</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="4" t="n">
         <v>0.002</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2573,19 +2560,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2601,11 +2591,10 @@
       <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2624,17 +2613,20 @@
   </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2650,7 +2642,7 @@
       <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
     </row>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,75 +24,80 @@
     <sheet name="dFBA net components" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Parameters" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="References" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="Evidence" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="References" sheetId="18" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="true" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="true" localSheetId="17" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
@@ -123,6 +128,8 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
@@ -153,36 +160,40 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -194,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="158">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -277,6 +288,9 @@
     <t xml:space="preserve">Algorithm</t>
   </si>
   <si>
+    <t xml:space="preserve">Evidence</t>
+  </si>
+  <si>
     <t xml:space="preserve">dfba_submodel</t>
   </si>
   <si>
@@ -614,6 +628,21 @@
   </si>
   <si>
     <t xml:space="preserve">K_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genetic variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature (C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Growth media</t>
   </si>
   <si>
     <t xml:space="preserve">Title</t>
@@ -662,7 +691,7 @@
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -696,6 +725,13 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -760,7 +796,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -803,6 +839,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1030,21 +1070,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="44.3481781376518"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1056,30 +1096,33 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1098,22 +1141,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="44.2388663967611"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="44.8825910931174"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1125,42 +1168,45 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0</v>
@@ -1171,20 +1217,20 @@
       <c r="G2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
@@ -1195,20 +1241,20 @@
       <c r="G3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
@@ -1216,16 +1262,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0</v>
@@ -1249,17 +1295,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H12" activeCellId="0" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
@@ -1272,128 +1318,131 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1412,20 +1461,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="7" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="7" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1436,30 +1485,33 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>122</v>
+        <v>28</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1478,23 +1530,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="1:4"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="7" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="7" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="8" min="4" style="7" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1505,80 +1557,1100 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="0"/>
+      <c r="N1" s="0"/>
+      <c r="O1" s="0"/>
+      <c r="P1" s="0"/>
+      <c r="Q1" s="0"/>
+      <c r="R1" s="0"/>
+      <c r="S1" s="0"/>
+      <c r="T1" s="0"/>
+      <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
+      <c r="W1" s="0"/>
+      <c r="X1" s="0"/>
+      <c r="Y1" s="0"/>
+      <c r="Z1" s="0"/>
+      <c r="AA1" s="0"/>
+      <c r="AB1" s="0"/>
+      <c r="AC1" s="0"/>
+      <c r="AD1" s="0"/>
+      <c r="AE1" s="0"/>
+      <c r="AF1" s="0"/>
+      <c r="AG1" s="0"/>
+      <c r="AH1" s="0"/>
+      <c r="AI1" s="0"/>
+      <c r="AJ1" s="0"/>
+      <c r="AK1" s="0"/>
+      <c r="AL1" s="0"/>
+      <c r="AM1" s="0"/>
+      <c r="AN1" s="0"/>
+      <c r="AO1" s="0"/>
+      <c r="AP1" s="0"/>
+      <c r="AQ1" s="0"/>
+      <c r="AR1" s="0"/>
+      <c r="AS1" s="0"/>
+      <c r="AT1" s="0"/>
+      <c r="AU1" s="0"/>
+      <c r="AV1" s="0"/>
+      <c r="AW1" s="0"/>
+      <c r="AX1" s="0"/>
+      <c r="AY1" s="0"/>
+      <c r="AZ1" s="0"/>
+      <c r="BA1" s="0"/>
+      <c r="BB1" s="0"/>
+      <c r="BC1" s="0"/>
+      <c r="BD1" s="0"/>
+      <c r="BE1" s="0"/>
+      <c r="BF1" s="0"/>
+      <c r="BG1" s="0"/>
+      <c r="BH1" s="0"/>
+      <c r="BI1" s="0"/>
+      <c r="BJ1" s="0"/>
+      <c r="BK1" s="0"/>
+      <c r="BL1" s="0"/>
+      <c r="BM1" s="0"/>
+      <c r="BN1" s="0"/>
+      <c r="BO1" s="0"/>
+      <c r="BP1" s="0"/>
+      <c r="BQ1" s="0"/>
+      <c r="BR1" s="0"/>
+      <c r="BS1" s="0"/>
+      <c r="BT1" s="0"/>
+      <c r="BU1" s="0"/>
+      <c r="BV1" s="0"/>
+      <c r="BW1" s="0"/>
+      <c r="BX1" s="0"/>
+      <c r="BY1" s="0"/>
+      <c r="BZ1" s="0"/>
+      <c r="CA1" s="0"/>
+      <c r="CB1" s="0"/>
+      <c r="CC1" s="0"/>
+      <c r="CD1" s="0"/>
+      <c r="CE1" s="0"/>
+      <c r="CF1" s="0"/>
+      <c r="CG1" s="0"/>
+      <c r="CH1" s="0"/>
+      <c r="CI1" s="0"/>
+      <c r="CJ1" s="0"/>
+      <c r="CK1" s="0"/>
+      <c r="CL1" s="0"/>
+      <c r="CM1" s="0"/>
+      <c r="CN1" s="0"/>
+      <c r="CO1" s="0"/>
+      <c r="CP1" s="0"/>
+      <c r="CQ1" s="0"/>
+      <c r="CR1" s="0"/>
+      <c r="CS1" s="0"/>
+      <c r="CT1" s="0"/>
+      <c r="CU1" s="0"/>
+      <c r="CV1" s="0"/>
+      <c r="CW1" s="0"/>
+      <c r="CX1" s="0"/>
+      <c r="CY1" s="0"/>
+      <c r="CZ1" s="0"/>
+      <c r="DA1" s="0"/>
+      <c r="DB1" s="0"/>
+      <c r="DC1" s="0"/>
+      <c r="DD1" s="0"/>
+      <c r="DE1" s="0"/>
+      <c r="DF1" s="0"/>
+      <c r="DG1" s="0"/>
+      <c r="DH1" s="0"/>
+      <c r="DI1" s="0"/>
+      <c r="DJ1" s="0"/>
+      <c r="DK1" s="0"/>
+      <c r="DL1" s="0"/>
+      <c r="DM1" s="0"/>
+      <c r="DN1" s="0"/>
+      <c r="DO1" s="0"/>
+      <c r="DP1" s="0"/>
+      <c r="DQ1" s="0"/>
+      <c r="DR1" s="0"/>
+      <c r="DS1" s="0"/>
+      <c r="DT1" s="0"/>
+      <c r="DU1" s="0"/>
+      <c r="DV1" s="0"/>
+      <c r="DW1" s="0"/>
+      <c r="DX1" s="0"/>
+      <c r="DY1" s="0"/>
+      <c r="DZ1" s="0"/>
+      <c r="EA1" s="0"/>
+      <c r="EB1" s="0"/>
+      <c r="EC1" s="0"/>
+      <c r="ED1" s="0"/>
+      <c r="EE1" s="0"/>
+      <c r="EF1" s="0"/>
+      <c r="EG1" s="0"/>
+      <c r="EH1" s="0"/>
+      <c r="EI1" s="0"/>
+      <c r="EJ1" s="0"/>
+      <c r="EK1" s="0"/>
+      <c r="EL1" s="0"/>
+      <c r="EM1" s="0"/>
+      <c r="EN1" s="0"/>
+      <c r="EO1" s="0"/>
+      <c r="EP1" s="0"/>
+      <c r="EQ1" s="0"/>
+      <c r="ER1" s="0"/>
+      <c r="ES1" s="0"/>
+      <c r="ET1" s="0"/>
+      <c r="EU1" s="0"/>
+      <c r="EV1" s="0"/>
+      <c r="EW1" s="0"/>
+      <c r="EX1" s="0"/>
+      <c r="EY1" s="0"/>
+      <c r="EZ1" s="0"/>
+      <c r="FA1" s="0"/>
+      <c r="FB1" s="0"/>
+      <c r="FC1" s="0"/>
+      <c r="FD1" s="0"/>
+      <c r="FE1" s="0"/>
+      <c r="FF1" s="0"/>
+      <c r="FG1" s="0"/>
+      <c r="FH1" s="0"/>
+      <c r="FI1" s="0"/>
+      <c r="FJ1" s="0"/>
+      <c r="FK1" s="0"/>
+      <c r="FL1" s="0"/>
+      <c r="FM1" s="0"/>
+      <c r="FN1" s="0"/>
+      <c r="FO1" s="0"/>
+      <c r="FP1" s="0"/>
+      <c r="FQ1" s="0"/>
+      <c r="FR1" s="0"/>
+      <c r="FS1" s="0"/>
+      <c r="FT1" s="0"/>
+      <c r="FU1" s="0"/>
+      <c r="FV1" s="0"/>
+      <c r="FW1" s="0"/>
+      <c r="FX1" s="0"/>
+      <c r="FY1" s="0"/>
+      <c r="FZ1" s="0"/>
+      <c r="GA1" s="0"/>
+      <c r="GB1" s="0"/>
+      <c r="GC1" s="0"/>
+      <c r="GD1" s="0"/>
+      <c r="GE1" s="0"/>
+      <c r="GF1" s="0"/>
+      <c r="GG1" s="0"/>
+      <c r="GH1" s="0"/>
+      <c r="GI1" s="0"/>
+      <c r="GJ1" s="0"/>
+      <c r="GK1" s="0"/>
+      <c r="GL1" s="0"/>
+      <c r="GM1" s="0"/>
+      <c r="GN1" s="0"/>
+      <c r="GO1" s="0"/>
+      <c r="GP1" s="0"/>
+      <c r="GQ1" s="0"/>
+      <c r="GR1" s="0"/>
+      <c r="GS1" s="0"/>
+      <c r="GT1" s="0"/>
+      <c r="GU1" s="0"/>
+      <c r="GV1" s="0"/>
+      <c r="GW1" s="0"/>
+      <c r="GX1" s="0"/>
+      <c r="GY1" s="0"/>
+      <c r="GZ1" s="0"/>
+      <c r="HA1" s="0"/>
+      <c r="HB1" s="0"/>
+      <c r="HC1" s="0"/>
+      <c r="HD1" s="0"/>
+      <c r="HE1" s="0"/>
+      <c r="HF1" s="0"/>
+      <c r="HG1" s="0"/>
+      <c r="HH1" s="0"/>
+      <c r="HI1" s="0"/>
+      <c r="HJ1" s="0"/>
+      <c r="HK1" s="0"/>
+      <c r="HL1" s="0"/>
+      <c r="HM1" s="0"/>
+      <c r="HN1" s="0"/>
+      <c r="HO1" s="0"/>
+      <c r="HP1" s="0"/>
+      <c r="HQ1" s="0"/>
+      <c r="HR1" s="0"/>
+      <c r="HS1" s="0"/>
+      <c r="HT1" s="0"/>
+      <c r="HU1" s="0"/>
+      <c r="HV1" s="0"/>
+      <c r="HW1" s="0"/>
+      <c r="HX1" s="0"/>
+      <c r="HY1" s="0"/>
+      <c r="HZ1" s="0"/>
+      <c r="IA1" s="0"/>
+      <c r="IB1" s="0"/>
+      <c r="IC1" s="0"/>
+      <c r="ID1" s="0"/>
+      <c r="IE1" s="0"/>
+      <c r="IF1" s="0"/>
+      <c r="IG1" s="0"/>
+      <c r="IH1" s="0"/>
+      <c r="II1" s="0"/>
+      <c r="IJ1" s="0"/>
+      <c r="IK1" s="0"/>
+      <c r="IL1" s="0"/>
+      <c r="IM1" s="0"/>
+      <c r="IN1" s="0"/>
+      <c r="IO1" s="0"/>
+      <c r="IP1" s="0"/>
+      <c r="IQ1" s="0"/>
+      <c r="IR1" s="0"/>
+      <c r="IS1" s="0"/>
+      <c r="IT1" s="0"/>
+      <c r="IU1" s="0"/>
+      <c r="IV1" s="0"/>
+      <c r="IW1" s="0"/>
+      <c r="IX1" s="0"/>
+      <c r="IY1" s="0"/>
+      <c r="IZ1" s="0"/>
+      <c r="JA1" s="0"/>
+      <c r="JB1" s="0"/>
+      <c r="JC1" s="0"/>
+      <c r="JD1" s="0"/>
+      <c r="JE1" s="0"/>
+      <c r="JF1" s="0"/>
+      <c r="JG1" s="0"/>
+      <c r="JH1" s="0"/>
+      <c r="JI1" s="0"/>
+      <c r="JJ1" s="0"/>
+      <c r="JK1" s="0"/>
+      <c r="JL1" s="0"/>
+      <c r="JM1" s="0"/>
+      <c r="JN1" s="0"/>
+      <c r="JO1" s="0"/>
+      <c r="JP1" s="0"/>
+      <c r="JQ1" s="0"/>
+      <c r="JR1" s="0"/>
+      <c r="JS1" s="0"/>
+      <c r="JT1" s="0"/>
+      <c r="JU1" s="0"/>
+      <c r="JV1" s="0"/>
+      <c r="JW1" s="0"/>
+      <c r="JX1" s="0"/>
+      <c r="JY1" s="0"/>
+      <c r="JZ1" s="0"/>
+      <c r="KA1" s="0"/>
+      <c r="KB1" s="0"/>
+      <c r="KC1" s="0"/>
+      <c r="KD1" s="0"/>
+      <c r="KE1" s="0"/>
+      <c r="KF1" s="0"/>
+      <c r="KG1" s="0"/>
+      <c r="KH1" s="0"/>
+      <c r="KI1" s="0"/>
+      <c r="KJ1" s="0"/>
+      <c r="KK1" s="0"/>
+      <c r="KL1" s="0"/>
+      <c r="KM1" s="0"/>
+      <c r="KN1" s="0"/>
+      <c r="KO1" s="0"/>
+      <c r="KP1" s="0"/>
+      <c r="KQ1" s="0"/>
+      <c r="KR1" s="0"/>
+      <c r="KS1" s="0"/>
+      <c r="KT1" s="0"/>
+      <c r="KU1" s="0"/>
+      <c r="KV1" s="0"/>
+      <c r="KW1" s="0"/>
+      <c r="KX1" s="0"/>
+      <c r="KY1" s="0"/>
+      <c r="KZ1" s="0"/>
+      <c r="LA1" s="0"/>
+      <c r="LB1" s="0"/>
+      <c r="LC1" s="0"/>
+      <c r="LD1" s="0"/>
+      <c r="LE1" s="0"/>
+      <c r="LF1" s="0"/>
+      <c r="LG1" s="0"/>
+      <c r="LH1" s="0"/>
+      <c r="LI1" s="0"/>
+      <c r="LJ1" s="0"/>
+      <c r="LK1" s="0"/>
+      <c r="LL1" s="0"/>
+      <c r="LM1" s="0"/>
+      <c r="LN1" s="0"/>
+      <c r="LO1" s="0"/>
+      <c r="LP1" s="0"/>
+      <c r="LQ1" s="0"/>
+      <c r="LR1" s="0"/>
+      <c r="LS1" s="0"/>
+      <c r="LT1" s="0"/>
+      <c r="LU1" s="0"/>
+      <c r="LV1" s="0"/>
+      <c r="LW1" s="0"/>
+      <c r="LX1" s="0"/>
+      <c r="LY1" s="0"/>
+      <c r="LZ1" s="0"/>
+      <c r="MA1" s="0"/>
+      <c r="MB1" s="0"/>
+      <c r="MC1" s="0"/>
+      <c r="MD1" s="0"/>
+      <c r="ME1" s="0"/>
+      <c r="MF1" s="0"/>
+      <c r="MG1" s="0"/>
+      <c r="MH1" s="0"/>
+      <c r="MI1" s="0"/>
+      <c r="MJ1" s="0"/>
+      <c r="MK1" s="0"/>
+      <c r="ML1" s="0"/>
+      <c r="MM1" s="0"/>
+      <c r="MN1" s="0"/>
+      <c r="MO1" s="0"/>
+      <c r="MP1" s="0"/>
+      <c r="MQ1" s="0"/>
+      <c r="MR1" s="0"/>
+      <c r="MS1" s="0"/>
+      <c r="MT1" s="0"/>
+      <c r="MU1" s="0"/>
+      <c r="MV1" s="0"/>
+      <c r="MW1" s="0"/>
+      <c r="MX1" s="0"/>
+      <c r="MY1" s="0"/>
+      <c r="MZ1" s="0"/>
+      <c r="NA1" s="0"/>
+      <c r="NB1" s="0"/>
+      <c r="NC1" s="0"/>
+      <c r="ND1" s="0"/>
+      <c r="NE1" s="0"/>
+      <c r="NF1" s="0"/>
+      <c r="NG1" s="0"/>
+      <c r="NH1" s="0"/>
+      <c r="NI1" s="0"/>
+      <c r="NJ1" s="0"/>
+      <c r="NK1" s="0"/>
+      <c r="NL1" s="0"/>
+      <c r="NM1" s="0"/>
+      <c r="NN1" s="0"/>
+      <c r="NO1" s="0"/>
+      <c r="NP1" s="0"/>
+      <c r="NQ1" s="0"/>
+      <c r="NR1" s="0"/>
+      <c r="NS1" s="0"/>
+      <c r="NT1" s="0"/>
+      <c r="NU1" s="0"/>
+      <c r="NV1" s="0"/>
+      <c r="NW1" s="0"/>
+      <c r="NX1" s="0"/>
+      <c r="NY1" s="0"/>
+      <c r="NZ1" s="0"/>
+      <c r="OA1" s="0"/>
+      <c r="OB1" s="0"/>
+      <c r="OC1" s="0"/>
+      <c r="OD1" s="0"/>
+      <c r="OE1" s="0"/>
+      <c r="OF1" s="0"/>
+      <c r="OG1" s="0"/>
+      <c r="OH1" s="0"/>
+      <c r="OI1" s="0"/>
+      <c r="OJ1" s="0"/>
+      <c r="OK1" s="0"/>
+      <c r="OL1" s="0"/>
+      <c r="OM1" s="0"/>
+      <c r="ON1" s="0"/>
+      <c r="OO1" s="0"/>
+      <c r="OP1" s="0"/>
+      <c r="OQ1" s="0"/>
+      <c r="OR1" s="0"/>
+      <c r="OS1" s="0"/>
+      <c r="OT1" s="0"/>
+      <c r="OU1" s="0"/>
+      <c r="OV1" s="0"/>
+      <c r="OW1" s="0"/>
+      <c r="OX1" s="0"/>
+      <c r="OY1" s="0"/>
+      <c r="OZ1" s="0"/>
+      <c r="PA1" s="0"/>
+      <c r="PB1" s="0"/>
+      <c r="PC1" s="0"/>
+      <c r="PD1" s="0"/>
+      <c r="PE1" s="0"/>
+      <c r="PF1" s="0"/>
+      <c r="PG1" s="0"/>
+      <c r="PH1" s="0"/>
+      <c r="PI1" s="0"/>
+      <c r="PJ1" s="0"/>
+      <c r="PK1" s="0"/>
+      <c r="PL1" s="0"/>
+      <c r="PM1" s="0"/>
+      <c r="PN1" s="0"/>
+      <c r="PO1" s="0"/>
+      <c r="PP1" s="0"/>
+      <c r="PQ1" s="0"/>
+      <c r="PR1" s="0"/>
+      <c r="PS1" s="0"/>
+      <c r="PT1" s="0"/>
+      <c r="PU1" s="0"/>
+      <c r="PV1" s="0"/>
+      <c r="PW1" s="0"/>
+      <c r="PX1" s="0"/>
+      <c r="PY1" s="0"/>
+      <c r="PZ1" s="0"/>
+      <c r="QA1" s="0"/>
+      <c r="QB1" s="0"/>
+      <c r="QC1" s="0"/>
+      <c r="QD1" s="0"/>
+      <c r="QE1" s="0"/>
+      <c r="QF1" s="0"/>
+      <c r="QG1" s="0"/>
+      <c r="QH1" s="0"/>
+      <c r="QI1" s="0"/>
+      <c r="QJ1" s="0"/>
+      <c r="QK1" s="0"/>
+      <c r="QL1" s="0"/>
+      <c r="QM1" s="0"/>
+      <c r="QN1" s="0"/>
+      <c r="QO1" s="0"/>
+      <c r="QP1" s="0"/>
+      <c r="QQ1" s="0"/>
+      <c r="QR1" s="0"/>
+      <c r="QS1" s="0"/>
+      <c r="QT1" s="0"/>
+      <c r="QU1" s="0"/>
+      <c r="QV1" s="0"/>
+      <c r="QW1" s="0"/>
+      <c r="QX1" s="0"/>
+      <c r="QY1" s="0"/>
+      <c r="QZ1" s="0"/>
+      <c r="RA1" s="0"/>
+      <c r="RB1" s="0"/>
+      <c r="RC1" s="0"/>
+      <c r="RD1" s="0"/>
+      <c r="RE1" s="0"/>
+      <c r="RF1" s="0"/>
+      <c r="RG1" s="0"/>
+      <c r="RH1" s="0"/>
+      <c r="RI1" s="0"/>
+      <c r="RJ1" s="0"/>
+      <c r="RK1" s="0"/>
+      <c r="RL1" s="0"/>
+      <c r="RM1" s="0"/>
+      <c r="RN1" s="0"/>
+      <c r="RO1" s="0"/>
+      <c r="RP1" s="0"/>
+      <c r="RQ1" s="0"/>
+      <c r="RR1" s="0"/>
+      <c r="RS1" s="0"/>
+      <c r="RT1" s="0"/>
+      <c r="RU1" s="0"/>
+      <c r="RV1" s="0"/>
+      <c r="RW1" s="0"/>
+      <c r="RX1" s="0"/>
+      <c r="RY1" s="0"/>
+      <c r="RZ1" s="0"/>
+      <c r="SA1" s="0"/>
+      <c r="SB1" s="0"/>
+      <c r="SC1" s="0"/>
+      <c r="SD1" s="0"/>
+      <c r="SE1" s="0"/>
+      <c r="SF1" s="0"/>
+      <c r="SG1" s="0"/>
+      <c r="SH1" s="0"/>
+      <c r="SI1" s="0"/>
+      <c r="SJ1" s="0"/>
+      <c r="SK1" s="0"/>
+      <c r="SL1" s="0"/>
+      <c r="SM1" s="0"/>
+      <c r="SN1" s="0"/>
+      <c r="SO1" s="0"/>
+      <c r="SP1" s="0"/>
+      <c r="SQ1" s="0"/>
+      <c r="SR1" s="0"/>
+      <c r="SS1" s="0"/>
+      <c r="ST1" s="0"/>
+      <c r="SU1" s="0"/>
+      <c r="SV1" s="0"/>
+      <c r="SW1" s="0"/>
+      <c r="SX1" s="0"/>
+      <c r="SY1" s="0"/>
+      <c r="SZ1" s="0"/>
+      <c r="TA1" s="0"/>
+      <c r="TB1" s="0"/>
+      <c r="TC1" s="0"/>
+      <c r="TD1" s="0"/>
+      <c r="TE1" s="0"/>
+      <c r="TF1" s="0"/>
+      <c r="TG1" s="0"/>
+      <c r="TH1" s="0"/>
+      <c r="TI1" s="0"/>
+      <c r="TJ1" s="0"/>
+      <c r="TK1" s="0"/>
+      <c r="TL1" s="0"/>
+      <c r="TM1" s="0"/>
+      <c r="TN1" s="0"/>
+      <c r="TO1" s="0"/>
+      <c r="TP1" s="0"/>
+      <c r="TQ1" s="0"/>
+      <c r="TR1" s="0"/>
+      <c r="TS1" s="0"/>
+      <c r="TT1" s="0"/>
+      <c r="TU1" s="0"/>
+      <c r="TV1" s="0"/>
+      <c r="TW1" s="0"/>
+      <c r="TX1" s="0"/>
+      <c r="TY1" s="0"/>
+      <c r="TZ1" s="0"/>
+      <c r="UA1" s="0"/>
+      <c r="UB1" s="0"/>
+      <c r="UC1" s="0"/>
+      <c r="UD1" s="0"/>
+      <c r="UE1" s="0"/>
+      <c r="UF1" s="0"/>
+      <c r="UG1" s="0"/>
+      <c r="UH1" s="0"/>
+      <c r="UI1" s="0"/>
+      <c r="UJ1" s="0"/>
+      <c r="UK1" s="0"/>
+      <c r="UL1" s="0"/>
+      <c r="UM1" s="0"/>
+      <c r="UN1" s="0"/>
+      <c r="UO1" s="0"/>
+      <c r="UP1" s="0"/>
+      <c r="UQ1" s="0"/>
+      <c r="UR1" s="0"/>
+      <c r="US1" s="0"/>
+      <c r="UT1" s="0"/>
+      <c r="UU1" s="0"/>
+      <c r="UV1" s="0"/>
+      <c r="UW1" s="0"/>
+      <c r="UX1" s="0"/>
+      <c r="UY1" s="0"/>
+      <c r="UZ1" s="0"/>
+      <c r="VA1" s="0"/>
+      <c r="VB1" s="0"/>
+      <c r="VC1" s="0"/>
+      <c r="VD1" s="0"/>
+      <c r="VE1" s="0"/>
+      <c r="VF1" s="0"/>
+      <c r="VG1" s="0"/>
+      <c r="VH1" s="0"/>
+      <c r="VI1" s="0"/>
+      <c r="VJ1" s="0"/>
+      <c r="VK1" s="0"/>
+      <c r="VL1" s="0"/>
+      <c r="VM1" s="0"/>
+      <c r="VN1" s="0"/>
+      <c r="VO1" s="0"/>
+      <c r="VP1" s="0"/>
+      <c r="VQ1" s="0"/>
+      <c r="VR1" s="0"/>
+      <c r="VS1" s="0"/>
+      <c r="VT1" s="0"/>
+      <c r="VU1" s="0"/>
+      <c r="VV1" s="0"/>
+      <c r="VW1" s="0"/>
+      <c r="VX1" s="0"/>
+      <c r="VY1" s="0"/>
+      <c r="VZ1" s="0"/>
+      <c r="WA1" s="0"/>
+      <c r="WB1" s="0"/>
+      <c r="WC1" s="0"/>
+      <c r="WD1" s="0"/>
+      <c r="WE1" s="0"/>
+      <c r="WF1" s="0"/>
+      <c r="WG1" s="0"/>
+      <c r="WH1" s="0"/>
+      <c r="WI1" s="0"/>
+      <c r="WJ1" s="0"/>
+      <c r="WK1" s="0"/>
+      <c r="WL1" s="0"/>
+      <c r="WM1" s="0"/>
+      <c r="WN1" s="0"/>
+      <c r="WO1" s="0"/>
+      <c r="WP1" s="0"/>
+      <c r="WQ1" s="0"/>
+      <c r="WR1" s="0"/>
+      <c r="WS1" s="0"/>
+      <c r="WT1" s="0"/>
+      <c r="WU1" s="0"/>
+      <c r="WV1" s="0"/>
+      <c r="WW1" s="0"/>
+      <c r="WX1" s="0"/>
+      <c r="WY1" s="0"/>
+      <c r="WZ1" s="0"/>
+      <c r="XA1" s="0"/>
+      <c r="XB1" s="0"/>
+      <c r="XC1" s="0"/>
+      <c r="XD1" s="0"/>
+      <c r="XE1" s="0"/>
+      <c r="XF1" s="0"/>
+      <c r="XG1" s="0"/>
+      <c r="XH1" s="0"/>
+      <c r="XI1" s="0"/>
+      <c r="XJ1" s="0"/>
+      <c r="XK1" s="0"/>
+      <c r="XL1" s="0"/>
+      <c r="XM1" s="0"/>
+      <c r="XN1" s="0"/>
+      <c r="XO1" s="0"/>
+      <c r="XP1" s="0"/>
+      <c r="XQ1" s="0"/>
+      <c r="XR1" s="0"/>
+      <c r="XS1" s="0"/>
+      <c r="XT1" s="0"/>
+      <c r="XU1" s="0"/>
+      <c r="XV1" s="0"/>
+      <c r="XW1" s="0"/>
+      <c r="XX1" s="0"/>
+      <c r="XY1" s="0"/>
+      <c r="XZ1" s="0"/>
+      <c r="YA1" s="0"/>
+      <c r="YB1" s="0"/>
+      <c r="YC1" s="0"/>
+      <c r="YD1" s="0"/>
+      <c r="YE1" s="0"/>
+      <c r="YF1" s="0"/>
+      <c r="YG1" s="0"/>
+      <c r="YH1" s="0"/>
+      <c r="YI1" s="0"/>
+      <c r="YJ1" s="0"/>
+      <c r="YK1" s="0"/>
+      <c r="YL1" s="0"/>
+      <c r="YM1" s="0"/>
+      <c r="YN1" s="0"/>
+      <c r="YO1" s="0"/>
+      <c r="YP1" s="0"/>
+      <c r="YQ1" s="0"/>
+      <c r="YR1" s="0"/>
+      <c r="YS1" s="0"/>
+      <c r="YT1" s="0"/>
+      <c r="YU1" s="0"/>
+      <c r="YV1" s="0"/>
+      <c r="YW1" s="0"/>
+      <c r="YX1" s="0"/>
+      <c r="YY1" s="0"/>
+      <c r="YZ1" s="0"/>
+      <c r="ZA1" s="0"/>
+      <c r="ZB1" s="0"/>
+      <c r="ZC1" s="0"/>
+      <c r="ZD1" s="0"/>
+      <c r="ZE1" s="0"/>
+      <c r="ZF1" s="0"/>
+      <c r="ZG1" s="0"/>
+      <c r="ZH1" s="0"/>
+      <c r="ZI1" s="0"/>
+      <c r="ZJ1" s="0"/>
+      <c r="ZK1" s="0"/>
+      <c r="ZL1" s="0"/>
+      <c r="ZM1" s="0"/>
+      <c r="ZN1" s="0"/>
+      <c r="ZO1" s="0"/>
+      <c r="ZP1" s="0"/>
+      <c r="ZQ1" s="0"/>
+      <c r="ZR1" s="0"/>
+      <c r="ZS1" s="0"/>
+      <c r="ZT1" s="0"/>
+      <c r="ZU1" s="0"/>
+      <c r="ZV1" s="0"/>
+      <c r="ZW1" s="0"/>
+      <c r="ZX1" s="0"/>
+      <c r="ZY1" s="0"/>
+      <c r="ZZ1" s="0"/>
+      <c r="AAA1" s="0"/>
+      <c r="AAB1" s="0"/>
+      <c r="AAC1" s="0"/>
+      <c r="AAD1" s="0"/>
+      <c r="AAE1" s="0"/>
+      <c r="AAF1" s="0"/>
+      <c r="AAG1" s="0"/>
+      <c r="AAH1" s="0"/>
+      <c r="AAI1" s="0"/>
+      <c r="AAJ1" s="0"/>
+      <c r="AAK1" s="0"/>
+      <c r="AAL1" s="0"/>
+      <c r="AAM1" s="0"/>
+      <c r="AAN1" s="0"/>
+      <c r="AAO1" s="0"/>
+      <c r="AAP1" s="0"/>
+      <c r="AAQ1" s="0"/>
+      <c r="AAR1" s="0"/>
+      <c r="AAS1" s="0"/>
+      <c r="AAT1" s="0"/>
+      <c r="AAU1" s="0"/>
+      <c r="AAV1" s="0"/>
+      <c r="AAW1" s="0"/>
+      <c r="AAX1" s="0"/>
+      <c r="AAY1" s="0"/>
+      <c r="AAZ1" s="0"/>
+      <c r="ABA1" s="0"/>
+      <c r="ABB1" s="0"/>
+      <c r="ABC1" s="0"/>
+      <c r="ABD1" s="0"/>
+      <c r="ABE1" s="0"/>
+      <c r="ABF1" s="0"/>
+      <c r="ABG1" s="0"/>
+      <c r="ABH1" s="0"/>
+      <c r="ABI1" s="0"/>
+      <c r="ABJ1" s="0"/>
+      <c r="ABK1" s="0"/>
+      <c r="ABL1" s="0"/>
+      <c r="ABM1" s="0"/>
+      <c r="ABN1" s="0"/>
+      <c r="ABO1" s="0"/>
+      <c r="ABP1" s="0"/>
+      <c r="ABQ1" s="0"/>
+      <c r="ABR1" s="0"/>
+      <c r="ABS1" s="0"/>
+      <c r="ABT1" s="0"/>
+      <c r="ABU1" s="0"/>
+      <c r="ABV1" s="0"/>
+      <c r="ABW1" s="0"/>
+      <c r="ABX1" s="0"/>
+      <c r="ABY1" s="0"/>
+      <c r="ABZ1" s="0"/>
+      <c r="ACA1" s="0"/>
+      <c r="ACB1" s="0"/>
+      <c r="ACC1" s="0"/>
+      <c r="ACD1" s="0"/>
+      <c r="ACE1" s="0"/>
+      <c r="ACF1" s="0"/>
+      <c r="ACG1" s="0"/>
+      <c r="ACH1" s="0"/>
+      <c r="ACI1" s="0"/>
+      <c r="ACJ1" s="0"/>
+      <c r="ACK1" s="0"/>
+      <c r="ACL1" s="0"/>
+      <c r="ACM1" s="0"/>
+      <c r="ACN1" s="0"/>
+      <c r="ACO1" s="0"/>
+      <c r="ACP1" s="0"/>
+      <c r="ACQ1" s="0"/>
+      <c r="ACR1" s="0"/>
+      <c r="ACS1" s="0"/>
+      <c r="ACT1" s="0"/>
+      <c r="ACU1" s="0"/>
+      <c r="ACV1" s="0"/>
+      <c r="ACW1" s="0"/>
+      <c r="ACX1" s="0"/>
+      <c r="ACY1" s="0"/>
+      <c r="ACZ1" s="0"/>
+      <c r="ADA1" s="0"/>
+      <c r="ADB1" s="0"/>
+      <c r="ADC1" s="0"/>
+      <c r="ADD1" s="0"/>
+      <c r="ADE1" s="0"/>
+      <c r="ADF1" s="0"/>
+      <c r="ADG1" s="0"/>
+      <c r="ADH1" s="0"/>
+      <c r="ADI1" s="0"/>
+      <c r="ADJ1" s="0"/>
+      <c r="ADK1" s="0"/>
+      <c r="ADL1" s="0"/>
+      <c r="ADM1" s="0"/>
+      <c r="ADN1" s="0"/>
+      <c r="ADO1" s="0"/>
+      <c r="ADP1" s="0"/>
+      <c r="ADQ1" s="0"/>
+      <c r="ADR1" s="0"/>
+      <c r="ADS1" s="0"/>
+      <c r="ADT1" s="0"/>
+      <c r="ADU1" s="0"/>
+      <c r="ADV1" s="0"/>
+      <c r="ADW1" s="0"/>
+      <c r="ADX1" s="0"/>
+      <c r="ADY1" s="0"/>
+      <c r="ADZ1" s="0"/>
+      <c r="AEA1" s="0"/>
+      <c r="AEB1" s="0"/>
+      <c r="AEC1" s="0"/>
+      <c r="AED1" s="0"/>
+      <c r="AEE1" s="0"/>
+      <c r="AEF1" s="0"/>
+      <c r="AEG1" s="0"/>
+      <c r="AEH1" s="0"/>
+      <c r="AEI1" s="0"/>
+      <c r="AEJ1" s="0"/>
+      <c r="AEK1" s="0"/>
+      <c r="AEL1" s="0"/>
+      <c r="AEM1" s="0"/>
+      <c r="AEN1" s="0"/>
+      <c r="AEO1" s="0"/>
+      <c r="AEP1" s="0"/>
+      <c r="AEQ1" s="0"/>
+      <c r="AER1" s="0"/>
+      <c r="AES1" s="0"/>
+      <c r="AET1" s="0"/>
+      <c r="AEU1" s="0"/>
+      <c r="AEV1" s="0"/>
+      <c r="AEW1" s="0"/>
+      <c r="AEX1" s="0"/>
+      <c r="AEY1" s="0"/>
+      <c r="AEZ1" s="0"/>
+      <c r="AFA1" s="0"/>
+      <c r="AFB1" s="0"/>
+      <c r="AFC1" s="0"/>
+      <c r="AFD1" s="0"/>
+      <c r="AFE1" s="0"/>
+      <c r="AFF1" s="0"/>
+      <c r="AFG1" s="0"/>
+      <c r="AFH1" s="0"/>
+      <c r="AFI1" s="0"/>
+      <c r="AFJ1" s="0"/>
+      <c r="AFK1" s="0"/>
+      <c r="AFL1" s="0"/>
+      <c r="AFM1" s="0"/>
+      <c r="AFN1" s="0"/>
+      <c r="AFO1" s="0"/>
+      <c r="AFP1" s="0"/>
+      <c r="AFQ1" s="0"/>
+      <c r="AFR1" s="0"/>
+      <c r="AFS1" s="0"/>
+      <c r="AFT1" s="0"/>
+      <c r="AFU1" s="0"/>
+      <c r="AFV1" s="0"/>
+      <c r="AFW1" s="0"/>
+      <c r="AFX1" s="0"/>
+      <c r="AFY1" s="0"/>
+      <c r="AFZ1" s="0"/>
+      <c r="AGA1" s="0"/>
+      <c r="AGB1" s="0"/>
+      <c r="AGC1" s="0"/>
+      <c r="AGD1" s="0"/>
+      <c r="AGE1" s="0"/>
+      <c r="AGF1" s="0"/>
+      <c r="AGG1" s="0"/>
+      <c r="AGH1" s="0"/>
+      <c r="AGI1" s="0"/>
+      <c r="AGJ1" s="0"/>
+      <c r="AGK1" s="0"/>
+      <c r="AGL1" s="0"/>
+      <c r="AGM1" s="0"/>
+      <c r="AGN1" s="0"/>
+      <c r="AGO1" s="0"/>
+      <c r="AGP1" s="0"/>
+      <c r="AGQ1" s="0"/>
+      <c r="AGR1" s="0"/>
+      <c r="AGS1" s="0"/>
+      <c r="AGT1" s="0"/>
+      <c r="AGU1" s="0"/>
+      <c r="AGV1" s="0"/>
+      <c r="AGW1" s="0"/>
+      <c r="AGX1" s="0"/>
+      <c r="AGY1" s="0"/>
+      <c r="AGZ1" s="0"/>
+      <c r="AHA1" s="0"/>
+      <c r="AHB1" s="0"/>
+      <c r="AHC1" s="0"/>
+      <c r="AHD1" s="0"/>
+      <c r="AHE1" s="0"/>
+      <c r="AHF1" s="0"/>
+      <c r="AHG1" s="0"/>
+      <c r="AHH1" s="0"/>
+      <c r="AHI1" s="0"/>
+      <c r="AHJ1" s="0"/>
+      <c r="AHK1" s="0"/>
+      <c r="AHL1" s="0"/>
+      <c r="AHM1" s="0"/>
+      <c r="AHN1" s="0"/>
+      <c r="AHO1" s="0"/>
+      <c r="AHP1" s="0"/>
+      <c r="AHQ1" s="0"/>
+      <c r="AHR1" s="0"/>
+      <c r="AHS1" s="0"/>
+      <c r="AHT1" s="0"/>
+      <c r="AHU1" s="0"/>
+      <c r="AHV1" s="0"/>
+      <c r="AHW1" s="0"/>
+      <c r="AHX1" s="0"/>
+      <c r="AHY1" s="0"/>
+      <c r="AHZ1" s="0"/>
+      <c r="AIA1" s="0"/>
+      <c r="AIB1" s="0"/>
+      <c r="AIC1" s="0"/>
+      <c r="AID1" s="0"/>
+      <c r="AIE1" s="0"/>
+      <c r="AIF1" s="0"/>
+      <c r="AIG1" s="0"/>
+      <c r="AIH1" s="0"/>
+      <c r="AII1" s="0"/>
+      <c r="AIJ1" s="0"/>
+      <c r="AIK1" s="0"/>
+      <c r="AIL1" s="0"/>
+      <c r="AIM1" s="0"/>
+      <c r="AIN1" s="0"/>
+      <c r="AIO1" s="0"/>
+      <c r="AIP1" s="0"/>
+      <c r="AIQ1" s="0"/>
+      <c r="AIR1" s="0"/>
+      <c r="AIS1" s="0"/>
+      <c r="AIT1" s="0"/>
+      <c r="AIU1" s="0"/>
+      <c r="AIV1" s="0"/>
+      <c r="AIW1" s="0"/>
+      <c r="AIX1" s="0"/>
+      <c r="AIY1" s="0"/>
+      <c r="AIZ1" s="0"/>
+      <c r="AJA1" s="0"/>
+      <c r="AJB1" s="0"/>
+      <c r="AJC1" s="0"/>
+      <c r="AJD1" s="0"/>
+      <c r="AJE1" s="0"/>
+      <c r="AJF1" s="0"/>
+      <c r="AJG1" s="0"/>
+      <c r="AJH1" s="0"/>
+      <c r="AJI1" s="0"/>
+      <c r="AJJ1" s="0"/>
+      <c r="AJK1" s="0"/>
+      <c r="AJL1" s="0"/>
+      <c r="AJM1" s="0"/>
+      <c r="AJN1" s="0"/>
+      <c r="AJO1" s="0"/>
+      <c r="AJP1" s="0"/>
+      <c r="AJQ1" s="0"/>
+      <c r="AJR1" s="0"/>
+      <c r="AJS1" s="0"/>
+      <c r="AJT1" s="0"/>
+      <c r="AJU1" s="0"/>
+      <c r="AJV1" s="0"/>
+      <c r="AJW1" s="0"/>
+      <c r="AJX1" s="0"/>
+      <c r="AJY1" s="0"/>
+      <c r="AJZ1" s="0"/>
+      <c r="AKA1" s="0"/>
+      <c r="AKB1" s="0"/>
+      <c r="AKC1" s="0"/>
+      <c r="AKD1" s="0"/>
+      <c r="AKE1" s="0"/>
+      <c r="AKF1" s="0"/>
+      <c r="AKG1" s="0"/>
+      <c r="AKH1" s="0"/>
+      <c r="AKI1" s="0"/>
+      <c r="AKJ1" s="0"/>
+      <c r="AKK1" s="0"/>
+      <c r="AKL1" s="0"/>
+      <c r="AKM1" s="0"/>
+      <c r="AKN1" s="0"/>
+      <c r="AKO1" s="0"/>
+      <c r="AKP1" s="0"/>
+      <c r="AKQ1" s="0"/>
+      <c r="AKR1" s="0"/>
+      <c r="AKS1" s="0"/>
+      <c r="AKT1" s="0"/>
+      <c r="AKU1" s="0"/>
+      <c r="AKV1" s="0"/>
+      <c r="AKW1" s="0"/>
+      <c r="AKX1" s="0"/>
+      <c r="AKY1" s="0"/>
+      <c r="AKZ1" s="0"/>
+      <c r="ALA1" s="0"/>
+      <c r="ALB1" s="0"/>
+      <c r="ALC1" s="0"/>
+      <c r="ALD1" s="0"/>
+      <c r="ALE1" s="0"/>
+      <c r="ALF1" s="0"/>
+      <c r="ALG1" s="0"/>
+      <c r="ALH1" s="0"/>
+      <c r="ALI1" s="0"/>
+      <c r="ALJ1" s="0"/>
+      <c r="ALK1" s="0"/>
+      <c r="ALL1" s="0"/>
+      <c r="ALM1" s="0"/>
+      <c r="ALN1" s="0"/>
+      <c r="ALO1" s="0"/>
+      <c r="ALP1" s="0"/>
+      <c r="ALQ1" s="0"/>
+      <c r="ALR1" s="0"/>
+      <c r="ALS1" s="0"/>
+      <c r="ALT1" s="0"/>
+      <c r="ALU1" s="0"/>
+      <c r="ALV1" s="0"/>
+      <c r="ALW1" s="0"/>
+      <c r="ALX1" s="0"/>
+      <c r="ALY1" s="0"/>
+      <c r="ALZ1" s="0"/>
+      <c r="AMA1" s="0"/>
+      <c r="AMB1" s="0"/>
+      <c r="AMC1" s="0"/>
+      <c r="AMD1" s="0"/>
+      <c r="AME1" s="0"/>
+      <c r="AMF1" s="0"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="1" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D2" s="9" t="n">
         <v>-3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="7" t="s">
-        <v>127</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D3" s="9" t="n">
         <v>-4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D4" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1596,17 +2668,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
@@ -1619,50 +2691,53 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>135</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>2000</v>
@@ -1670,10 +2745,10 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0.001</v>
@@ -1697,38 +2772,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K12" activeCellId="0" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="10" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>85</v>
+      <c r="C1" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1748,6 +2826,83 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F10" activeCellId="0" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -1755,12 +2910,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="11" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="12" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1771,46 +2926,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -1909,17 +3064,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
@@ -1938,32 +3093,35 @@
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1982,17 +3140,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
@@ -2005,59 +3163,64 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>4.58E-017</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="1" t="s">
-        <v>38</v>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>1E-012</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="1" t="s">
-        <v>41</v>
+      <c r="F3" s="3"/>
+      <c r="G3" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F3"/>
+  <autoFilter ref="A1:G3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2074,17 +3237,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
@@ -2097,39 +3260,42 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
@@ -2138,20 +3304,21 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>2</v>
@@ -2160,20 +3327,21 @@
         <v>-1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>3</v>
@@ -2182,20 +3350,21 @@
         <v>-2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>4</v>
@@ -2204,20 +3373,21 @@
         <v>-5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>5</v>
@@ -2226,20 +3396,21 @@
         <v>-3</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>6</v>
@@ -2248,12 +3419,13 @@
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J6"/>
+  <autoFilter ref="A1:K6"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2270,20 +3442,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2294,107 +3466,110 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2413,17 +3588,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
@@ -2436,113 +3611,122 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0.000148</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0.0002</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.0005</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.0005</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>0.001</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>0.002</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2560,38 +3744,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>85</v>
+      <c r="C1" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2611,38 +3798,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>85</v>
+      <c r="C1" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,44 +28,45 @@
     <sheet name="References" sheetId="18" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="true" localSheetId="17" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
@@ -98,6 +99,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
@@ -130,6 +132,7 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
@@ -162,6 +165,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
@@ -194,6 +198,7 @@
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -205,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="160">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -312,7 +317,10 @@
     <t xml:space="preserve">Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Initial volume</t>
+    <t xml:space="preserve">Mean volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean volume units</t>
   </si>
   <si>
     <t xml:space="preserve">c</t>
@@ -322,6 +330,9 @@
   </si>
   <si>
     <t xml:space="preserve">physical_3d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
   </si>
   <si>
     <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
@@ -1082,9 +1093,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="44.668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1096,10 +1107,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
@@ -1116,13 +1127,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1155,8 +1166,8 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="45.2024291497976"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1168,19 +1179,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -1197,16 +1208,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0</v>
@@ -1221,16 +1232,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
@@ -1245,16 +1256,16 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
@@ -1262,16 +1273,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0</v>
@@ -1318,19 +1329,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -1347,102 +1358,102 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1485,7 +1496,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
@@ -1502,16 +1513,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1543,7 +1554,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="7" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="8" min="4" style="7" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="7" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="8.78542510121457"/>
@@ -1557,13 +1568,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -2595,59 +2606,59 @@
     </row>
     <row r="2" s="1" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D2" s="9" t="n">
         <v>-3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D3" s="9" t="n">
         <v>-4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D4" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -2694,10 +2705,10 @@
         <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -2714,30 +2725,30 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>2000</v>
@@ -2745,10 +2756,10 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0.001</v>
@@ -2795,7 +2806,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
@@ -2828,7 +2839,7 @@
   </sheetPr>
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -2838,8 +2849,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2851,28 +2862,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>16</v>
@@ -2926,46 +2937,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -3140,14 +3151,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3169,58 +3180,67 @@
         <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>4.58E-017</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="1" t="s">
-        <v>39</v>
+      <c r="G2" s="3"/>
+      <c r="H2" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>1E-012</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="1" t="s">
-        <v>42</v>
+      <c r="G3" s="3"/>
+      <c r="H3" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G3"/>
+  <autoFilter ref="A1:H3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3260,16 +3280,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>34</v>
@@ -3289,13 +3309,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
@@ -3304,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -3312,13 +3332,13 @@
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>2</v>
@@ -3327,7 +3347,7 @@
         <v>-1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -3335,13 +3355,13 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>3</v>
@@ -3350,7 +3370,7 @@
         <v>-2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -3358,13 +3378,13 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>4</v>
@@ -3373,7 +3393,7 @@
         <v>-5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -3381,13 +3401,13 @@
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>5</v>
@@ -3396,7 +3416,7 @@
         <v>-3</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -3404,13 +3424,13 @@
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>6</v>
@@ -3419,7 +3439,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -3466,10 +3486,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
@@ -3486,90 +3506,90 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3611,13 +3631,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -3634,96 +3654,96 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0.000148</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0.0002</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.0005</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.0005</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>0.001</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>0.002</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -3767,7 +3787,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
@@ -3821,7 +3841,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -28,45 +28,48 @@
     <sheet name="References" sheetId="18" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="true" localSheetId="17" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
@@ -100,6 +103,9 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
@@ -133,6 +139,9 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
@@ -166,6 +175,9 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
@@ -199,6 +211,9 @@
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -210,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="163">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -317,10 +332,13 @@
     <t xml:space="preserve">Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean volume units</t>
+    <t xml:space="preserve">Volume mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume standard deviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume units</t>
   </si>
   <si>
     <t xml:space="preserve">c</t>
@@ -449,172 +467,178 @@
     <t xml:space="preserve">Species</t>
   </si>
   <si>
+    <t xml:space="preserve">Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard deviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conc-specie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conc-specie_2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conc-specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conc-specie_4[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conc-specie_5[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conc-specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-obj-dfba_submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2*Metabolism_net_rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_1-forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max( specie_1[e], specie_2[e] )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s^-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_2-forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat_2 * specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_3-forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c] / k_m_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_3-backward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_4-forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism_net_rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism net reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dFBA net reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-specie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dFBA net component 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dFBA net component 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-specie_3[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dFBA net component 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conc-specie_1[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conc-specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conc-specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conc-specie_4[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conc-specie_5[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conc-specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfba-obj-dfba_submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2*Metabolism_net_rxn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_1-forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s^-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_2-forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat_2 * specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3-forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c] / k_m_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3-backward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_4-forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism_net_rxn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism net reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dFBA net reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-specie_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dFBA net component 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dFBA net component 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-specie_3[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dFBA net component 3</t>
   </si>
   <si>
     <t xml:space="preserve">fractionDryWeight</t>
@@ -1093,9 +1117,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="45.8461538461538"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1107,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
@@ -1127,13 +1151,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1165,9 +1189,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="45.2024291497976"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="46.4898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1179,19 +1202,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -1208,16 +1231,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0</v>
@@ -1232,16 +1255,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
@@ -1256,16 +1279,16 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
@@ -1273,16 +1296,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0</v>
@@ -1329,19 +1352,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -1358,102 +1381,102 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1496,7 +1519,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
@@ -1513,16 +1536,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1554,7 +1577,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="7" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="4" style="7" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="7" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="8.78542510121457"/>
@@ -1568,13 +1591,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -2606,59 +2629,59 @@
     </row>
     <row r="2" s="1" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D2" s="9" t="n">
         <v>-3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D3" s="9" t="n">
         <v>-4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D4" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -2705,10 +2728,10 @@
         <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -2725,30 +2748,30 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>2000</v>
@@ -2756,10 +2779,10 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0.001</v>
@@ -2806,7 +2829,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
@@ -2849,8 +2872,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2862,28 +2885,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>16</v>
@@ -2937,46 +2960,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -3151,14 +3174,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3183,64 +3206,73 @@
         <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>4.58E-017</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="3"/>
+      <c r="E2" s="3" t="n">
+        <v>4.58E-018</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="1" t="s">
-        <v>41</v>
+      <c r="H2" s="3"/>
+      <c r="I2" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>1E-012</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="3"/>
+      <c r="E3" s="3" t="n">
+        <v>1E-013</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="1" t="s">
-        <v>44</v>
+      <c r="H3" s="3"/>
+      <c r="I3" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H3"/>
+  <autoFilter ref="A1:I3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3280,16 +3312,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>34</v>
@@ -3309,13 +3341,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
@@ -3324,7 +3356,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -3332,13 +3364,13 @@
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>2</v>
@@ -3347,7 +3379,7 @@
         <v>-1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -3355,13 +3387,13 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>3</v>
@@ -3370,7 +3402,7 @@
         <v>-2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -3378,13 +3410,13 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>4</v>
@@ -3393,7 +3425,7 @@
         <v>-5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -3401,13 +3433,13 @@
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>5</v>
@@ -3416,7 +3448,7 @@
         <v>-3</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -3424,13 +3456,13 @@
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>6</v>
@@ -3439,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -3486,10 +3518,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
@@ -3506,90 +3538,90 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3608,14 +3640,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3631,122 +3663,143 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0.000148</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="E2" s="4" t="n">
+        <v>0.0121655250605964</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0.0002</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="4"/>
+      <c r="E3" s="4" t="n">
+        <v>0.014142135623731</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.0005</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="4"/>
+      <c r="E4" s="4" t="n">
+        <v>0.0223606797749979</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.0005</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="4"/>
+      <c r="E5" s="4" t="n">
+        <v>0.0223606797749979</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>0.001</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="E6" s="4" t="n">
+        <v>0.0316227766016838</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>0.002</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="E7" s="4" t="n">
+        <v>0.0447213595499958</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3787,7 +3840,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
@@ -3841,7 +3894,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -70,6 +70,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
@@ -106,6 +107,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
@@ -142,6 +144,7 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
@@ -178,6 +181,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
@@ -214,6 +218,7 @@
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -225,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="163">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -614,7 +619,7 @@
     <t xml:space="preserve">dFBA net reaction</t>
   </si>
   <si>
-    <t xml:space="preserve">Coefficient</t>
+    <t xml:space="preserve">Value</t>
   </si>
   <si>
     <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-specie_1[c]</t>
@@ -623,6 +628,9 @@
     <t xml:space="preserve">dFBA net component 1</t>
   </si>
   <si>
+    <t xml:space="preserve">M s^-1</t>
+  </si>
+  <si>
     <t xml:space="preserve">test</t>
   </si>
   <si>
@@ -636,9 +644,6 @@
   </si>
   <si>
     <t xml:space="preserve">dFBA net component 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
   </si>
   <si>
     <t xml:space="preserve">fractionDryWeight</t>
@@ -1117,9 +1122,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="46.2753036437247"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1190,7 +1195,7 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="46.4898785425101"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="46.8097165991903"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1564,23 +1569,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:4"/>
+  <dimension ref="A1:AMI4"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="7" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="7" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="4" style="7" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1023" min="11" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1594,24 +1600,26 @@
         <v>128</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="0"/>
       <c r="K1" s="0"/>
       <c r="L1" s="0"/>
       <c r="M1" s="0"/>
@@ -2625,9 +2633,8 @@
       <c r="AMG1" s="0"/>
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" s="1" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>130</v>
       </c>
@@ -2637,54 +2644,64 @@
       <c r="C2" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="9" t="n">
+      <c r="D2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="9" t="n">
         <v>-3</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="F2" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="7" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="9" t="n">
         <v>-4</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="0" t="s">
+        <v>132</v>
+      </c>
       <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="0" t="s">
+        <v>132</v>
+      </c>
       <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2728,7 +2745,7 @@
         <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>82</v>
@@ -2872,7 +2889,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="9.10526315789474"/>
   </cols>
@@ -2885,7 +2902,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>82</v>
@@ -3176,7 +3193,7 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -71,6 +71,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
@@ -108,6 +109,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
@@ -145,6 +147,7 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
@@ -182,6 +185,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
@@ -219,6 +223,7 @@
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -230,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="165">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -278,6 +283,12 @@
   </si>
   <si>
     <t xml:space="preserve">Author email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
   </si>
   <si>
     <t xml:space="preserve">Database references</t>
@@ -987,12 +998,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topRight" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -1075,20 +1086,28 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1122,9 +1141,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="46.5951417004049"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1136,33 +1155,33 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1195,7 +1214,7 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="46.8097165991903"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="47.1336032388664"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1207,45 +1226,45 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0</v>
@@ -1260,16 +1279,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
@@ -1284,16 +1303,16 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
@@ -1301,16 +1320,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0</v>
@@ -1357,131 +1376,131 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1524,33 +1543,33 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1571,7 +1590,7 @@
   </sheetPr>
   <dimension ref="A1:AMI4"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -1582,7 +1601,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="7" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="9" min="4" style="7" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="7" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1023" min="11" style="1" width="8.78542510121457"/>
@@ -1597,28 +1616,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="K1" s="0"/>
       <c r="L1" s="0"/>
@@ -2636,69 +2655,69 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" s="9" t="n">
         <v>-3</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="9" t="n">
         <v>-4</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E4" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -2742,53 +2761,53 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>2000</v>
@@ -2796,10 +2815,10 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0.001</v>
@@ -2846,19 +2865,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2889,7 +2908,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="9.10526315789474"/>
   </cols>
@@ -2902,40 +2921,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2977,52 +2996,52 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3061,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3069,34 +3088,34 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3138,41 +3157,41 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3214,39 +3233,39 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>4.58E-017</v>
@@ -3255,23 +3274,23 @@
         <v>4.58E-018</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>1E-012</v>
@@ -3280,12 +3299,12 @@
         <v>1E-013</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3329,42 +3348,42 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
@@ -3373,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -3381,13 +3400,13 @@
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>2</v>
@@ -3396,7 +3415,7 @@
         <v>-1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -3404,13 +3423,13 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>3</v>
@@ -3419,7 +3438,7 @@
         <v>-2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -3427,13 +3446,13 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>4</v>
@@ -3442,7 +3461,7 @@
         <v>-5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -3450,13 +3469,13 @@
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>5</v>
@@ -3465,7 +3484,7 @@
         <v>-3</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -3473,13 +3492,13 @@
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>6</v>
@@ -3488,7 +3507,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -3535,110 +3554,110 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3680,36 +3699,36 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0.000148</v>
@@ -3718,17 +3737,17 @@
         <v>0.0121655250605964</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0.0002</v>
@@ -3737,17 +3756,17 @@
         <v>0.014142135623731</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.0005</v>
@@ -3756,17 +3775,17 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.0005</v>
@@ -3775,17 +3794,17 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>0.001</v>
@@ -3794,17 +3813,17 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>0.002</v>
@@ -3813,7 +3832,7 @@
         <v>0.0447213595499958</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -3857,19 +3876,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3911,19 +3930,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -72,6 +72,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
@@ -110,6 +111,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
@@ -148,6 +150,7 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
@@ -186,6 +189,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
@@ -224,6 +228,7 @@
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -235,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="167">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -531,10 +536,13 @@
     <t xml:space="preserve">Reversible</t>
   </si>
   <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
+    <t xml:space="preserve">Flux min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flux max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flux units</t>
   </si>
   <si>
     <t xml:space="preserve">reaction_1</t>
@@ -544,6 +552,9 @@
   </si>
   <si>
     <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mol g^-1 s^-1</t>
   </si>
   <si>
     <t xml:space="preserve">reaction_2</t>
@@ -1000,7 +1011,7 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="A12" activeCellId="0" sqref="A12"/>
@@ -1071,16 +1082,19 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
@@ -1141,9 +1155,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="46.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1200,21 +1214,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="47.4534412955466"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1241,30 +1255,33 @@
         <v>99</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0</v>
@@ -1275,20 +1292,23 @@
       <c r="G2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="H2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
@@ -1299,20 +1319,23 @@
       <c r="G3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="H3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
@@ -1320,16 +1343,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0</v>
@@ -1376,10 +1399,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>36</v>
@@ -1405,102 +1428,102 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1560,16 +1583,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1601,7 +1624,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="7" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="9" min="4" style="7" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="7" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1023" min="11" style="1" width="8.78542510121457"/>
@@ -1616,13 +1639,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>81</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>84</v>
@@ -2655,13 +2678,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>75</v>
@@ -2670,23 +2693,23 @@
         <v>-3</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>76</v>
@@ -2695,20 +2718,20 @@
         <v>-4</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>77</v>
@@ -2717,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -2764,7 +2787,7 @@
         <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>84</v>
@@ -2784,30 +2807,30 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>2000</v>
@@ -2815,10 +2838,10 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0.001</v>
@@ -2908,8 +2931,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2921,7 +2943,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>84</v>
@@ -2930,19 +2952,19 @@
         <v>36</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>18</v>
@@ -2996,46 +3018,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>18</v>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -73,6 +73,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
@@ -112,6 +113,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
@@ -151,6 +153,7 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
@@ -190,6 +193,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
@@ -229,6 +233,7 @@
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -240,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="167">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -1155,9 +1160,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="46.919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="47.2388663967611"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1216,7 +1221,7 @@
   </sheetPr>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -1228,7 +1233,7 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="47.4534412955466"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="47.8825910931174"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1624,7 +1629,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="7" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="9" min="4" style="7" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="7" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1023" min="11" style="1" width="8.78542510121457"/>
@@ -2865,14 +2870,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2891,15 +2896,18 @@
         <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -74,6 +74,9 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
@@ -114,6 +117,9 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
@@ -154,6 +160,9 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
@@ -194,6 +203,9 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
@@ -234,6 +246,9 @@
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -245,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="170">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -526,6 +541,9 @@
     <t xml:space="preserve">Expression</t>
   </si>
   <si>
+    <t xml:space="preserve">Concentration units</t>
+  </si>
+  <si>
     <t xml:space="preserve">Submodel</t>
   </si>
   <si>
@@ -535,6 +553,9 @@
     <t xml:space="preserve">2*Metabolism_net_rxn</t>
   </si>
   <si>
+    <t xml:space="preserve">gsCellCycle gCell^-1 s^-1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Participants</t>
   </si>
   <si>
@@ -559,7 +580,7 @@
     <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
   </si>
   <si>
-    <t xml:space="preserve">mol g^-1 s^-1</t>
+    <t xml:space="preserve">mol reaction gCell^-1 s^-1</t>
   </si>
   <si>
     <t xml:space="preserve">reaction_2</t>
@@ -607,7 +628,10 @@
     <t xml:space="preserve">max( specie_1[e], specie_2[e] )</t>
   </si>
   <si>
-    <t xml:space="preserve">s^-1</t>
+    <t xml:space="preserve">reaction cell^-1 s^-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">molecule cell^-1</t>
   </si>
   <si>
     <t xml:space="preserve">reaction_2-forward</t>
@@ -655,7 +679,7 @@
     <t xml:space="preserve">dFBA net component 1</t>
   </si>
   <si>
-    <t xml:space="preserve">M s^-1</t>
+    <t xml:space="preserve">mol gsCellCycle^-1</t>
   </si>
   <si>
     <t xml:space="preserve">test</t>
@@ -1148,22 +1172,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1174,33 +1199,39 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1226,14 +1257,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G26" activeCellId="0" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="49.165991902834"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1245,22 +1276,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>18</v>
@@ -1277,16 +1308,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0</v>
@@ -1298,22 +1329,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
@@ -1325,22 +1356,22 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
@@ -1348,16 +1379,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0</v>
@@ -1381,14 +1412,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1404,10 +1435,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>36</v>
@@ -1419,116 +1450,134 @@
         <v>84</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>120</v>
+      <c r="H3" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1571,7 +1620,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>18</v>
@@ -1588,16 +1637,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1623,13 +1672,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="7" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="9" min="4" style="7" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="7" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1023" min="11" style="1" width="8.78542510121457"/>
@@ -1644,13 +1693,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>81</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>84</v>
@@ -2683,13 +2732,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>75</v>
@@ -2697,24 +2746,24 @@
       <c r="E2" s="9" t="n">
         <v>-3</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>136</v>
+      <c r="F2" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>76</v>
@@ -2722,21 +2771,21 @@
       <c r="E3" s="9" t="n">
         <v>-4</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>136</v>
+      <c r="F3" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>77</v>
@@ -2744,8 +2793,8 @@
       <c r="E4" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>136</v>
+      <c r="F4" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -2792,7 +2841,7 @@
         <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>84</v>
@@ -2812,30 +2861,30 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>2000</v>
@@ -2843,10 +2892,10 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0.001</v>
@@ -2870,14 +2919,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2899,15 +2948,18 @@
         <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2951,7 +3003,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>84</v>
@@ -2960,19 +3012,19 @@
         <v>36</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>18</v>
@@ -3026,46 +3078,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>18</v>
@@ -3937,14 +3989,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3963,15 +4015,21 @@
         <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,55 +28,56 @@
     <sheet name="References" sheetId="18" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="true" localSheetId="17" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
@@ -120,6 +121,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
@@ -163,49 +165,51 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
@@ -249,6 +253,7 @@
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -260,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="176">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -382,6 +387,15 @@
     <t xml:space="preserve">Volume units</t>
   </si>
   <si>
+    <t xml:space="preserve">Density mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Density standard deviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Density units</t>
+  </si>
+  <si>
     <t xml:space="preserve">c</t>
   </si>
   <si>
@@ -391,7 +405,10 @@
     <t xml:space="preserve">physical_3d</t>
   </si>
   <si>
-    <t xml:space="preserve">L</t>
+    <t xml:space="preserve">l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g ml^-1</t>
   </si>
   <si>
     <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
@@ -697,6 +714,9 @@
     <t xml:space="preserve">dFBA net component 3</t>
   </si>
   <si>
+    <t xml:space="preserve">Standard error</t>
+  </si>
+  <si>
     <t xml:space="preserve">fractionDryWeight</t>
   </si>
   <si>
@@ -713,6 +733,9 @@
   </si>
   <si>
     <t xml:space="preserve">k_cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction molecule^-1 s^-1</t>
   </si>
   <si>
     <t xml:space="preserve">k_m_3</t>
@@ -887,7 +910,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -922,6 +945,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1174,19 +1201,19 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="G38" activeCellId="0" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="9.10526315789474"/>
   </cols>
@@ -1199,13 +1226,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -1222,16 +1249,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1257,14 +1284,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="F34" activeCellId="0" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="49.165991902834"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="49.4898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1276,22 +1303,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>18</v>
@@ -1308,16 +1335,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0</v>
@@ -1329,22 +1356,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
@@ -1356,22 +1383,22 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
@@ -1379,16 +1406,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0</v>
@@ -1419,7 +1446,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1435,22 +1462,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>18</v>
@@ -1467,117 +1494,117 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1630,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="N40" activeCellId="0" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1620,7 +1647,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>18</v>
@@ -1637,16 +1664,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1665,27 +1692,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMI4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="L32" activeCellId="0" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="7" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="9" min="4" style="7" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="7" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1023" min="11" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="9" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="9" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1693,16 +1720,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>18</v>
@@ -1716,1085 +1743,72 @@
       <c r="J1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="0"/>
-      <c r="L1" s="0"/>
-      <c r="M1" s="0"/>
-      <c r="N1" s="0"/>
-      <c r="O1" s="0"/>
-      <c r="P1" s="0"/>
-      <c r="Q1" s="0"/>
-      <c r="R1" s="0"/>
-      <c r="S1" s="0"/>
-      <c r="T1" s="0"/>
-      <c r="U1" s="0"/>
-      <c r="V1" s="0"/>
-      <c r="W1" s="0"/>
-      <c r="X1" s="0"/>
-      <c r="Y1" s="0"/>
-      <c r="Z1" s="0"/>
-      <c r="AA1" s="0"/>
-      <c r="AB1" s="0"/>
-      <c r="AC1" s="0"/>
-      <c r="AD1" s="0"/>
-      <c r="AE1" s="0"/>
-      <c r="AF1" s="0"/>
-      <c r="AG1" s="0"/>
-      <c r="AH1" s="0"/>
-      <c r="AI1" s="0"/>
-      <c r="AJ1" s="0"/>
-      <c r="AK1" s="0"/>
-      <c r="AL1" s="0"/>
-      <c r="AM1" s="0"/>
-      <c r="AN1" s="0"/>
-      <c r="AO1" s="0"/>
-      <c r="AP1" s="0"/>
-      <c r="AQ1" s="0"/>
-      <c r="AR1" s="0"/>
-      <c r="AS1" s="0"/>
-      <c r="AT1" s="0"/>
-      <c r="AU1" s="0"/>
-      <c r="AV1" s="0"/>
-      <c r="AW1" s="0"/>
-      <c r="AX1" s="0"/>
-      <c r="AY1" s="0"/>
-      <c r="AZ1" s="0"/>
-      <c r="BA1" s="0"/>
-      <c r="BB1" s="0"/>
-      <c r="BC1" s="0"/>
-      <c r="BD1" s="0"/>
-      <c r="BE1" s="0"/>
-      <c r="BF1" s="0"/>
-      <c r="BG1" s="0"/>
-      <c r="BH1" s="0"/>
-      <c r="BI1" s="0"/>
-      <c r="BJ1" s="0"/>
-      <c r="BK1" s="0"/>
-      <c r="BL1" s="0"/>
-      <c r="BM1" s="0"/>
-      <c r="BN1" s="0"/>
-      <c r="BO1" s="0"/>
-      <c r="BP1" s="0"/>
-      <c r="BQ1" s="0"/>
-      <c r="BR1" s="0"/>
-      <c r="BS1" s="0"/>
-      <c r="BT1" s="0"/>
-      <c r="BU1" s="0"/>
-      <c r="BV1" s="0"/>
-      <c r="BW1" s="0"/>
-      <c r="BX1" s="0"/>
-      <c r="BY1" s="0"/>
-      <c r="BZ1" s="0"/>
-      <c r="CA1" s="0"/>
-      <c r="CB1" s="0"/>
-      <c r="CC1" s="0"/>
-      <c r="CD1" s="0"/>
-      <c r="CE1" s="0"/>
-      <c r="CF1" s="0"/>
-      <c r="CG1" s="0"/>
-      <c r="CH1" s="0"/>
-      <c r="CI1" s="0"/>
-      <c r="CJ1" s="0"/>
-      <c r="CK1" s="0"/>
-      <c r="CL1" s="0"/>
-      <c r="CM1" s="0"/>
-      <c r="CN1" s="0"/>
-      <c r="CO1" s="0"/>
-      <c r="CP1" s="0"/>
-      <c r="CQ1" s="0"/>
-      <c r="CR1" s="0"/>
-      <c r="CS1" s="0"/>
-      <c r="CT1" s="0"/>
-      <c r="CU1" s="0"/>
-      <c r="CV1" s="0"/>
-      <c r="CW1" s="0"/>
-      <c r="CX1" s="0"/>
-      <c r="CY1" s="0"/>
-      <c r="CZ1" s="0"/>
-      <c r="DA1" s="0"/>
-      <c r="DB1" s="0"/>
-      <c r="DC1" s="0"/>
-      <c r="DD1" s="0"/>
-      <c r="DE1" s="0"/>
-      <c r="DF1" s="0"/>
-      <c r="DG1" s="0"/>
-      <c r="DH1" s="0"/>
-      <c r="DI1" s="0"/>
-      <c r="DJ1" s="0"/>
-      <c r="DK1" s="0"/>
-      <c r="DL1" s="0"/>
-      <c r="DM1" s="0"/>
-      <c r="DN1" s="0"/>
-      <c r="DO1" s="0"/>
-      <c r="DP1" s="0"/>
-      <c r="DQ1" s="0"/>
-      <c r="DR1" s="0"/>
-      <c r="DS1" s="0"/>
-      <c r="DT1" s="0"/>
-      <c r="DU1" s="0"/>
-      <c r="DV1" s="0"/>
-      <c r="DW1" s="0"/>
-      <c r="DX1" s="0"/>
-      <c r="DY1" s="0"/>
-      <c r="DZ1" s="0"/>
-      <c r="EA1" s="0"/>
-      <c r="EB1" s="0"/>
-      <c r="EC1" s="0"/>
-      <c r="ED1" s="0"/>
-      <c r="EE1" s="0"/>
-      <c r="EF1" s="0"/>
-      <c r="EG1" s="0"/>
-      <c r="EH1" s="0"/>
-      <c r="EI1" s="0"/>
-      <c r="EJ1" s="0"/>
-      <c r="EK1" s="0"/>
-      <c r="EL1" s="0"/>
-      <c r="EM1" s="0"/>
-      <c r="EN1" s="0"/>
-      <c r="EO1" s="0"/>
-      <c r="EP1" s="0"/>
-      <c r="EQ1" s="0"/>
-      <c r="ER1" s="0"/>
-      <c r="ES1" s="0"/>
-      <c r="ET1" s="0"/>
-      <c r="EU1" s="0"/>
-      <c r="EV1" s="0"/>
-      <c r="EW1" s="0"/>
-      <c r="EX1" s="0"/>
-      <c r="EY1" s="0"/>
-      <c r="EZ1" s="0"/>
-      <c r="FA1" s="0"/>
-      <c r="FB1" s="0"/>
-      <c r="FC1" s="0"/>
-      <c r="FD1" s="0"/>
-      <c r="FE1" s="0"/>
-      <c r="FF1" s="0"/>
-      <c r="FG1" s="0"/>
-      <c r="FH1" s="0"/>
-      <c r="FI1" s="0"/>
-      <c r="FJ1" s="0"/>
-      <c r="FK1" s="0"/>
-      <c r="FL1" s="0"/>
-      <c r="FM1" s="0"/>
-      <c r="FN1" s="0"/>
-      <c r="FO1" s="0"/>
-      <c r="FP1" s="0"/>
-      <c r="FQ1" s="0"/>
-      <c r="FR1" s="0"/>
-      <c r="FS1" s="0"/>
-      <c r="FT1" s="0"/>
-      <c r="FU1" s="0"/>
-      <c r="FV1" s="0"/>
-      <c r="FW1" s="0"/>
-      <c r="FX1" s="0"/>
-      <c r="FY1" s="0"/>
-      <c r="FZ1" s="0"/>
-      <c r="GA1" s="0"/>
-      <c r="GB1" s="0"/>
-      <c r="GC1" s="0"/>
-      <c r="GD1" s="0"/>
-      <c r="GE1" s="0"/>
-      <c r="GF1" s="0"/>
-      <c r="GG1" s="0"/>
-      <c r="GH1" s="0"/>
-      <c r="GI1" s="0"/>
-      <c r="GJ1" s="0"/>
-      <c r="GK1" s="0"/>
-      <c r="GL1" s="0"/>
-      <c r="GM1" s="0"/>
-      <c r="GN1" s="0"/>
-      <c r="GO1" s="0"/>
-      <c r="GP1" s="0"/>
-      <c r="GQ1" s="0"/>
-      <c r="GR1" s="0"/>
-      <c r="GS1" s="0"/>
-      <c r="GT1" s="0"/>
-      <c r="GU1" s="0"/>
-      <c r="GV1" s="0"/>
-      <c r="GW1" s="0"/>
-      <c r="GX1" s="0"/>
-      <c r="GY1" s="0"/>
-      <c r="GZ1" s="0"/>
-      <c r="HA1" s="0"/>
-      <c r="HB1" s="0"/>
-      <c r="HC1" s="0"/>
-      <c r="HD1" s="0"/>
-      <c r="HE1" s="0"/>
-      <c r="HF1" s="0"/>
-      <c r="HG1" s="0"/>
-      <c r="HH1" s="0"/>
-      <c r="HI1" s="0"/>
-      <c r="HJ1" s="0"/>
-      <c r="HK1" s="0"/>
-      <c r="HL1" s="0"/>
-      <c r="HM1" s="0"/>
-      <c r="HN1" s="0"/>
-      <c r="HO1" s="0"/>
-      <c r="HP1" s="0"/>
-      <c r="HQ1" s="0"/>
-      <c r="HR1" s="0"/>
-      <c r="HS1" s="0"/>
-      <c r="HT1" s="0"/>
-      <c r="HU1" s="0"/>
-      <c r="HV1" s="0"/>
-      <c r="HW1" s="0"/>
-      <c r="HX1" s="0"/>
-      <c r="HY1" s="0"/>
-      <c r="HZ1" s="0"/>
-      <c r="IA1" s="0"/>
-      <c r="IB1" s="0"/>
-      <c r="IC1" s="0"/>
-      <c r="ID1" s="0"/>
-      <c r="IE1" s="0"/>
-      <c r="IF1" s="0"/>
-      <c r="IG1" s="0"/>
-      <c r="IH1" s="0"/>
-      <c r="II1" s="0"/>
-      <c r="IJ1" s="0"/>
-      <c r="IK1" s="0"/>
-      <c r="IL1" s="0"/>
-      <c r="IM1" s="0"/>
-      <c r="IN1" s="0"/>
-      <c r="IO1" s="0"/>
-      <c r="IP1" s="0"/>
-      <c r="IQ1" s="0"/>
-      <c r="IR1" s="0"/>
-      <c r="IS1" s="0"/>
-      <c r="IT1" s="0"/>
-      <c r="IU1" s="0"/>
-      <c r="IV1" s="0"/>
-      <c r="IW1" s="0"/>
-      <c r="IX1" s="0"/>
-      <c r="IY1" s="0"/>
-      <c r="IZ1" s="0"/>
-      <c r="JA1" s="0"/>
-      <c r="JB1" s="0"/>
-      <c r="JC1" s="0"/>
-      <c r="JD1" s="0"/>
-      <c r="JE1" s="0"/>
-      <c r="JF1" s="0"/>
-      <c r="JG1" s="0"/>
-      <c r="JH1" s="0"/>
-      <c r="JI1" s="0"/>
-      <c r="JJ1" s="0"/>
-      <c r="JK1" s="0"/>
-      <c r="JL1" s="0"/>
-      <c r="JM1" s="0"/>
-      <c r="JN1" s="0"/>
-      <c r="JO1" s="0"/>
-      <c r="JP1" s="0"/>
-      <c r="JQ1" s="0"/>
-      <c r="JR1" s="0"/>
-      <c r="JS1" s="0"/>
-      <c r="JT1" s="0"/>
-      <c r="JU1" s="0"/>
-      <c r="JV1" s="0"/>
-      <c r="JW1" s="0"/>
-      <c r="JX1" s="0"/>
-      <c r="JY1" s="0"/>
-      <c r="JZ1" s="0"/>
-      <c r="KA1" s="0"/>
-      <c r="KB1" s="0"/>
-      <c r="KC1" s="0"/>
-      <c r="KD1" s="0"/>
-      <c r="KE1" s="0"/>
-      <c r="KF1" s="0"/>
-      <c r="KG1" s="0"/>
-      <c r="KH1" s="0"/>
-      <c r="KI1" s="0"/>
-      <c r="KJ1" s="0"/>
-      <c r="KK1" s="0"/>
-      <c r="KL1" s="0"/>
-      <c r="KM1" s="0"/>
-      <c r="KN1" s="0"/>
-      <c r="KO1" s="0"/>
-      <c r="KP1" s="0"/>
-      <c r="KQ1" s="0"/>
-      <c r="KR1" s="0"/>
-      <c r="KS1" s="0"/>
-      <c r="KT1" s="0"/>
-      <c r="KU1" s="0"/>
-      <c r="KV1" s="0"/>
-      <c r="KW1" s="0"/>
-      <c r="KX1" s="0"/>
-      <c r="KY1" s="0"/>
-      <c r="KZ1" s="0"/>
-      <c r="LA1" s="0"/>
-      <c r="LB1" s="0"/>
-      <c r="LC1" s="0"/>
-      <c r="LD1" s="0"/>
-      <c r="LE1" s="0"/>
-      <c r="LF1" s="0"/>
-      <c r="LG1" s="0"/>
-      <c r="LH1" s="0"/>
-      <c r="LI1" s="0"/>
-      <c r="LJ1" s="0"/>
-      <c r="LK1" s="0"/>
-      <c r="LL1" s="0"/>
-      <c r="LM1" s="0"/>
-      <c r="LN1" s="0"/>
-      <c r="LO1" s="0"/>
-      <c r="LP1" s="0"/>
-      <c r="LQ1" s="0"/>
-      <c r="LR1" s="0"/>
-      <c r="LS1" s="0"/>
-      <c r="LT1" s="0"/>
-      <c r="LU1" s="0"/>
-      <c r="LV1" s="0"/>
-      <c r="LW1" s="0"/>
-      <c r="LX1" s="0"/>
-      <c r="LY1" s="0"/>
-      <c r="LZ1" s="0"/>
-      <c r="MA1" s="0"/>
-      <c r="MB1" s="0"/>
-      <c r="MC1" s="0"/>
-      <c r="MD1" s="0"/>
-      <c r="ME1" s="0"/>
-      <c r="MF1" s="0"/>
-      <c r="MG1" s="0"/>
-      <c r="MH1" s="0"/>
-      <c r="MI1" s="0"/>
-      <c r="MJ1" s="0"/>
-      <c r="MK1" s="0"/>
-      <c r="ML1" s="0"/>
-      <c r="MM1" s="0"/>
-      <c r="MN1" s="0"/>
-      <c r="MO1" s="0"/>
-      <c r="MP1" s="0"/>
-      <c r="MQ1" s="0"/>
-      <c r="MR1" s="0"/>
-      <c r="MS1" s="0"/>
-      <c r="MT1" s="0"/>
-      <c r="MU1" s="0"/>
-      <c r="MV1" s="0"/>
-      <c r="MW1" s="0"/>
-      <c r="MX1" s="0"/>
-      <c r="MY1" s="0"/>
-      <c r="MZ1" s="0"/>
-      <c r="NA1" s="0"/>
-      <c r="NB1" s="0"/>
-      <c r="NC1" s="0"/>
-      <c r="ND1" s="0"/>
-      <c r="NE1" s="0"/>
-      <c r="NF1" s="0"/>
-      <c r="NG1" s="0"/>
-      <c r="NH1" s="0"/>
-      <c r="NI1" s="0"/>
-      <c r="NJ1" s="0"/>
-      <c r="NK1" s="0"/>
-      <c r="NL1" s="0"/>
-      <c r="NM1" s="0"/>
-      <c r="NN1" s="0"/>
-      <c r="NO1" s="0"/>
-      <c r="NP1" s="0"/>
-      <c r="NQ1" s="0"/>
-      <c r="NR1" s="0"/>
-      <c r="NS1" s="0"/>
-      <c r="NT1" s="0"/>
-      <c r="NU1" s="0"/>
-      <c r="NV1" s="0"/>
-      <c r="NW1" s="0"/>
-      <c r="NX1" s="0"/>
-      <c r="NY1" s="0"/>
-      <c r="NZ1" s="0"/>
-      <c r="OA1" s="0"/>
-      <c r="OB1" s="0"/>
-      <c r="OC1" s="0"/>
-      <c r="OD1" s="0"/>
-      <c r="OE1" s="0"/>
-      <c r="OF1" s="0"/>
-      <c r="OG1" s="0"/>
-      <c r="OH1" s="0"/>
-      <c r="OI1" s="0"/>
-      <c r="OJ1" s="0"/>
-      <c r="OK1" s="0"/>
-      <c r="OL1" s="0"/>
-      <c r="OM1" s="0"/>
-      <c r="ON1" s="0"/>
-      <c r="OO1" s="0"/>
-      <c r="OP1" s="0"/>
-      <c r="OQ1" s="0"/>
-      <c r="OR1" s="0"/>
-      <c r="OS1" s="0"/>
-      <c r="OT1" s="0"/>
-      <c r="OU1" s="0"/>
-      <c r="OV1" s="0"/>
-      <c r="OW1" s="0"/>
-      <c r="OX1" s="0"/>
-      <c r="OY1" s="0"/>
-      <c r="OZ1" s="0"/>
-      <c r="PA1" s="0"/>
-      <c r="PB1" s="0"/>
-      <c r="PC1" s="0"/>
-      <c r="PD1" s="0"/>
-      <c r="PE1" s="0"/>
-      <c r="PF1" s="0"/>
-      <c r="PG1" s="0"/>
-      <c r="PH1" s="0"/>
-      <c r="PI1" s="0"/>
-      <c r="PJ1" s="0"/>
-      <c r="PK1" s="0"/>
-      <c r="PL1" s="0"/>
-      <c r="PM1" s="0"/>
-      <c r="PN1" s="0"/>
-      <c r="PO1" s="0"/>
-      <c r="PP1" s="0"/>
-      <c r="PQ1" s="0"/>
-      <c r="PR1" s="0"/>
-      <c r="PS1" s="0"/>
-      <c r="PT1" s="0"/>
-      <c r="PU1" s="0"/>
-      <c r="PV1" s="0"/>
-      <c r="PW1" s="0"/>
-      <c r="PX1" s="0"/>
-      <c r="PY1" s="0"/>
-      <c r="PZ1" s="0"/>
-      <c r="QA1" s="0"/>
-      <c r="QB1" s="0"/>
-      <c r="QC1" s="0"/>
-      <c r="QD1" s="0"/>
-      <c r="QE1" s="0"/>
-      <c r="QF1" s="0"/>
-      <c r="QG1" s="0"/>
-      <c r="QH1" s="0"/>
-      <c r="QI1" s="0"/>
-      <c r="QJ1" s="0"/>
-      <c r="QK1" s="0"/>
-      <c r="QL1" s="0"/>
-      <c r="QM1" s="0"/>
-      <c r="QN1" s="0"/>
-      <c r="QO1" s="0"/>
-      <c r="QP1" s="0"/>
-      <c r="QQ1" s="0"/>
-      <c r="QR1" s="0"/>
-      <c r="QS1" s="0"/>
-      <c r="QT1" s="0"/>
-      <c r="QU1" s="0"/>
-      <c r="QV1" s="0"/>
-      <c r="QW1" s="0"/>
-      <c r="QX1" s="0"/>
-      <c r="QY1" s="0"/>
-      <c r="QZ1" s="0"/>
-      <c r="RA1" s="0"/>
-      <c r="RB1" s="0"/>
-      <c r="RC1" s="0"/>
-      <c r="RD1" s="0"/>
-      <c r="RE1" s="0"/>
-      <c r="RF1" s="0"/>
-      <c r="RG1" s="0"/>
-      <c r="RH1" s="0"/>
-      <c r="RI1" s="0"/>
-      <c r="RJ1" s="0"/>
-      <c r="RK1" s="0"/>
-      <c r="RL1" s="0"/>
-      <c r="RM1" s="0"/>
-      <c r="RN1" s="0"/>
-      <c r="RO1" s="0"/>
-      <c r="RP1" s="0"/>
-      <c r="RQ1" s="0"/>
-      <c r="RR1" s="0"/>
-      <c r="RS1" s="0"/>
-      <c r="RT1" s="0"/>
-      <c r="RU1" s="0"/>
-      <c r="RV1" s="0"/>
-      <c r="RW1" s="0"/>
-      <c r="RX1" s="0"/>
-      <c r="RY1" s="0"/>
-      <c r="RZ1" s="0"/>
-      <c r="SA1" s="0"/>
-      <c r="SB1" s="0"/>
-      <c r="SC1" s="0"/>
-      <c r="SD1" s="0"/>
-      <c r="SE1" s="0"/>
-      <c r="SF1" s="0"/>
-      <c r="SG1" s="0"/>
-      <c r="SH1" s="0"/>
-      <c r="SI1" s="0"/>
-      <c r="SJ1" s="0"/>
-      <c r="SK1" s="0"/>
-      <c r="SL1" s="0"/>
-      <c r="SM1" s="0"/>
-      <c r="SN1" s="0"/>
-      <c r="SO1" s="0"/>
-      <c r="SP1" s="0"/>
-      <c r="SQ1" s="0"/>
-      <c r="SR1" s="0"/>
-      <c r="SS1" s="0"/>
-      <c r="ST1" s="0"/>
-      <c r="SU1" s="0"/>
-      <c r="SV1" s="0"/>
-      <c r="SW1" s="0"/>
-      <c r="SX1" s="0"/>
-      <c r="SY1" s="0"/>
-      <c r="SZ1" s="0"/>
-      <c r="TA1" s="0"/>
-      <c r="TB1" s="0"/>
-      <c r="TC1" s="0"/>
-      <c r="TD1" s="0"/>
-      <c r="TE1" s="0"/>
-      <c r="TF1" s="0"/>
-      <c r="TG1" s="0"/>
-      <c r="TH1" s="0"/>
-      <c r="TI1" s="0"/>
-      <c r="TJ1" s="0"/>
-      <c r="TK1" s="0"/>
-      <c r="TL1" s="0"/>
-      <c r="TM1" s="0"/>
-      <c r="TN1" s="0"/>
-      <c r="TO1" s="0"/>
-      <c r="TP1" s="0"/>
-      <c r="TQ1" s="0"/>
-      <c r="TR1" s="0"/>
-      <c r="TS1" s="0"/>
-      <c r="TT1" s="0"/>
-      <c r="TU1" s="0"/>
-      <c r="TV1" s="0"/>
-      <c r="TW1" s="0"/>
-      <c r="TX1" s="0"/>
-      <c r="TY1" s="0"/>
-      <c r="TZ1" s="0"/>
-      <c r="UA1" s="0"/>
-      <c r="UB1" s="0"/>
-      <c r="UC1" s="0"/>
-      <c r="UD1" s="0"/>
-      <c r="UE1" s="0"/>
-      <c r="UF1" s="0"/>
-      <c r="UG1" s="0"/>
-      <c r="UH1" s="0"/>
-      <c r="UI1" s="0"/>
-      <c r="UJ1" s="0"/>
-      <c r="UK1" s="0"/>
-      <c r="UL1" s="0"/>
-      <c r="UM1" s="0"/>
-      <c r="UN1" s="0"/>
-      <c r="UO1" s="0"/>
-      <c r="UP1" s="0"/>
-      <c r="UQ1" s="0"/>
-      <c r="UR1" s="0"/>
-      <c r="US1" s="0"/>
-      <c r="UT1" s="0"/>
-      <c r="UU1" s="0"/>
-      <c r="UV1" s="0"/>
-      <c r="UW1" s="0"/>
-      <c r="UX1" s="0"/>
-      <c r="UY1" s="0"/>
-      <c r="UZ1" s="0"/>
-      <c r="VA1" s="0"/>
-      <c r="VB1" s="0"/>
-      <c r="VC1" s="0"/>
-      <c r="VD1" s="0"/>
-      <c r="VE1" s="0"/>
-      <c r="VF1" s="0"/>
-      <c r="VG1" s="0"/>
-      <c r="VH1" s="0"/>
-      <c r="VI1" s="0"/>
-      <c r="VJ1" s="0"/>
-      <c r="VK1" s="0"/>
-      <c r="VL1" s="0"/>
-      <c r="VM1" s="0"/>
-      <c r="VN1" s="0"/>
-      <c r="VO1" s="0"/>
-      <c r="VP1" s="0"/>
-      <c r="VQ1" s="0"/>
-      <c r="VR1" s="0"/>
-      <c r="VS1" s="0"/>
-      <c r="VT1" s="0"/>
-      <c r="VU1" s="0"/>
-      <c r="VV1" s="0"/>
-      <c r="VW1" s="0"/>
-      <c r="VX1" s="0"/>
-      <c r="VY1" s="0"/>
-      <c r="VZ1" s="0"/>
-      <c r="WA1" s="0"/>
-      <c r="WB1" s="0"/>
-      <c r="WC1" s="0"/>
-      <c r="WD1" s="0"/>
-      <c r="WE1" s="0"/>
-      <c r="WF1" s="0"/>
-      <c r="WG1" s="0"/>
-      <c r="WH1" s="0"/>
-      <c r="WI1" s="0"/>
-      <c r="WJ1" s="0"/>
-      <c r="WK1" s="0"/>
-      <c r="WL1" s="0"/>
-      <c r="WM1" s="0"/>
-      <c r="WN1" s="0"/>
-      <c r="WO1" s="0"/>
-      <c r="WP1" s="0"/>
-      <c r="WQ1" s="0"/>
-      <c r="WR1" s="0"/>
-      <c r="WS1" s="0"/>
-      <c r="WT1" s="0"/>
-      <c r="WU1" s="0"/>
-      <c r="WV1" s="0"/>
-      <c r="WW1" s="0"/>
-      <c r="WX1" s="0"/>
-      <c r="WY1" s="0"/>
-      <c r="WZ1" s="0"/>
-      <c r="XA1" s="0"/>
-      <c r="XB1" s="0"/>
-      <c r="XC1" s="0"/>
-      <c r="XD1" s="0"/>
-      <c r="XE1" s="0"/>
-      <c r="XF1" s="0"/>
-      <c r="XG1" s="0"/>
-      <c r="XH1" s="0"/>
-      <c r="XI1" s="0"/>
-      <c r="XJ1" s="0"/>
-      <c r="XK1" s="0"/>
-      <c r="XL1" s="0"/>
-      <c r="XM1" s="0"/>
-      <c r="XN1" s="0"/>
-      <c r="XO1" s="0"/>
-      <c r="XP1" s="0"/>
-      <c r="XQ1" s="0"/>
-      <c r="XR1" s="0"/>
-      <c r="XS1" s="0"/>
-      <c r="XT1" s="0"/>
-      <c r="XU1" s="0"/>
-      <c r="XV1" s="0"/>
-      <c r="XW1" s="0"/>
-      <c r="XX1" s="0"/>
-      <c r="XY1" s="0"/>
-      <c r="XZ1" s="0"/>
-      <c r="YA1" s="0"/>
-      <c r="YB1" s="0"/>
-      <c r="YC1" s="0"/>
-      <c r="YD1" s="0"/>
-      <c r="YE1" s="0"/>
-      <c r="YF1" s="0"/>
-      <c r="YG1" s="0"/>
-      <c r="YH1" s="0"/>
-      <c r="YI1" s="0"/>
-      <c r="YJ1" s="0"/>
-      <c r="YK1" s="0"/>
-      <c r="YL1" s="0"/>
-      <c r="YM1" s="0"/>
-      <c r="YN1" s="0"/>
-      <c r="YO1" s="0"/>
-      <c r="YP1" s="0"/>
-      <c r="YQ1" s="0"/>
-      <c r="YR1" s="0"/>
-      <c r="YS1" s="0"/>
-      <c r="YT1" s="0"/>
-      <c r="YU1" s="0"/>
-      <c r="YV1" s="0"/>
-      <c r="YW1" s="0"/>
-      <c r="YX1" s="0"/>
-      <c r="YY1" s="0"/>
-      <c r="YZ1" s="0"/>
-      <c r="ZA1" s="0"/>
-      <c r="ZB1" s="0"/>
-      <c r="ZC1" s="0"/>
-      <c r="ZD1" s="0"/>
-      <c r="ZE1" s="0"/>
-      <c r="ZF1" s="0"/>
-      <c r="ZG1" s="0"/>
-      <c r="ZH1" s="0"/>
-      <c r="ZI1" s="0"/>
-      <c r="ZJ1" s="0"/>
-      <c r="ZK1" s="0"/>
-      <c r="ZL1" s="0"/>
-      <c r="ZM1" s="0"/>
-      <c r="ZN1" s="0"/>
-      <c r="ZO1" s="0"/>
-      <c r="ZP1" s="0"/>
-      <c r="ZQ1" s="0"/>
-      <c r="ZR1" s="0"/>
-      <c r="ZS1" s="0"/>
-      <c r="ZT1" s="0"/>
-      <c r="ZU1" s="0"/>
-      <c r="ZV1" s="0"/>
-      <c r="ZW1" s="0"/>
-      <c r="ZX1" s="0"/>
-      <c r="ZY1" s="0"/>
-      <c r="ZZ1" s="0"/>
-      <c r="AAA1" s="0"/>
-      <c r="AAB1" s="0"/>
-      <c r="AAC1" s="0"/>
-      <c r="AAD1" s="0"/>
-      <c r="AAE1" s="0"/>
-      <c r="AAF1" s="0"/>
-      <c r="AAG1" s="0"/>
-      <c r="AAH1" s="0"/>
-      <c r="AAI1" s="0"/>
-      <c r="AAJ1" s="0"/>
-      <c r="AAK1" s="0"/>
-      <c r="AAL1" s="0"/>
-      <c r="AAM1" s="0"/>
-      <c r="AAN1" s="0"/>
-      <c r="AAO1" s="0"/>
-      <c r="AAP1" s="0"/>
-      <c r="AAQ1" s="0"/>
-      <c r="AAR1" s="0"/>
-      <c r="AAS1" s="0"/>
-      <c r="AAT1" s="0"/>
-      <c r="AAU1" s="0"/>
-      <c r="AAV1" s="0"/>
-      <c r="AAW1" s="0"/>
-      <c r="AAX1" s="0"/>
-      <c r="AAY1" s="0"/>
-      <c r="AAZ1" s="0"/>
-      <c r="ABA1" s="0"/>
-      <c r="ABB1" s="0"/>
-      <c r="ABC1" s="0"/>
-      <c r="ABD1" s="0"/>
-      <c r="ABE1" s="0"/>
-      <c r="ABF1" s="0"/>
-      <c r="ABG1" s="0"/>
-      <c r="ABH1" s="0"/>
-      <c r="ABI1" s="0"/>
-      <c r="ABJ1" s="0"/>
-      <c r="ABK1" s="0"/>
-      <c r="ABL1" s="0"/>
-      <c r="ABM1" s="0"/>
-      <c r="ABN1" s="0"/>
-      <c r="ABO1" s="0"/>
-      <c r="ABP1" s="0"/>
-      <c r="ABQ1" s="0"/>
-      <c r="ABR1" s="0"/>
-      <c r="ABS1" s="0"/>
-      <c r="ABT1" s="0"/>
-      <c r="ABU1" s="0"/>
-      <c r="ABV1" s="0"/>
-      <c r="ABW1" s="0"/>
-      <c r="ABX1" s="0"/>
-      <c r="ABY1" s="0"/>
-      <c r="ABZ1" s="0"/>
-      <c r="ACA1" s="0"/>
-      <c r="ACB1" s="0"/>
-      <c r="ACC1" s="0"/>
-      <c r="ACD1" s="0"/>
-      <c r="ACE1" s="0"/>
-      <c r="ACF1" s="0"/>
-      <c r="ACG1" s="0"/>
-      <c r="ACH1" s="0"/>
-      <c r="ACI1" s="0"/>
-      <c r="ACJ1" s="0"/>
-      <c r="ACK1" s="0"/>
-      <c r="ACL1" s="0"/>
-      <c r="ACM1" s="0"/>
-      <c r="ACN1" s="0"/>
-      <c r="ACO1" s="0"/>
-      <c r="ACP1" s="0"/>
-      <c r="ACQ1" s="0"/>
-      <c r="ACR1" s="0"/>
-      <c r="ACS1" s="0"/>
-      <c r="ACT1" s="0"/>
-      <c r="ACU1" s="0"/>
-      <c r="ACV1" s="0"/>
-      <c r="ACW1" s="0"/>
-      <c r="ACX1" s="0"/>
-      <c r="ACY1" s="0"/>
-      <c r="ACZ1" s="0"/>
-      <c r="ADA1" s="0"/>
-      <c r="ADB1" s="0"/>
-      <c r="ADC1" s="0"/>
-      <c r="ADD1" s="0"/>
-      <c r="ADE1" s="0"/>
-      <c r="ADF1" s="0"/>
-      <c r="ADG1" s="0"/>
-      <c r="ADH1" s="0"/>
-      <c r="ADI1" s="0"/>
-      <c r="ADJ1" s="0"/>
-      <c r="ADK1" s="0"/>
-      <c r="ADL1" s="0"/>
-      <c r="ADM1" s="0"/>
-      <c r="ADN1" s="0"/>
-      <c r="ADO1" s="0"/>
-      <c r="ADP1" s="0"/>
-      <c r="ADQ1" s="0"/>
-      <c r="ADR1" s="0"/>
-      <c r="ADS1" s="0"/>
-      <c r="ADT1" s="0"/>
-      <c r="ADU1" s="0"/>
-      <c r="ADV1" s="0"/>
-      <c r="ADW1" s="0"/>
-      <c r="ADX1" s="0"/>
-      <c r="ADY1" s="0"/>
-      <c r="ADZ1" s="0"/>
-      <c r="AEA1" s="0"/>
-      <c r="AEB1" s="0"/>
-      <c r="AEC1" s="0"/>
-      <c r="AED1" s="0"/>
-      <c r="AEE1" s="0"/>
-      <c r="AEF1" s="0"/>
-      <c r="AEG1" s="0"/>
-      <c r="AEH1" s="0"/>
-      <c r="AEI1" s="0"/>
-      <c r="AEJ1" s="0"/>
-      <c r="AEK1" s="0"/>
-      <c r="AEL1" s="0"/>
-      <c r="AEM1" s="0"/>
-      <c r="AEN1" s="0"/>
-      <c r="AEO1" s="0"/>
-      <c r="AEP1" s="0"/>
-      <c r="AEQ1" s="0"/>
-      <c r="AER1" s="0"/>
-      <c r="AES1" s="0"/>
-      <c r="AET1" s="0"/>
-      <c r="AEU1" s="0"/>
-      <c r="AEV1" s="0"/>
-      <c r="AEW1" s="0"/>
-      <c r="AEX1" s="0"/>
-      <c r="AEY1" s="0"/>
-      <c r="AEZ1" s="0"/>
-      <c r="AFA1" s="0"/>
-      <c r="AFB1" s="0"/>
-      <c r="AFC1" s="0"/>
-      <c r="AFD1" s="0"/>
-      <c r="AFE1" s="0"/>
-      <c r="AFF1" s="0"/>
-      <c r="AFG1" s="0"/>
-      <c r="AFH1" s="0"/>
-      <c r="AFI1" s="0"/>
-      <c r="AFJ1" s="0"/>
-      <c r="AFK1" s="0"/>
-      <c r="AFL1" s="0"/>
-      <c r="AFM1" s="0"/>
-      <c r="AFN1" s="0"/>
-      <c r="AFO1" s="0"/>
-      <c r="AFP1" s="0"/>
-      <c r="AFQ1" s="0"/>
-      <c r="AFR1" s="0"/>
-      <c r="AFS1" s="0"/>
-      <c r="AFT1" s="0"/>
-      <c r="AFU1" s="0"/>
-      <c r="AFV1" s="0"/>
-      <c r="AFW1" s="0"/>
-      <c r="AFX1" s="0"/>
-      <c r="AFY1" s="0"/>
-      <c r="AFZ1" s="0"/>
-      <c r="AGA1" s="0"/>
-      <c r="AGB1" s="0"/>
-      <c r="AGC1" s="0"/>
-      <c r="AGD1" s="0"/>
-      <c r="AGE1" s="0"/>
-      <c r="AGF1" s="0"/>
-      <c r="AGG1" s="0"/>
-      <c r="AGH1" s="0"/>
-      <c r="AGI1" s="0"/>
-      <c r="AGJ1" s="0"/>
-      <c r="AGK1" s="0"/>
-      <c r="AGL1" s="0"/>
-      <c r="AGM1" s="0"/>
-      <c r="AGN1" s="0"/>
-      <c r="AGO1" s="0"/>
-      <c r="AGP1" s="0"/>
-      <c r="AGQ1" s="0"/>
-      <c r="AGR1" s="0"/>
-      <c r="AGS1" s="0"/>
-      <c r="AGT1" s="0"/>
-      <c r="AGU1" s="0"/>
-      <c r="AGV1" s="0"/>
-      <c r="AGW1" s="0"/>
-      <c r="AGX1" s="0"/>
-      <c r="AGY1" s="0"/>
-      <c r="AGZ1" s="0"/>
-      <c r="AHA1" s="0"/>
-      <c r="AHB1" s="0"/>
-      <c r="AHC1" s="0"/>
-      <c r="AHD1" s="0"/>
-      <c r="AHE1" s="0"/>
-      <c r="AHF1" s="0"/>
-      <c r="AHG1" s="0"/>
-      <c r="AHH1" s="0"/>
-      <c r="AHI1" s="0"/>
-      <c r="AHJ1" s="0"/>
-      <c r="AHK1" s="0"/>
-      <c r="AHL1" s="0"/>
-      <c r="AHM1" s="0"/>
-      <c r="AHN1" s="0"/>
-      <c r="AHO1" s="0"/>
-      <c r="AHP1" s="0"/>
-      <c r="AHQ1" s="0"/>
-      <c r="AHR1" s="0"/>
-      <c r="AHS1" s="0"/>
-      <c r="AHT1" s="0"/>
-      <c r="AHU1" s="0"/>
-      <c r="AHV1" s="0"/>
-      <c r="AHW1" s="0"/>
-      <c r="AHX1" s="0"/>
-      <c r="AHY1" s="0"/>
-      <c r="AHZ1" s="0"/>
-      <c r="AIA1" s="0"/>
-      <c r="AIB1" s="0"/>
-      <c r="AIC1" s="0"/>
-      <c r="AID1" s="0"/>
-      <c r="AIE1" s="0"/>
-      <c r="AIF1" s="0"/>
-      <c r="AIG1" s="0"/>
-      <c r="AIH1" s="0"/>
-      <c r="AII1" s="0"/>
-      <c r="AIJ1" s="0"/>
-      <c r="AIK1" s="0"/>
-      <c r="AIL1" s="0"/>
-      <c r="AIM1" s="0"/>
-      <c r="AIN1" s="0"/>
-      <c r="AIO1" s="0"/>
-      <c r="AIP1" s="0"/>
-      <c r="AIQ1" s="0"/>
-      <c r="AIR1" s="0"/>
-      <c r="AIS1" s="0"/>
-      <c r="AIT1" s="0"/>
-      <c r="AIU1" s="0"/>
-      <c r="AIV1" s="0"/>
-      <c r="AIW1" s="0"/>
-      <c r="AIX1" s="0"/>
-      <c r="AIY1" s="0"/>
-      <c r="AIZ1" s="0"/>
-      <c r="AJA1" s="0"/>
-      <c r="AJB1" s="0"/>
-      <c r="AJC1" s="0"/>
-      <c r="AJD1" s="0"/>
-      <c r="AJE1" s="0"/>
-      <c r="AJF1" s="0"/>
-      <c r="AJG1" s="0"/>
-      <c r="AJH1" s="0"/>
-      <c r="AJI1" s="0"/>
-      <c r="AJJ1" s="0"/>
-      <c r="AJK1" s="0"/>
-      <c r="AJL1" s="0"/>
-      <c r="AJM1" s="0"/>
-      <c r="AJN1" s="0"/>
-      <c r="AJO1" s="0"/>
-      <c r="AJP1" s="0"/>
-      <c r="AJQ1" s="0"/>
-      <c r="AJR1" s="0"/>
-      <c r="AJS1" s="0"/>
-      <c r="AJT1" s="0"/>
-      <c r="AJU1" s="0"/>
-      <c r="AJV1" s="0"/>
-      <c r="AJW1" s="0"/>
-      <c r="AJX1" s="0"/>
-      <c r="AJY1" s="0"/>
-      <c r="AJZ1" s="0"/>
-      <c r="AKA1" s="0"/>
-      <c r="AKB1" s="0"/>
-      <c r="AKC1" s="0"/>
-      <c r="AKD1" s="0"/>
-      <c r="AKE1" s="0"/>
-      <c r="AKF1" s="0"/>
-      <c r="AKG1" s="0"/>
-      <c r="AKH1" s="0"/>
-      <c r="AKI1" s="0"/>
-      <c r="AKJ1" s="0"/>
-      <c r="AKK1" s="0"/>
-      <c r="AKL1" s="0"/>
-      <c r="AKM1" s="0"/>
-      <c r="AKN1" s="0"/>
-      <c r="AKO1" s="0"/>
-      <c r="AKP1" s="0"/>
-      <c r="AKQ1" s="0"/>
-      <c r="AKR1" s="0"/>
-      <c r="AKS1" s="0"/>
-      <c r="AKT1" s="0"/>
-      <c r="AKU1" s="0"/>
-      <c r="AKV1" s="0"/>
-      <c r="AKW1" s="0"/>
-      <c r="AKX1" s="0"/>
-      <c r="AKY1" s="0"/>
-      <c r="AKZ1" s="0"/>
-      <c r="ALA1" s="0"/>
-      <c r="ALB1" s="0"/>
-      <c r="ALC1" s="0"/>
-      <c r="ALD1" s="0"/>
-      <c r="ALE1" s="0"/>
-      <c r="ALF1" s="0"/>
-      <c r="ALG1" s="0"/>
-      <c r="ALH1" s="0"/>
-      <c r="ALI1" s="0"/>
-      <c r="ALJ1" s="0"/>
-      <c r="ALK1" s="0"/>
-      <c r="ALL1" s="0"/>
-      <c r="ALM1" s="0"/>
-      <c r="ALN1" s="0"/>
-      <c r="ALO1" s="0"/>
-      <c r="ALP1" s="0"/>
-      <c r="ALQ1" s="0"/>
-      <c r="ALR1" s="0"/>
-      <c r="ALS1" s="0"/>
-      <c r="ALT1" s="0"/>
-      <c r="ALU1" s="0"/>
-      <c r="ALV1" s="0"/>
-      <c r="ALW1" s="0"/>
-      <c r="ALX1" s="0"/>
-      <c r="ALY1" s="0"/>
-      <c r="ALZ1" s="0"/>
-      <c r="AMA1" s="0"/>
-      <c r="AMB1" s="0"/>
-      <c r="AMC1" s="0"/>
-      <c r="AMD1" s="0"/>
-      <c r="AME1" s="0"/>
-      <c r="AMF1" s="0"/>
-      <c r="AMG1" s="0"/>
-      <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="9" t="n">
+        <v>79</v>
+      </c>
+      <c r="E2" s="10" t="n">
         <v>-3</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>139</v>
+      <c r="F2" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="E3" s="10" t="n">
         <v>-4</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>139</v>
+      <c r="F3" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -2815,14 +1829,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="Q39" activeCellId="0" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2841,68 +1855,80 @@
         <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>148</v>
+      <c r="E2" s="0"/>
+      <c r="F2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>2000</v>
       </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0.001</v>
       </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:F1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2926,12 +1952,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="P34" activeCellId="0" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="10" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="11" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2942,13 +1968,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -2986,7 +2012,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="P30" activeCellId="0" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -2996,46 +2022,46 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="K1" s="11" t="s">
+      <c r="F1" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3058,19 +2084,19 @@
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="X1" activeCellId="0" sqref="X1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="bottomRight" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="12" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="13" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="11" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3078,46 +2104,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>18</v>
@@ -3292,14 +2318,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H15" activeCellId="0" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3327,27 +2353,36 @@
         <v>39</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>4.58E-017</v>
@@ -3356,23 +2391,29 @@
         <v>4.58E-018</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>1.09</v>
+      </c>
       <c r="I2" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>1E-012</v>
@@ -3381,16 +2422,22 @@
         <v>1E-013</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.99318</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I3"/>
+  <autoFilter ref="A1:L3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3430,16 +2477,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>36</v>
@@ -3459,13 +2506,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
@@ -3474,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -3482,13 +2529,13 @@
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>2</v>
@@ -3497,7 +2544,7 @@
         <v>-1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -3505,13 +2552,13 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>3</v>
@@ -3520,7 +2567,7 @@
         <v>-2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -3528,13 +2575,13 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>4</v>
@@ -3543,7 +2590,7 @@
         <v>-5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -3551,13 +2598,13 @@
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>5</v>
@@ -3566,7 +2613,7 @@
         <v>-3</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -3574,13 +2621,13 @@
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>6</v>
@@ -3589,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -3636,10 +2683,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>18</v>
@@ -3656,90 +2703,90 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3781,16 +2828,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>18</v>
@@ -3807,10 +2854,10 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0.000148</v>
@@ -3819,17 +2866,17 @@
         <v>0.0121655250605964</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0.0002</v>
@@ -3838,17 +2885,17 @@
         <v>0.014142135623731</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.0005</v>
@@ -3857,17 +2904,17 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.0005</v>
@@ -3876,17 +2923,17 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>0.001</v>
@@ -3895,17 +2942,17 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>0.002</v>
@@ -3914,7 +2961,7 @@
         <v>0.0447213595499958</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -3942,7 +2989,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3958,7 +3005,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>18</v>
@@ -3992,11 +3039,11 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4012,13 +3059,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="175">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -558,9 +558,6 @@
     <t xml:space="preserve">Expression</t>
   </si>
   <si>
-    <t xml:space="preserve">Concentration units</t>
-  </si>
-  <si>
     <t xml:space="preserve">Submodel</t>
   </si>
   <si>
@@ -648,100 +645,100 @@
     <t xml:space="preserve">reaction cell^-1 s^-1</t>
   </si>
   <si>
+    <t xml:space="preserve">reaction_2-forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat_2 * specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_3-forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c] / k_m_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_3-backward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_4-forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism_net_rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism net reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dFBA net reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-specie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dFBA net component 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mol gsCellCycle^-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dFBA net component 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-specie_3[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dFBA net component 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fractionDryWeight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of cell mass which is non water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dimensionless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Ref-0006]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction molecule^-1 s^-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_m_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K_m</t>
+  </si>
+  <si>
     <t xml:space="preserve">molecule cell^-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_2-forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat_2 * specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3-forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c] / k_m_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3-backward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_4-forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism_net_rxn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism net reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dFBA net reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-specie_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dFBA net component 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mol gsCellCycle^-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dFBA net component 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfba-net-comp-Metabolism_net_rxn-specie_3[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dFBA net component 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fractionDryWeight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraction of cell mass which is non water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dimensionless</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Ref-0006]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction molecule^-1 s^-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_m_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K_m</t>
   </si>
   <si>
     <t xml:space="preserve">Taxon</t>
@@ -1226,7 +1223,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>96</v>
@@ -1249,16 +1246,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1303,22 +1300,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>18</v>
@@ -1335,16 +1332,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0</v>
@@ -1356,22 +1353,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
@@ -1383,22 +1380,22 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
@@ -1406,16 +1403,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0</v>
@@ -1439,19 +1436,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1023" min="1" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1462,10 +1460,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>36</v>
@@ -1477,134 +1475,116 @@
         <v>88</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1647,7 +1627,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>18</v>
@@ -1664,16 +1644,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1720,13 +1700,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>85</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>88</v>
@@ -1746,13 +1726,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>79</v>
@@ -1761,23 +1741,23 @@
         <v>-3</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>80</v>
@@ -1786,20 +1766,20 @@
         <v>-4</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>81</v>
@@ -1808,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1855,10 +1835,10 @@
         <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>88</v>
@@ -1878,53 +1858,53 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.3</v>
       </c>
       <c r="E2" s="0"/>
       <c r="F2" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>2000</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0.001</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1945,19 +1925,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P34" activeCellId="0" sqref="P34"/>
+      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="11" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1023" min="1" style="11" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1974,18 +1955,15 @@
         <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2029,7 +2007,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>88</v>
@@ -2038,19 +2016,19 @@
         <v>36</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>162</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>163</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>18</v>
@@ -2104,46 +2082,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>18</v>
@@ -2320,7 +2298,7 @@
   </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -2982,14 +2960,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F25" activeCellId="0" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3008,15 +2986,18 @@
         <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3036,19 +3017,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1023" min="1" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3065,18 +3047,15 @@
         <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="180">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -498,9 +498,15 @@
     <t xml:space="preserve">Compartment</t>
   </si>
   <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
     <t xml:space="preserve">specie_1[e]</t>
   </si>
   <si>
+    <t xml:space="preserve">molecule cell^-1</t>
+  </si>
+  <si>
     <t xml:space="preserve">specie_2[e]</t>
   </si>
   <si>
@@ -531,9 +537,6 @@
     <t xml:space="preserve">Standard deviation</t>
   </si>
   <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
     <t xml:space="preserve">conc-specie_1[e]</t>
   </si>
   <si>
@@ -639,7 +642,7 @@
     <t xml:space="preserve">other</t>
   </si>
   <si>
-    <t xml:space="preserve">max( specie_1[e], specie_2[e] )</t>
+    <t xml:space="preserve">k_cat_1 * max( specie_1[e], specie_2[e] )</t>
   </si>
   <si>
     <t xml:space="preserve">reaction cell^-1 s^-1</t>
@@ -654,7 +657,7 @@
     <t xml:space="preserve">reaction_3-forward</t>
   </si>
   <si>
-    <t xml:space="preserve">specie_4[c] / k_m_3</t>
+    <t xml:space="preserve">k_cat_4 * specie_4[c] / k_m_3</t>
   </si>
   <si>
     <t xml:space="preserve">reaction_3-backward</t>
@@ -663,12 +666,15 @@
     <t xml:space="preserve">backward</t>
   </si>
   <si>
-    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
+    <t xml:space="preserve">k_cat_5 * (specie_5[c] + specie_6[c])</t>
   </si>
   <si>
     <t xml:space="preserve">reaction_4-forward</t>
   </si>
   <si>
+    <t xml:space="preserve">k_cat_6 * specie_2[c]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Metabolism_net_rxn</t>
   </si>
   <si>
@@ -738,7 +744,16 @@
     <t xml:space="preserve">K_m</t>
   </si>
   <si>
-    <t xml:space="preserve">molecule cell^-1</t>
+    <t xml:space="preserve">k_cat_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat_6</t>
   </si>
   <si>
     <t xml:space="preserve">Taxon</t>
@@ -907,7 +922,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -926,6 +941,10 @@
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -952,7 +971,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1223,13 +1242,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -1246,16 +1265,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1300,22 +1319,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>18</v>
@@ -1332,16 +1351,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0</v>
@@ -1353,22 +1372,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L2" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
@@ -1380,22 +1399,22 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L3" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
@@ -1403,16 +1422,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>118</v>
+      <c r="D5" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0</v>
@@ -1443,7 +1462,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1460,19 +1479,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -1489,103 +1508,113 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="7" t="s">
         <v>123</v>
       </c>
+      <c r="E2" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="7" t="s">
         <v>123</v>
       </c>
+      <c r="E4" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="7" t="s">
         <v>123</v>
       </c>
+      <c r="E6" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="F6" s="1" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1603,57 +1632,63 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N40" activeCellId="0" sqref="N40"/>
+      <selection pane="bottomRight" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="7" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="8" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>136</v>
+      <c r="D2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1684,32 +1719,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="7" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="9" min="4" style="7" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="8" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="9" min="4" style="8" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1023" min="11" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="9" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="10" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="10" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>88</v>
+      <c r="C1" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>18</v>
@@ -1717,78 +1752,78 @@
       <c r="H1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>134</v>
+      <c r="A2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="10" t="n">
+        <v>81</v>
+      </c>
+      <c r="E2" s="11" t="n">
         <v>-3</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>141</v>
+      <c r="F2" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="7" t="s">
-        <v>142</v>
+      <c r="I2" s="8" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="11" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>143</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="10" t="n">
-        <v>-4</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>141</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>134</v>
+      <c r="A4" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="10" t="n">
+        <v>83</v>
+      </c>
+      <c r="E4" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>141</v>
+      <c r="F4" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1809,17 +1844,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q39" activeCellId="0" sqref="Q39"/>
+      <selection pane="bottomRight" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
@@ -1835,13 +1870,13 @@
         <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>18</v>
@@ -1858,53 +1893,113 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="E2" s="0"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>2000</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0.001</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1" t="s">
-        <v>157</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="0"/>
+      <c r="C5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="0"/>
+      <c r="C6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1937,7 +2032,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1023" min="1" style="11" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1023" min="1" style="5" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1949,10 +2044,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>18</v>
@@ -2000,46 +2095,46 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="K1" s="12" t="s">
+      <c r="F1" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2071,10 +2166,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="13" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="14" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2082,46 +2177,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>18</v>
@@ -2637,20 +2732,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="9" min="1" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2667,21 +2762,24 @@
         <v>76</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2689,10 +2787,13 @@
       <c r="D2" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="E2" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>60</v>
@@ -2700,10 +2801,13 @@
       <c r="D3" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="E3" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>56</v>
@@ -2711,10 +2815,13 @@
       <c r="D4" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E4" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>60</v>
@@ -2722,10 +2829,13 @@
       <c r="D5" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E5" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>63</v>
@@ -2733,10 +2843,13 @@
       <c r="D6" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E6" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>66</v>
@@ -2744,10 +2857,13 @@
       <c r="D7" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E7" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>69</v>
@@ -2755,16 +2871,22 @@
       <c r="D8" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E8" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2806,16 +2928,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>18</v>
@@ -2832,10 +2954,10 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0.000148</v>
@@ -2844,17 +2966,17 @@
         <v>0.0121655250605964</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0.0002</v>
@@ -2863,17 +2985,17 @@
         <v>0.014142135623731</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.0005</v>
@@ -2882,17 +3004,17 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.0005</v>
@@ -2901,17 +3023,17 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>0.001</v>
@@ -2920,17 +3042,17 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>0.002</v>
@@ -2939,7 +3061,7 @@
         <v>0.0447213595499958</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -2962,12 +3084,12 @@
   </sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="L39" activeCellId="0" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2983,10 +3105,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>18</v>
@@ -3041,10 +3163,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>18</v>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -78,6 +78,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
@@ -122,6 +123,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
@@ -166,6 +168,7 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
@@ -210,6 +213,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
@@ -254,6 +258,7 @@
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -504,7 +509,7 @@
     <t xml:space="preserve">specie_1[e]</t>
   </si>
   <si>
-    <t xml:space="preserve">molecule cell^-1</t>
+    <t xml:space="preserve">molecule</t>
   </si>
   <si>
     <t xml:space="preserve">specie_2[e]</t>
@@ -645,7 +650,7 @@
     <t xml:space="preserve">k_cat_1 * max( specie_1[e], specie_2[e] )</t>
   </si>
   <si>
-    <t xml:space="preserve">reaction cell^-1 s^-1</t>
+    <t xml:space="preserve">reaction s^-1</t>
   </si>
   <si>
     <t xml:space="preserve">reaction_2-forward</t>
@@ -1227,9 +1232,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="9.10526315789474"/>
   </cols>
@@ -1307,7 +1312,7 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="49.8097165991903"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1720,7 +1725,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="8" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="9" min="4" style="8" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="8" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1023" min="11" style="1" width="8.78542510121457"/>
@@ -1851,7 +1856,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="N14" activeCellId="0" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -1916,6 +1921,7 @@
       <c r="A3" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="B3" s="0"/>
       <c r="C3" s="1" t="s">
         <v>155</v>
       </c>
@@ -1931,6 +1937,7 @@
       <c r="A4" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="B4" s="0"/>
       <c r="C4" s="1" t="s">
         <v>158</v>
       </c>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="180">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -320,6 +320,12 @@
     <t xml:space="preserve">Author email</t>
   </si>
   <si>
+    <t xml:space="preserve">Cell mass units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
     <t xml:space="preserve">Time units</t>
   </si>
   <si>
@@ -575,7 +581,7 @@
     <t xml:space="preserve">2*Metabolism_net_rxn</t>
   </si>
   <si>
-    <t xml:space="preserve">gsCellCycle gCell^-1 s^-1</t>
+    <t xml:space="preserve">dimensionless</t>
   </si>
   <si>
     <t xml:space="preserve">Participants</t>
@@ -602,7 +608,7 @@
     <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
   </si>
   <si>
-    <t xml:space="preserve">mol reaction gCell^-1 s^-1</t>
+    <t xml:space="preserve">M s^-1</t>
   </si>
   <si>
     <t xml:space="preserve">reaction_2</t>
@@ -650,7 +656,7 @@
     <t xml:space="preserve">k_cat_1 * max( specie_1[e], specie_2[e] )</t>
   </si>
   <si>
-    <t xml:space="preserve">reaction s^-1</t>
+    <t xml:space="preserve">s^-1</t>
   </si>
   <si>
     <t xml:space="preserve">reaction_2-forward</t>
@@ -701,9 +707,6 @@
     <t xml:space="preserve">dFBA net component 1</t>
   </si>
   <si>
-    <t xml:space="preserve">mol gsCellCycle^-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">test</t>
   </si>
   <si>
@@ -728,9 +731,6 @@
     <t xml:space="preserve">Fraction of cell mass which is non water</t>
   </si>
   <si>
-    <t xml:space="preserve">dimensionless</t>
-  </si>
-  <si>
     <t xml:space="preserve">[Ref-0006]</t>
   </si>
   <si>
@@ -740,7 +740,7 @@
     <t xml:space="preserve">k_cat</t>
   </si>
   <si>
-    <t xml:space="preserve">reaction molecule^-1 s^-1</t>
+    <t xml:space="preserve">molecule^-1 s^-1</t>
   </si>
   <si>
     <t xml:space="preserve">k_m_3</t>
@@ -1086,12 +1086,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topRight" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -1177,7 +1177,7 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="0" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1185,20 +1185,28 @@
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1227,7 +1235,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G38" activeCellId="0" sqref="G38"/>
+      <selection pane="bottomRight" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1247,39 +1255,39 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1301,11 +1309,11 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F34" activeCellId="0" sqref="F34"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="K21" activeCellId="0" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1324,48 +1332,48 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0</v>
@@ -1377,22 +1385,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
@@ -1404,22 +1412,22 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
@@ -1427,16 +1435,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0</v>
@@ -1467,7 +1475,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="J30" activeCellId="0" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1484,139 +1492,139 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I2" s="0"/>
       <c r="J2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
@@ -1644,7 +1652,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I17" activeCellId="0" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1661,39 +1669,39 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1727,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L32" activeCellId="0" sqref="L32"/>
+      <selection pane="bottomRight" activeCell="N32" activeCellId="0" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1740,95 +1748,95 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E2" s="11" t="n">
         <v>-3</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E3" s="11" t="n">
         <v>-4</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E4" s="11" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1851,12 +1859,12 @@
   </sheetPr>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N14" activeCellId="0" sqref="N14"/>
+      <selection pane="bottomRight" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -1872,46 +1880,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.3</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="1" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>153</v>
@@ -1946,7 +1954,7 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1976,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2051,22 +2059,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2109,13 +2117,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>163</v>
@@ -2133,16 +2141,16 @@
         <v>167</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2196,7 +2204,7 @@
         <v>170</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>171</v>
@@ -2226,10 +2234,10 @@
         <v>179</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2268,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2276,34 +2284,34 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2345,41 +2353,41 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2421,48 +2429,48 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>4.58E-017</v>
@@ -2471,29 +2479,29 @@
         <v>4.58E-018</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>1.09</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>1E-012</v>
@@ -2502,18 +2510,18 @@
         <v>1E-013</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>0.99318</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2557,42 +2565,42 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
@@ -2601,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -2609,13 +2617,13 @@
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>2</v>
@@ -2624,7 +2632,7 @@
         <v>-1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -2632,13 +2640,13 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>3</v>
@@ -2647,7 +2655,7 @@
         <v>-2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -2655,13 +2663,13 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>4</v>
@@ -2670,7 +2678,7 @@
         <v>-5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -2678,13 +2686,13 @@
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>5</v>
@@ -2693,7 +2701,7 @@
         <v>-3</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -2701,13 +2709,13 @@
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>6</v>
@@ -2716,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -2763,137 +2771,137 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2935,36 +2943,36 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0.000148</v>
@@ -2973,17 +2981,17 @@
         <v>0.0121655250605964</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0.0002</v>
@@ -2992,17 +3000,17 @@
         <v>0.014142135623731</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.0005</v>
@@ -3011,17 +3019,17 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.0005</v>
@@ -3030,17 +3038,17 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>0.001</v>
@@ -3049,17 +3057,17 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>0.002</v>
@@ -3068,7 +3076,7 @@
         <v>0.0447213595499958</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -3112,22 +3120,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3153,7 +3161,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="J33" activeCellId="0" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3170,22 +3178,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,9 +17,9 @@
     <sheet name="Concentrations" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Observables" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="dFBA objectives" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Reactions" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Rate laws" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="dFBA objectives" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="dFBA net reactions" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="dFBA net components" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Parameters" sheetId="15" state="visible" r:id="rId16"/>
@@ -30,7 +30,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="true" localSheetId="17" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
@@ -124,51 +124,51 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="179">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -320,12 +320,6 @@
     <t xml:space="preserve">Author email</t>
   </si>
   <si>
-    <t xml:space="preserve">Cell mass units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g</t>
-  </si>
-  <si>
     <t xml:space="preserve">Time units</t>
   </si>
   <si>
@@ -575,6 +569,108 @@
     <t xml:space="preserve">Submodel</t>
   </si>
   <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flux min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flux max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flux units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M s^-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_1-forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat_1 * max( specie_1[e], specie_2[e] )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s^-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_2-forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat_2 * specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_3-forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat_4 * specie_4[c] / k_m_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_3-backward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat_5 * (specie_5[c] + specie_6[c])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_4-forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat_6 * specie_2[c]</t>
+  </si>
+  <si>
     <t xml:space="preserve">dfba-obj-dfba_submodel</t>
   </si>
   <si>
@@ -584,106 +680,7 @@
     <t xml:space="preserve">dimensionless</t>
   </si>
   <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flux min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flux max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flux units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M s^-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_1-forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat_1 * max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s^-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_2-forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat_2 * specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3-forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat_4 * specie_4[c] / k_m_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3-backward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat_5 * (specie_5[c] + specie_6[c])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_4-forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat_6 * specie_2[c]</t>
+    <t xml:space="preserve">Cell size units</t>
   </si>
   <si>
     <t xml:space="preserve">Metabolism_net_rxn</t>
@@ -1086,15 +1083,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topRight" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
   </cols>
@@ -1177,7 +1174,7 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1185,28 +1182,20 @@
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1224,6 +1213,345 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="K21" activeCellId="0" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.78542510121457"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D5"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J30" activeCellId="0" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1023" min="1" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1255,39 +1583,39 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1301,364 +1629,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="K21" activeCellId="0" sqref="K21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="49.8097165991903"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.78542510121457"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D5"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K6"/>
-  <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J30" activeCellId="0" sqref="J30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1023" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I4" s="0"/>
-      <c r="J4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I5" s="0"/>
-      <c r="J5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I6" s="0"/>
-      <c r="J6" s="0"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="M17" activeCellId="0" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="8" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="1" style="8" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1669,39 +1658,45 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>77</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1748,95 +1743,95 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>142</v>
-      </c>
       <c r="F1" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E2" s="11" t="n">
         <v>-3</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>147</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E3" s="11" t="n">
         <v>-4</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>149</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E4" s="11" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1880,141 +1875,141 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.3</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="1" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>2000</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0.001</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2059,22 +2054,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2117,40 +2112,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F1" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>167</v>
-      </c>
       <c r="K1" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2192,52 +2187,52 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="Q1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2276,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2284,34 +2279,34 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2353,41 +2348,41 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2429,48 +2424,48 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>4.58E-017</v>
@@ -2479,29 +2474,29 @@
         <v>4.58E-018</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>1.09</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>1E-012</v>
@@ -2510,18 +2505,18 @@
         <v>1E-013</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>0.99318</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2565,42 +2560,42 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
@@ -2609,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -2617,13 +2612,13 @@
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>2</v>
@@ -2632,7 +2627,7 @@
         <v>-1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -2640,13 +2635,13 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>3</v>
@@ -2655,7 +2650,7 @@
         <v>-2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -2663,13 +2658,13 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>4</v>
@@ -2678,7 +2673,7 @@
         <v>-5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -2686,13 +2681,13 @@
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>5</v>
@@ -2701,7 +2696,7 @@
         <v>-3</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -2709,13 +2704,13 @@
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>6</v>
@@ -2724,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -2771,137 +2766,137 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2943,36 +2938,36 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0.000148</v>
@@ -2981,17 +2976,17 @@
         <v>0.0121655250605964</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0.0002</v>
@@ -3000,17 +2995,17 @@
         <v>0.014142135623731</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.0005</v>
@@ -3019,17 +3014,17 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.0005</v>
@@ -3038,17 +3033,17 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>0.001</v>
@@ -3057,17 +3052,17 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>0.002</v>
@@ -3076,7 +3071,7 @@
         <v>0.0447213595499958</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -3120,22 +3115,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3178,22 +3173,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,7 +14,7 @@
     <sheet name="Compartments" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Species types" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Species" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Concentrations" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Distributions of initial concentrations of species" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Observables" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="181">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -536,6 +536,9 @@
     <t xml:space="preserve">Species</t>
   </si>
   <si>
+    <t xml:space="preserve">Distribution</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mean</t>
   </si>
   <si>
@@ -543,6 +546,9 @@
   </si>
   <si>
     <t xml:space="preserve">conc-specie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
   </si>
   <si>
     <t xml:space="preserve">M</t>
@@ -1243,22 +1249,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>18</v>
@@ -1275,16 +1281,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0</v>
@@ -1296,22 +1302,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
@@ -1323,22 +1329,22 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
@@ -1346,16 +1352,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0</v>
@@ -1403,16 +1409,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>77</v>
@@ -1432,110 +1438,110 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I2" s="0"/>
       <c r="J2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
@@ -1583,10 +1589,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>77</v>
@@ -1606,16 +1612,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1636,7 +1642,7 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -1658,13 +1664,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -1681,22 +1687,22 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>46</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1743,13 +1749,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>87</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>77</v>
@@ -1769,13 +1775,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>81</v>
@@ -1784,23 +1790,23 @@
         <v>-3</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>82</v>
@@ -1809,20 +1815,20 @@
         <v>-4</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>83</v>
@@ -1831,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1878,10 +1884,10 @@
         <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>77</v>
@@ -1901,48 +1907,48 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.3</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>2000</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0.001</v>
@@ -1954,62 +1960,62 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2054,7 +2060,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>77</v>
@@ -2112,7 +2118,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>77</v>
@@ -2121,19 +2127,19 @@
         <v>36</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>18</v>
@@ -2187,46 +2193,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>18</v>
@@ -2915,14 +2921,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="M14" activeCellId="0" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2947,134 +2953,155 @@
         <v>89</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="4" t="n">
         <v>0.000148</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="F2" s="4" t="n">
         <v>0.0121655250605964</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="4" t="n">
         <v>0.0002</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="F3" s="4" t="n">
         <v>0.014142135623731</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="4" t="n">
         <v>0.0005</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="F4" s="4" t="n">
         <v>0.0223606797749979</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="4" t="n">
         <v>0.0005</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="F5" s="4" t="n">
         <v>0.0223606797749979</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="4" t="n">
         <v>0.001</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="F6" s="4" t="n">
         <v>0.0316227766016838</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="4" t="n">
         <v>0.002</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="F7" s="4" t="n">
         <v>0.0447213595499958</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3115,7 +3142,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>77</v>
@@ -3173,7 +3200,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>77</v>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,57 +28,57 @@
     <sheet name="References" sheetId="18" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="true" localSheetId="17" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$L$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$J$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$K$6</definedName>
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="179">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -383,24 +383,18 @@
     <t xml:space="preserve">Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Volume mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volume standard deviation</t>
+    <t xml:space="preserve">Density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Density units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume</t>
   </si>
   <si>
     <t xml:space="preserve">Volume units</t>
   </si>
   <si>
-    <t xml:space="preserve">Density mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Density standard deviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Density units</t>
-  </si>
-  <si>
     <t xml:space="preserve">c</t>
   </si>
   <si>
@@ -410,12 +404,15 @@
     <t xml:space="preserve">physical_3d</t>
   </si>
   <si>
+    <t xml:space="preserve">g ml^-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mass * density</t>
+  </si>
+  <si>
     <t xml:space="preserve">l</t>
   </si>
   <si>
-    <t xml:space="preserve">g ml^-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
   </si>
   <si>
@@ -795,9 +792,6 @@
   </si>
   <si>
     <t xml:space="preserve">Series</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volume</t>
   </si>
   <si>
     <t xml:space="preserve">Number</t>
@@ -1249,22 +1243,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>18</v>
@@ -1281,16 +1275,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0</v>
@@ -1302,22 +1296,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
@@ -1329,22 +1323,22 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
@@ -1352,16 +1346,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0</v>
@@ -1409,19 +1403,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -1438,110 +1432,110 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="I2" s="0"/>
       <c r="J2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
@@ -1589,13 +1583,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -1612,16 +1606,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1664,13 +1658,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -1687,22 +1681,22 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>46</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1749,16 +1743,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>143</v>
-      </c>
       <c r="F1" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>18</v>
@@ -1775,69 +1769,69 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>145</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" s="11" t="n">
         <v>-3</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>148</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" s="11" t="n">
         <v>-4</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>150</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="11" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1884,13 +1878,13 @@
         <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>18</v>
@@ -1907,115 +1901,115 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.3</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>2000</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0.001</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2060,10 +2054,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>18</v>
@@ -2118,28 +2112,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>167</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>168</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>18</v>
@@ -2193,46 +2187,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>18</v>
@@ -2407,19 +2401,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1022" min="1" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2445,88 +2440,76 @@
         <v>40</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="3" t="n">
-        <v>4.58E-017</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>4.58E-018</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.99318</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>1E-013</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0.99318</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="1" t="s">
-        <v>51</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L3"/>
+  <autoFilter ref="A1:J3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2566,16 +2549,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>36</v>
@@ -2595,13 +2578,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
@@ -2610,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -2618,13 +2601,13 @@
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>2</v>
@@ -2633,7 +2616,7 @@
         <v>-1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -2641,13 +2624,13 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>3</v>
@@ -2656,7 +2639,7 @@
         <v>-2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -2664,13 +2647,13 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>4</v>
@@ -2679,7 +2662,7 @@
         <v>-5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -2687,13 +2670,13 @@
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>5</v>
@@ -2702,7 +2685,7 @@
         <v>-3</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -2710,13 +2693,13 @@
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>6</v>
@@ -2725,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -2772,13 +2755,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -2795,114 +2778,114 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2923,12 +2906,12 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M14" activeCellId="0" sqref="M14"/>
+      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2944,19 +2927,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -2973,13 +2956,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>0.000148</v>
@@ -2988,20 +2971,20 @@
         <v>0.0121655250605964</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>0.0002</v>
@@ -3010,20 +2993,20 @@
         <v>0.014142135623731</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>0.0005</v>
@@ -3032,20 +3015,20 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>0.0005</v>
@@ -3054,20 +3037,20 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>0.001</v>
@@ -3076,20 +3059,20 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>0.002</v>
@@ -3098,7 +3081,7 @@
         <v>0.0447213595499958</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -3142,10 +3125,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>18</v>
@@ -3200,10 +3183,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>18</v>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="989" activeTab="13"/>
+    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="989" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -28,51 +28,51 @@
     <sheet name="References" sheetId="18" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$J$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$M$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$K$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$J$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="183">
   <si>
     <t>Id</t>
   </si>
@@ -348,18 +348,27 @@
     <t>Type</t>
   </si>
   <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Initial volume, distribution</t>
+  </si>
+  <si>
+    <t>Initial volume, mean</t>
+  </si>
+  <si>
+    <t>Initial volume, standard deviation</t>
+  </si>
+  <si>
+    <t>Volume units</t>
+  </si>
+  <si>
     <t>Density</t>
   </si>
   <si>
     <t>Density units</t>
   </si>
   <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
@@ -369,15 +378,21 @@
     <t>physical_3d</t>
   </si>
   <si>
+    <t>mass * density</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>init_mass / init_volume</t>
+  </si>
+  <si>
     <t>g ml^-1</t>
   </si>
   <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
     <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
   </si>
   <si>
@@ -508,9 +523,6 @@
   </si>
   <si>
     <t>dist-init-conc-specie_1[e]</t>
-  </si>
-  <si>
-    <t>normal</t>
   </si>
   <si>
     <t>M</t>
@@ -779,12 +791,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -821,8 +833,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,23 +875,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -871,10 +891,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -886,15 +907,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -916,50 +972,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -976,7 +988,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,7 +1000,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,25 +1096,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,55 +1108,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,43 +1120,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,13 +1150,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,11 +1191,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1206,71 +1283,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1279,135 +1291,135 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1448,10 +1460,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1995,22 +2007,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>18</v>
@@ -2027,16 +2039,16 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -2048,22 +2060,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L2" s="13"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:12">
       <c r="A3" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -2075,22 +2087,22 @@
         <v>2</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L3" s="13"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -2098,16 +2110,16 @@
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -2150,19 +2162,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
@@ -2179,110 +2191,110 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:10">
       <c r="A3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -2324,13 +2336,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -2347,16 +2359,16 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2396,13 +2408,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -2419,22 +2431,22 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:8">
       <c r="A2" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2449,7 +2461,7 @@
   <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2475,16 +2487,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>18</v>
@@ -2501,69 +2513,69 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:9">
       <c r="A2" s="9" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E2" s="11">
         <v>-3</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="9" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:8">
       <c r="A3" s="9" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E3" s="11">
         <v>-4</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:8">
       <c r="A4" s="9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E4" s="11">
         <v>1</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -2604,13 +2616,13 @@
         <v>36</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>18</v>
@@ -2627,115 +2639,115 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4">
         <v>0.3</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B3"/>
       <c r="C3" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D3" s="6">
         <v>2000</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B4"/>
       <c r="C4" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D4" s="6">
         <v>0.001</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B6"/>
       <c r="C6" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B7"/>
       <c r="C7" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B8"/>
       <c r="C8" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2775,10 +2787,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>
@@ -2830,28 +2842,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2902,46 +2914,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>18</v>
@@ -3099,23 +3111,25 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1022" width="8.78333333333333" style="4"/>
-    <col min="1023" max="1025" width="8.78333333333333"/>
+    <col min="1" max="6" width="8.78333333333333" style="4"/>
+    <col min="7" max="7" width="9.375" style="4"/>
+    <col min="8" max="1025" width="8.78333333333333" style="4"/>
+    <col min="1026" max="1028" width="8.78333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+    <row r="1" ht="15.1" customHeight="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3138,76 +3152,103 @@
         <v>40</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:10">
+    <row r="2" ht="15.1" customHeight="1" spans="1:13">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1.09</v>
+        <v>46</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="6">
+        <v>4.58e-17</v>
+      </c>
+      <c r="G2" s="4">
+        <v>4.58e-18</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="1:13">
+      <c r="A3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" ht="15.1" customHeight="1" spans="1:10">
-      <c r="A3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.99318</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="I3" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="J3" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J3">
+  <autoFilter ref="A1:M3">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3242,16 +3283,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>36</v>
@@ -3271,13 +3312,13 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -3286,7 +3327,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -3294,13 +3335,13 @@
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E3" s="4">
         <v>2</v>
@@ -3309,7 +3350,7 @@
         <v>-1</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -3317,13 +3358,13 @@
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E4" s="4">
         <v>3</v>
@@ -3332,7 +3373,7 @@
         <v>-2</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
@@ -3340,13 +3381,13 @@
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E5" s="4">
         <v>4</v>
@@ -3355,7 +3396,7 @@
         <v>-5</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -3363,13 +3404,13 @@
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E6" s="4">
         <v>5</v>
@@ -3378,7 +3419,7 @@
         <v>-3</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -3386,13 +3427,13 @@
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E7" s="4">
         <v>6</v>
@@ -3401,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -3443,13 +3484,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -3466,114 +3507,114 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:5">
       <c r="A7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3612,19 +3653,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
@@ -3641,13 +3682,13 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="E2" s="14">
         <v>0.000148</v>
@@ -3656,20 +3697,20 @@
         <v>0.0121655250605964</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="E3" s="14">
         <v>0.0002</v>
@@ -3678,20 +3719,20 @@
         <v>0.014142135623731</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="E4" s="14">
         <v>0.0005</v>
@@ -3700,20 +3741,20 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="E5" s="14">
         <v>0.0005</v>
@@ -3722,20 +3763,20 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="E6" s="14">
         <v>0.001</v>
@@ -3744,20 +3785,20 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="E7" s="14">
         <v>0.002</v>
@@ -3766,7 +3807,7 @@
         <v>0.0447213595499958</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -3804,10 +3845,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>
@@ -3859,10 +3900,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="989" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="989" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -28,51 +28,51 @@
     <sheet name="References" sheetId="18" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$P$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$K$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$M$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="190">
   <si>
     <t>Id</t>
   </si>
@@ -345,76 +345,97 @@
     <t>ssa</t>
   </si>
   <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Initial volume, distribution</t>
+  </si>
+  <si>
+    <t>Initial volume, mean</t>
+  </si>
+  <si>
+    <t>Initial volume, standard deviation</t>
+  </si>
+  <si>
+    <t>Volume units</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Density units</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>mass * density</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>init_mass / init_volume</t>
+  </si>
+  <si>
+    <t>g ml^-1</t>
+  </si>
+  <si>
+    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>physical_3d</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
   </si>
   <si>
     <t>specie_1</t>
@@ -791,12 +812,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -839,7 +860,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,15 +874,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -869,17 +882,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -893,7 +898,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -907,8 +912,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,6 +935,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -938,21 +951,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -967,7 +966,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -988,7 +1009,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,19 +1039,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,145 +1183,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1191,6 +1212,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1210,7 +1240,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1256,15 +1286,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1291,132 +1312,132 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1460,10 +1481,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2007,22 +2028,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>18</v>
@@ -2039,16 +2060,16 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -2060,22 +2081,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="L2" s="13"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:12">
       <c r="A3" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -2087,22 +2108,22 @@
         <v>2</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="L3" s="13"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -2110,16 +2131,16 @@
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -2162,19 +2183,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
@@ -2191,110 +2212,110 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:10">
       <c r="A5" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="F5" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -2336,13 +2357,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -2359,16 +2380,16 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2408,13 +2429,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -2431,22 +2452,22 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:8">
       <c r="A2" s="9" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2487,16 +2508,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>18</v>
@@ -2513,69 +2534,69 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:9">
       <c r="A2" s="9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E2" s="11">
         <v>-3</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="9" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:8">
       <c r="A3" s="9" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E3" s="11">
         <v>-4</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:8">
       <c r="A4" s="9" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E4" s="11">
         <v>1</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -2613,16 +2634,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>18</v>
@@ -2639,115 +2660,115 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D2" s="4">
         <v>0.3</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B3"/>
       <c r="C3" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D3" s="6">
         <v>2000</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B4"/>
       <c r="C4" s="4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D4" s="6">
         <v>0.001</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B6"/>
       <c r="C6" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B7"/>
       <c r="C7" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B8"/>
       <c r="C8" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2787,10 +2808,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>
@@ -2842,28 +2863,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2914,46 +2935,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>18</v>
@@ -3111,25 +3132,25 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2:I3"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="6" width="8.78333333333333" style="4"/>
-    <col min="7" max="7" width="9.375" style="4"/>
-    <col min="8" max="1025" width="8.78333333333333" style="4"/>
-    <col min="1026" max="1028" width="8.78333333333333"/>
+    <col min="1" max="9" width="8.78333333333333" style="4"/>
+    <col min="10" max="10" width="9.375" style="4"/>
+    <col min="11" max="1028" width="8.78333333333333" style="4"/>
+    <col min="1029" max="1031" width="8.78333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:14">
+    <row r="1" ht="15.1" customHeight="1" spans="1:17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3161,94 +3182,118 @@
         <v>43</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:13">
+    <row r="2" ht="15.1" customHeight="1" spans="1:16">
       <c r="A2" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="6">
+        <v>51</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="6">
         <v>4.58e-17</v>
       </c>
-      <c r="G2" s="4">
+      <c r="J2" s="4">
         <v>4.58e-18</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="1:16">
+      <c r="A3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" ht="15.1" customHeight="1" spans="1:13">
-      <c r="A3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="I3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="4">
+      <c r="J3" s="4">
         <v>0</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="K3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="M3" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M3">
+  <autoFilter ref="A1:P3">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3283,19 +3328,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
@@ -3312,13 +3357,13 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -3327,7 +3372,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -3335,13 +3380,13 @@
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E3" s="4">
         <v>2</v>
@@ -3350,7 +3395,7 @@
         <v>-1</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -3358,13 +3403,13 @@
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E4" s="4">
         <v>3</v>
@@ -3373,7 +3418,7 @@
         <v>-2</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
@@ -3381,13 +3426,13 @@
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E5" s="4">
         <v>4</v>
@@ -3396,7 +3441,7 @@
         <v>-5</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -3404,13 +3449,13 @@
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E6" s="4">
         <v>5</v>
@@ -3419,7 +3464,7 @@
         <v>-3</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -3427,13 +3472,13 @@
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E7" s="4">
         <v>6</v>
@@ -3442,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -3484,13 +3529,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -3507,114 +3552,114 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:5">
       <c r="A9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3653,19 +3698,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
@@ -3682,13 +3727,13 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E2" s="14">
         <v>0.000148</v>
@@ -3697,20 +3742,20 @@
         <v>0.0121655250605964</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E3" s="14">
         <v>0.0002</v>
@@ -3719,20 +3764,20 @@
         <v>0.014142135623731</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E4" s="14">
         <v>0.0005</v>
@@ -3741,20 +3786,20 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E5" s="14">
         <v>0.0005</v>
@@ -3763,20 +3808,20 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E6" s="14">
         <v>0.001</v>
@@ -3785,20 +3830,20 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E7" s="14">
         <v>0.002</v>
@@ -3807,7 +3852,7 @@
         <v>0.0447213595499958</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -3845,10 +3890,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>
@@ -3900,10 +3945,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="989" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="989" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="191">
   <si>
     <t>Id</t>
   </si>
@@ -582,7 +582,7 @@
     <t>Flux max</t>
   </si>
   <si>
-    <t>Flux units</t>
+    <t>Flux bound units</t>
   </si>
   <si>
     <t>reaction_1</t>
@@ -670,6 +670,9 @@
   </si>
   <si>
     <t>k_cat_6 * specie_2[c]</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
   </si>
   <si>
     <t>dfba-obj-dfba_submodel</t>
@@ -813,11 +816,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -854,9 +857,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -866,11 +872,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -889,16 +893,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,15 +910,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,14 +939,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -950,18 +968,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -973,22 +984,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1009,19 +1012,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,43 +1066,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,91 +1078,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,13 +1096,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1221,21 +1224,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1261,6 +1249,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1275,28 +1278,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1309,138 +1301,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2005,11 +2008,11 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -2330,14 +2333,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -2345,11 +2348,11 @@
     <col min="1" max="1" width="26.1416666666667" style="4"/>
     <col min="2" max="3" width="9.10833333333333" style="4"/>
     <col min="4" max="4" width="19.3916666666667" style="4"/>
-    <col min="5" max="5" width="11.7833333333333" style="4"/>
-    <col min="6" max="1025" width="9.10833333333333" style="4"/>
+    <col min="5" max="6" width="11.7833333333333" style="4"/>
+    <col min="7" max="1026" width="9.10833333333333" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:9">
+    <row r="1" ht="15.1" customHeight="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2366,30 +2369,36 @@
         <v>88</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:5">
+    <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2435,7 +2444,7 @@
         <v>88</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -2452,10 +2461,10 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:8">
       <c r="A2" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>30</v>
@@ -2467,7 +2476,7 @@
         <v>55</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2508,13 +2517,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>98</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>88</v>
@@ -2534,13 +2543,13 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:9">
       <c r="A2" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>92</v>
@@ -2554,18 +2563,18 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:8">
       <c r="A3" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>93</v>
@@ -2581,13 +2590,13 @@
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:8">
       <c r="A4" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>94</v>
@@ -2637,10 +2646,10 @@
         <v>66</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>88</v>
@@ -2660,10 +2669,10 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>133</v>
@@ -2673,35 +2682,35 @@
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B3"/>
       <c r="C3" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D3" s="6">
         <v>2000</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B4"/>
       <c r="C4" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D4" s="6">
         <v>0.001</v>
@@ -2713,26 +2722,26 @@
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B6"/>
       <c r="C6" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -2743,32 +2752,32 @@
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B7"/>
       <c r="C7" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B8"/>
       <c r="C8" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2863,7 +2872,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>88</v>
@@ -2872,19 +2881,19 @@
         <v>66</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2935,46 +2944,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>66</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>18</v>
@@ -3134,7 +3143,7 @@
   <sheetPr/>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="192">
   <si>
     <t>Id</t>
   </si>
@@ -670,6 +670,9 @@
   </si>
   <si>
     <t>k_cat_6 * specie_2[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
   </si>
   <si>
     <t>Coefficient units</t>
@@ -815,12 +818,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -857,43 +860,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -908,38 +888,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -954,6 +904,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -962,14 +928,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -991,7 +949,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1012,7 +1015,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,13 +1135,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,157 +1189,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1224,11 +1227,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1244,6 +1253,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1278,17 +1296,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1301,149 +1315,138 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1484,10 +1487,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2012,7 +2015,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -2333,14 +2336,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -2348,11 +2351,11 @@
     <col min="1" max="1" width="26.1416666666667" style="4"/>
     <col min="2" max="3" width="9.10833333333333" style="4"/>
     <col min="4" max="4" width="19.3916666666667" style="4"/>
-    <col min="5" max="6" width="11.7833333333333" style="4"/>
-    <col min="7" max="1026" width="9.10833333333333" style="4"/>
+    <col min="5" max="7" width="11.7833333333333" style="4"/>
+    <col min="8" max="1027" width="9.10833333333333" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:10">
+    <row r="1" ht="15.1" customHeight="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2372,32 +2375,38 @@
         <v>145</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:6">
+    <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2444,7 +2453,7 @@
         <v>88</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -2461,10 +2470,10 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:8">
       <c r="A2" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>30</v>
@@ -2476,7 +2485,7 @@
         <v>55</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2517,13 +2526,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>98</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>88</v>
@@ -2543,13 +2552,13 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:9">
       <c r="A2" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>92</v>
@@ -2563,18 +2572,18 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:8">
       <c r="A3" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>93</v>
@@ -2590,13 +2599,13 @@
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:8">
       <c r="A4" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>94</v>
@@ -2646,10 +2655,10 @@
         <v>66</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>88</v>
@@ -2669,10 +2678,10 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>133</v>
@@ -2682,35 +2691,35 @@
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B3"/>
       <c r="C3" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D3" s="6">
         <v>2000</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B4"/>
       <c r="C4" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D4" s="6">
         <v>0.001</v>
@@ -2722,26 +2731,26 @@
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B6"/>
       <c r="C6" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -2752,32 +2761,32 @@
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B7"/>
       <c r="C7" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B8"/>
       <c r="C8" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2872,7 +2881,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>88</v>
@@ -2881,19 +2890,19 @@
         <v>66</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2944,46 +2953,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>66</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>18</v>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="989" activeTab="11"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="989" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -28,51 +28,51 @@
     <sheet name="References" sheetId="18" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$O$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$K$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="199">
   <si>
     <t>Id</t>
   </si>
@@ -357,445 +357,466 @@
     <t>Parent compartment</t>
   </si>
   <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Initial volume distribution</t>
+  </si>
+  <si>
+    <t>Initial volume mean</t>
+  </si>
+  <si>
+    <t>Initial volume standard deviation</t>
+  </si>
+  <si>
+    <t>Initial volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>density_e</t>
+  </si>
+  <si>
+    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>specie_1</t>
+  </si>
+  <si>
+    <t>specie_name_1</t>
+  </si>
+  <si>
+    <t>NaHCO</t>
+  </si>
+  <si>
+    <t>pseudo_species</t>
+  </si>
+  <si>
+    <t>specie_2</t>
+  </si>
+  <si>
+    <t>specie_name_2</t>
+  </si>
+  <si>
+    <t>N2O2P</t>
+  </si>
+  <si>
+    <t>specie_3</t>
+  </si>
+  <si>
+    <t>specie_name_3</t>
+  </si>
+  <si>
+    <t>N4O4P2</t>
+  </si>
+  <si>
+    <t>specie_4</t>
+  </si>
+  <si>
+    <t>specie_name_4</t>
+  </si>
+  <si>
+    <t>N10O10P5</t>
+  </si>
+  <si>
+    <t>specie_5</t>
+  </si>
+  <si>
+    <t>specie_name_5</t>
+  </si>
+  <si>
+    <t>N5O5</t>
+  </si>
+  <si>
+    <t>specie_6</t>
+  </si>
+  <si>
+    <t>specie_name_6</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>specie_1[e]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>specie_2[e]</t>
+  </si>
+  <si>
+    <t>specie_1[c]</t>
+  </si>
+  <si>
+    <t>specie_2[c]</t>
+  </si>
+  <si>
+    <t>specie_3[c]</t>
+  </si>
+  <si>
+    <t>specie_4[c]</t>
+  </si>
+  <si>
+    <t>specie_5[c]</t>
+  </si>
+  <si>
+    <t>specie_6[c]</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_1[e]</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_2[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_2[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_4[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_5[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_6[c]</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>volume_c</t>
+  </si>
+  <si>
+    <t>c / density_c</t>
+  </si>
+  <si>
+    <t>volume_e</t>
+  </si>
+  <si>
+    <t>e / density_e</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Flux min</t>
+  </si>
+  <si>
+    <t>Flux max</t>
+  </si>
+  <si>
+    <t>Flux bound units</t>
+  </si>
+  <si>
+    <t>reaction_1</t>
+  </si>
+  <si>
+    <t>reaction_name_1</t>
+  </si>
+  <si>
+    <t>specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
+  </si>
+  <si>
+    <t>M s^-1</t>
+  </si>
+  <si>
+    <t>reaction_2</t>
+  </si>
+  <si>
+    <t>reaction_name_2</t>
+  </si>
+  <si>
+    <t>[c]: (2) specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t>reaction_3</t>
+  </si>
+  <si>
+    <t>reaction_name_3</t>
+  </si>
+  <si>
+    <t>[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
+  </si>
+  <si>
+    <t>reaction_4</t>
+  </si>
+  <si>
+    <t>reaction_name_4</t>
+  </si>
+  <si>
+    <t>[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>reaction_1-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>k_cat_1 * max( specie_1[e], specie_2[e] )</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>reaction_2-forward</t>
+  </si>
+  <si>
+    <t>k_cat_2 * specie_2[c]</t>
+  </si>
+  <si>
+    <t>reaction_3-forward</t>
+  </si>
+  <si>
+    <t>k_cat_3_for * specie_4[c] / (specie_4[c] + k_m_3  * Avogadro * volume_c)</t>
+  </si>
+  <si>
+    <t>reaction_3-backward</t>
+  </si>
+  <si>
+    <t>backward</t>
+  </si>
+  <si>
+    <t>k_cat_3_rev * (specie_5[c] + specie_6[c])</t>
+  </si>
+  <si>
+    <t>reaction_4-forward</t>
+  </si>
+  <si>
+    <t>k_cat_4 * specie_2[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
+  </si>
+  <si>
+    <t>dfba-obj-dfba_submodel</t>
+  </si>
+  <si>
+    <t>2*Metabolism_net_rxn</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>Cell size units</t>
+  </si>
+  <si>
+    <t>Metabolism_net_rxn</t>
+  </si>
+  <si>
+    <t>Metabolism net reaction</t>
+  </si>
+  <si>
+    <t>No comment</t>
+  </si>
+  <si>
+    <t>dFBA net reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_net_rxn-specie_1[c]</t>
+  </si>
+  <si>
+    <t>dFBA net component 1</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_net_rxn-specie_2[c]</t>
+  </si>
+  <si>
+    <t>dFBA net component 2</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_net_rxn-specie_3[c]</t>
+  </si>
+  <si>
+    <t>dFBA net component 3</t>
+  </si>
+  <si>
+    <t>Standard error</t>
+  </si>
+  <si>
+    <t>fractionDryWeight</t>
+  </si>
+  <si>
+    <t>Fraction of cell mass which is non water</t>
+  </si>
+  <si>
+    <t>[Ref-0006]</t>
+  </si>
+  <si>
+    <t>k_cat_2</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>molecule^-1 s^-1</t>
+  </si>
+  <si>
+    <t>k_m_3</t>
+  </si>
+  <si>
+    <t>K_m</t>
+  </si>
+  <si>
+    <t>k_cat_1</t>
+  </si>
+  <si>
+    <t>k_cat_3_for</t>
+  </si>
+  <si>
+    <t>k_cat_3_rev</t>
+  </si>
+  <si>
+    <t>k_cat_4</t>
+  </si>
+  <si>
+    <t>g l^-1</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule mol^-1</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Genetic variant</t>
+  </si>
+  <si>
+    <t>Temperature (C)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Growth media</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
     <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>extracellular</t>
-  </si>
-  <si>
-    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>specie_1</t>
-  </si>
-  <si>
-    <t>specie_name_1</t>
-  </si>
-  <si>
-    <t>NaHCO</t>
-  </si>
-  <si>
-    <t>pseudo_species</t>
-  </si>
-  <si>
-    <t>specie_2</t>
-  </si>
-  <si>
-    <t>specie_name_2</t>
-  </si>
-  <si>
-    <t>N2O2P</t>
-  </si>
-  <si>
-    <t>specie_3</t>
-  </si>
-  <si>
-    <t>specie_name_3</t>
-  </si>
-  <si>
-    <t>N4O4P2</t>
-  </si>
-  <si>
-    <t>specie_4</t>
-  </si>
-  <si>
-    <t>specie_name_4</t>
-  </si>
-  <si>
-    <t>N10O10P5</t>
-  </si>
-  <si>
-    <t>specie_5</t>
-  </si>
-  <si>
-    <t>specie_name_5</t>
-  </si>
-  <si>
-    <t>N5O5</t>
-  </si>
-  <si>
-    <t>specie_6</t>
-  </si>
-  <si>
-    <t>specie_name_6</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>specie_1[e]</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>specie_2[e]</t>
-  </si>
-  <si>
-    <t>specie_1[c]</t>
-  </si>
-  <si>
-    <t>specie_2[c]</t>
-  </si>
-  <si>
-    <t>specie_3[c]</t>
-  </si>
-  <si>
-    <t>specie_4[c]</t>
-  </si>
-  <si>
-    <t>specie_5[c]</t>
-  </si>
-  <si>
-    <t>specie_6[c]</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_1[e]</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_2[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_2[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_4[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_5[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_6[c]</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Reversible</t>
-  </si>
-  <si>
-    <t>Flux min</t>
-  </si>
-  <si>
-    <t>Flux max</t>
-  </si>
-  <si>
-    <t>Flux bound units</t>
-  </si>
-  <si>
-    <t>reaction_1</t>
-  </si>
-  <si>
-    <t>reaction_name_1</t>
-  </si>
-  <si>
-    <t>specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
-  </si>
-  <si>
-    <t>M s^-1</t>
-  </si>
-  <si>
-    <t>reaction_2</t>
-  </si>
-  <si>
-    <t>reaction_name_2</t>
-  </si>
-  <si>
-    <t>[c]: (2) specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t>reaction_3</t>
-  </si>
-  <si>
-    <t>reaction_name_3</t>
-  </si>
-  <si>
-    <t>[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
-  </si>
-  <si>
-    <t>reaction_4</t>
-  </si>
-  <si>
-    <t>reaction_name_4</t>
-  </si>
-  <si>
-    <t>[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>reaction_1-forward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>k_cat_1 * max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t>s^-1</t>
-  </si>
-  <si>
-    <t>reaction_2-forward</t>
-  </si>
-  <si>
-    <t>k_cat_2 * specie_2[c]</t>
-  </si>
-  <si>
-    <t>reaction_3-forward</t>
-  </si>
-  <si>
-    <t>k_cat_4 * specie_4[c] / k_m_3</t>
-  </si>
-  <si>
-    <t>reaction_3-backward</t>
-  </si>
-  <si>
-    <t>backward</t>
-  </si>
-  <si>
-    <t>k_cat_5 * (specie_5[c] + specie_6[c])</t>
-  </si>
-  <si>
-    <t>reaction_4-forward</t>
-  </si>
-  <si>
-    <t>k_cat_6 * specie_2[c]</t>
-  </si>
-  <si>
-    <t>Reaction rate units</t>
-  </si>
-  <si>
-    <t>Coefficient units</t>
-  </si>
-  <si>
-    <t>dfba-obj-dfba_submodel</t>
-  </si>
-  <si>
-    <t>2*Metabolism_net_rxn</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>Cell size units</t>
-  </si>
-  <si>
-    <t>Metabolism_net_rxn</t>
-  </si>
-  <si>
-    <t>Metabolism net reaction</t>
-  </si>
-  <si>
-    <t>No comment</t>
-  </si>
-  <si>
-    <t>dFBA net reaction</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_net_rxn-specie_1[c]</t>
-  </si>
-  <si>
-    <t>dFBA net component 1</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_net_rxn-specie_2[c]</t>
-  </si>
-  <si>
-    <t>dFBA net component 2</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_net_rxn-specie_3[c]</t>
-  </si>
-  <si>
-    <t>dFBA net component 3</t>
-  </si>
-  <si>
-    <t>Standard error</t>
-  </si>
-  <si>
-    <t>fractionDryWeight</t>
-  </si>
-  <si>
-    <t>Fraction of cell mass which is non water</t>
-  </si>
-  <si>
-    <t>[Ref-0006]</t>
-  </si>
-  <si>
-    <t>k_cat_2</t>
-  </si>
-  <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>molecule^-1 s^-1</t>
-  </si>
-  <si>
-    <t>k_m_3</t>
-  </si>
-  <si>
-    <t>K_m</t>
-  </si>
-  <si>
-    <t>k_cat_1</t>
-  </si>
-  <si>
-    <t>k_cat_4</t>
-  </si>
-  <si>
-    <t>k_cat_5</t>
-  </si>
-  <si>
-    <t>k_cat_6</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Genetic variant</t>
-  </si>
-  <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>Growth media</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Editor</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Publication</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Series</t>
   </si>
   <si>
     <t>Number</t>
@@ -818,12 +839,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -865,18 +886,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -890,21 +904,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -926,6 +925,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -935,14 +941,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -963,23 +998,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -993,8 +1013,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1015,13 +1036,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,7 +1084,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,157 +1204,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,15 +1239,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1238,6 +1250,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1262,6 +1283,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1306,144 +1336,135 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1451,7 +1472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1468,11 +1489,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
@@ -1484,13 +1508,19 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2034,22 +2064,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>18</v>
@@ -2066,16 +2096,16 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -2087,22 +2117,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L2" s="13"/>
+        <v>122</v>
+      </c>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:12">
       <c r="A3" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -2114,22 +2144,22 @@
         <v>2</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L3" s="13"/>
+        <v>122</v>
+      </c>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -2137,16 +2167,16 @@
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>128</v>
+      <c r="D5" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -2172,13 +2202,25 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1023" width="8.78333333333333" style="4"/>
-    <col min="1024" max="1025" width="8.78333333333333"/>
+    <col min="1" max="1" width="17.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="4.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="57.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="5.25" style="4" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="4" customWidth="1"/>
+    <col min="12" max="1023" width="8.78333333333333" style="4"/>
+    <col min="1024" max="1025" width="8.78333333333333" style="13"/>
+    <col min="1026" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:11">
@@ -2189,19 +2231,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
@@ -2218,113 +2260,113 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
+        <v>138</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:10">
       <c r="A3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>133</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3"/>
+        <v>138</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:10">
       <c r="A4" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>133</v>
+        <v>144</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="I5"/>
-      <c r="J5"/>
+        <v>138</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6"/>
+        <v>138</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2338,7 +2380,7 @@
   <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2363,19 +2405,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
@@ -2392,19 +2434,19 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>17</v>
@@ -2435,25 +2477,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="9" width="8.78333333333333" style="9"/>
+    <col min="1" max="9" width="8.78333333333333" style="10"/>
     <col min="10" max="1025" width="8.78333333333333" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>150</v>
+      <c r="C1" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -2461,31 +2503,31 @@
       <c r="G1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:8">
-      <c r="A2" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>153</v>
+      <c r="D2" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2510,32 +2552,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="2" width="8.78333333333333" style="9"/>
-    <col min="3" max="3" width="20.35" style="9"/>
-    <col min="4" max="9" width="8.78333333333333" style="9"/>
-    <col min="10" max="10" width="10.3916666666667" style="9"/>
+    <col min="1" max="2" width="8.78333333333333" style="10"/>
+    <col min="3" max="3" width="20.35" style="10"/>
+    <col min="4" max="9" width="8.78333333333333" style="10"/>
+    <col min="10" max="10" width="10.3916666666667" style="10"/>
     <col min="11" max="1023" width="8.78333333333333" style="4"/>
-    <col min="1024" max="1025" width="8.78333333333333" style="8"/>
+    <col min="1024" max="1025" width="8.78333333333333" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="15.1" customHeight="1" spans="1:10">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="9" customFormat="1" ht="15.1" customHeight="1" spans="1:10">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>88</v>
+      <c r="C1" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>18</v>
@@ -2543,78 +2585,78 @@
       <c r="H1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A2" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>151</v>
+      <c r="A2" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="11">
+        <v>91</v>
+      </c>
+      <c r="E2" s="12">
         <v>-3</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>119</v>
+      <c r="F2" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="9" t="s">
-        <v>158</v>
+      <c r="I2" s="10" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:8">
-      <c r="A3" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>151</v>
+      <c r="A3" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="11">
+        <v>92</v>
+      </c>
+      <c r="E3" s="12">
         <v>-4</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>119</v>
+      <c r="F3" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:8">
-      <c r="A4" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>151</v>
+      <c r="A4" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="11">
+        <v>93</v>
+      </c>
+      <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>119</v>
+      <c r="F4" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -2629,22 +2671,26 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="4"/>
+    <col min="1" max="1" width="15.25" style="4" customWidth="1"/>
+    <col min="2" max="3" width="8.78333333333333" style="4"/>
+    <col min="4" max="4" width="9.25" style="4"/>
+    <col min="5" max="1025" width="8.78333333333333" style="4"/>
+    <col min="1026" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:10">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2652,16 +2698,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>18</v>
@@ -2676,117 +2722,159 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:9">
+    <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D2" s="4">
         <v>0.3</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" ht="15.1" customHeight="1" spans="1:6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3"/>
+        <v>170</v>
+      </c>
+      <c r="B3" s="6"/>
       <c r="C3" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" s="6">
+        <v>171</v>
+      </c>
+      <c r="D3" s="7">
         <v>2000</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" ht="15.1" customHeight="1" spans="1:6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4"/>
+        <v>173</v>
+      </c>
+      <c r="B4" s="6"/>
       <c r="C4" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.001</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.001</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5"/>
-      <c r="C5" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" ht="15.1" customHeight="1" spans="1:6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6"/>
+        <v>176</v>
+      </c>
+      <c r="B6" s="6"/>
       <c r="C6" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" ht="15.1" customHeight="1" spans="1:6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7"/>
+        <v>177</v>
+      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" ht="15.1" customHeight="1" spans="1:6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8"/>
+        <v>178</v>
+      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1100</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1100</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="7">
+        <v>6.02214075862e+23</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2826,10 +2914,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>
@@ -2881,28 +2969,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2953,46 +3041,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>18</v>
@@ -3150,25 +3238,25 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="9" width="8.78333333333333" style="4"/>
     <col min="10" max="10" width="9.375" style="4"/>
-    <col min="11" max="1028" width="8.78333333333333" style="4"/>
-    <col min="1029" max="1031" width="8.78333333333333"/>
+    <col min="11" max="1027" width="8.78333333333333" style="4"/>
+    <col min="1028" max="1030" width="8.78333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:17">
+    <row r="1" ht="15.1" customHeight="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3206,88 +3294,82 @@
         <v>45</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="1:15">
+      <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:16">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="6">
+      <c r="I2" s="7">
         <v>4.58e-17</v>
       </c>
       <c r="J2" s="4">
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="4" t="s">
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="1:15">
+      <c r="A3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" ht="15.1" customHeight="1" spans="1:16">
-      <c r="A3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="I3" s="4">
         <v>1</v>
@@ -3296,22 +3378,19 @@
         <v>0</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P3">
+  <autoFilter ref="A1:O3">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3346,19 +3425,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
@@ -3375,13 +3454,13 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -3389,22 +3468,22 @@
       <c r="F2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="G2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:10">
       <c r="A3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="E3" s="4">
         <v>2</v>
@@ -3412,22 +3491,22 @@
       <c r="F3" s="4">
         <v>-1</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="G3" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:10">
       <c r="A4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="E4" s="4">
         <v>3</v>
@@ -3435,22 +3514,22 @@
       <c r="F4" s="4">
         <v>-2</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="G4" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:10">
       <c r="A5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="E5" s="4">
         <v>4</v>
@@ -3458,22 +3537,22 @@
       <c r="F5" s="4">
         <v>-5</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="G5" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:10">
       <c r="A6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="E6" s="4">
         <v>5</v>
@@ -3481,22 +3560,22 @@
       <c r="F6" s="4">
         <v>-3</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="G6" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:9">
       <c r="A7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="E7" s="4">
         <v>6</v>
@@ -3504,11 +3583,11 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="G7" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K7">
@@ -3547,13 +3626,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -3570,114 +3649,114 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3716,19 +3795,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
@@ -3745,135 +3824,135 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0.000148</v>
+      </c>
+      <c r="F2" s="17">
+        <v>0.0121655250605964</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="14">
-        <v>0.000148</v>
-      </c>
-      <c r="F2" s="14">
-        <v>0.0121655250605964</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="14">
+        <v>53</v>
+      </c>
+      <c r="E3" s="17">
         <v>0.0002</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="17">
         <v>0.014142135623731</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="G3" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="14">
+        <v>53</v>
+      </c>
+      <c r="E4" s="17">
         <v>0.0005</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="17">
         <v>0.0223606797749979</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="G4" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="14">
+        <v>53</v>
+      </c>
+      <c r="E5" s="17">
         <v>0.0005</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="17">
         <v>0.0223606797749979</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="G5" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="14">
+        <v>53</v>
+      </c>
+      <c r="E6" s="17">
         <v>0.001</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="17">
         <v>0.0316227766016838</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="G6" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="14">
+        <v>53</v>
+      </c>
+      <c r="E7" s="17">
         <v>0.002</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="17">
         <v>0.0447213595499958</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="G7" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3908,10 +3987,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>
@@ -3939,23 +4018,32 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1023" width="8.78333333333333" style="4"/>
-    <col min="1024" max="1025" width="8.78333333333333"/>
+    <col min="1" max="1" width="8.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11" style="4" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="4" customWidth="1"/>
+    <col min="9" max="1023" width="8.78333333333333" style="4"/>
+    <col min="1024" max="1025" width="8.78333333333333" style="16"/>
+    <col min="1026" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3963,10 +4051,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>
@@ -3979,6 +4067,30 @@
       </c>
       <c r="H1" s="3" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="989" activeTab="14"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="989" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$O$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$K$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="200">
   <si>
     <t>Id</t>
   </si>
@@ -585,6 +585,9 @@
     <t>Reversible</t>
   </si>
   <si>
+    <t>Rate units</t>
+  </si>
+  <si>
     <t>Flux min</t>
   </si>
   <si>
@@ -603,6 +606,9 @@
     <t>specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
   </si>
   <si>
+    <t>s^-1</t>
+  </si>
+  <si>
     <t>M s^-1</t>
   </si>
   <si>
@@ -649,9 +655,6 @@
   </si>
   <si>
     <t>k_cat_1 * max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t>s^-1</t>
   </si>
   <si>
     <t>reaction_2-forward</t>
@@ -840,11 +843,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -888,6 +891,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -902,29 +913,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -932,16 +921,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -956,7 +937,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -970,7 +951,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -991,6 +994,21 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -998,24 +1016,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1042,42 +1045,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1090,13 +1057,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,19 +1111,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,7 +1183,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1156,67 +1219,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,24 +1259,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1312,6 +1311,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1325,146 +1339,135 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1472,7 +1475,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1493,9 +1496,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2038,14 +2038,14 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -2053,10 +2053,10 @@
     <col min="1" max="1" width="8.78333333333333" style="4"/>
     <col min="2" max="3" width="13.3916666666667" style="4"/>
     <col min="4" max="4" width="49.8083333333333" style="4"/>
-    <col min="5" max="1025" width="8.78333333333333" style="4"/>
+    <col min="5" max="1026" width="8.78333333333333" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:12">
+    <row r="1" ht="15.1" customHeight="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2082,104 +2082,119 @@
         <v>118</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:12">
+    <row r="2" ht="15.1" customHeight="1" spans="1:13">
       <c r="A2" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L2" s="15"/>
-    </row>
-    <row r="3" ht="15.1" customHeight="1" spans="1:12">
+      <c r="I2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="1:13">
       <c r="A3" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="4">
         <v>-1</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>2</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L3" s="15"/>
-    </row>
-    <row r="4" ht="15.1" customHeight="1" spans="1:5">
+      <c r="I3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" ht="15.1" customHeight="1" spans="1:5">
+      <c r="F4" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>131</v>
+      <c r="D5" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2219,8 +2234,8 @@
     <col min="10" max="10" width="10.125" style="4" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="4" customWidth="1"/>
     <col min="12" max="1023" width="8.78333333333333" style="4"/>
-    <col min="1024" max="1025" width="8.78333333333333" style="13"/>
-    <col min="1026" max="16384" width="9" style="13"/>
+    <col min="1024" max="1025" width="8.78333333333333" style="12"/>
+    <col min="1026" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:11">
@@ -2231,10 +2246,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>65</v>
@@ -2260,113 +2275,113 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+        <v>123</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+        <v>123</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>136</v>
+        <v>145</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+        <v>123</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+        <v>123</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2414,10 +2429,10 @@
         <v>87</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
@@ -2434,19 +2449,19 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>17</v>
@@ -2477,25 +2492,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="9" width="8.78333333333333" style="10"/>
+    <col min="1" max="9" width="8.78333333333333" style="9"/>
     <col min="10" max="1025" width="8.78333333333333" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>153</v>
+      <c r="E1" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -2503,31 +2518,31 @@
       <c r="G1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:8">
-      <c r="A2" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>156</v>
+      <c r="H2" s="9" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2552,31 +2567,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="2" width="8.78333333333333" style="10"/>
-    <col min="3" max="3" width="20.35" style="10"/>
-    <col min="4" max="9" width="8.78333333333333" style="10"/>
-    <col min="10" max="10" width="10.3916666666667" style="10"/>
+    <col min="1" max="2" width="8.78333333333333" style="9"/>
+    <col min="3" max="3" width="20.35" style="9"/>
+    <col min="4" max="9" width="8.78333333333333" style="9"/>
+    <col min="10" max="10" width="10.3916666666667" style="9"/>
     <col min="11" max="1023" width="8.78333333333333" style="4"/>
-    <col min="1024" max="1025" width="8.78333333333333" style="9"/>
+    <col min="1024" max="1025" width="8.78333333333333" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="15.1" customHeight="1" spans="1:10">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="8" customFormat="1" ht="15.1" customHeight="1" spans="1:10">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>87</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -2585,78 +2600,78 @@
       <c r="H1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A2" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>154</v>
+      <c r="B2" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>-3</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>122</v>
+      <c r="F2" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="10" t="s">
-        <v>161</v>
+      <c r="I2" s="9" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:8">
-      <c r="A3" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>154</v>
+      <c r="B3" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>-4</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>122</v>
+      <c r="F3" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:8">
-      <c r="A4" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>154</v>
+      <c r="B4" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>122</v>
+      <c r="F4" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -2673,7 +2688,7 @@
   <sheetPr/>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2701,10 +2716,10 @@
         <v>65</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>87</v>
@@ -2724,48 +2739,48 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D2" s="4">
         <v>0.3</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D3" s="7">
         <v>2000</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D4" s="7">
         <v>0.001</v>
@@ -2777,62 +2792,62 @@
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
@@ -2840,13 +2855,13 @@
         <v>55</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D9" s="4">
         <v>1100</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
@@ -2854,31 +2869,31 @@
         <v>59</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D10" s="4">
         <v>1100</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D11" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F8">
+  <autoFilter ref="A1:F11">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2969,7 +2984,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>87</v>
@@ -2978,19 +2993,19 @@
         <v>65</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -3041,46 +3056,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>18</v>
@@ -3468,12 +3483,12 @@
       <c r="F2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:10">
       <c r="A3" s="4" t="s">
@@ -3491,12 +3506,12 @@
       <c r="F3" s="4">
         <v>-1</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:10">
       <c r="A4" s="4" t="s">
@@ -3514,12 +3529,12 @@
       <c r="F4" s="4">
         <v>-2</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:10">
       <c r="A5" s="4" t="s">
@@ -3537,12 +3552,12 @@
       <c r="F5" s="4">
         <v>-5</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:10">
       <c r="A6" s="4" t="s">
@@ -3560,12 +3575,12 @@
       <c r="F6" s="4">
         <v>-3</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:9">
       <c r="A7" s="4" t="s">
@@ -3583,11 +3598,11 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K7">
@@ -3832,17 +3847,17 @@
       <c r="D2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>0.000148</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <v>0.0121655250605964</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:9">
       <c r="A3" s="4" t="s">
@@ -3854,17 +3869,17 @@
       <c r="D3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>0.0002</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>0.014142135623731</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:9">
       <c r="A4" s="4" t="s">
@@ -3876,17 +3891,17 @@
       <c r="D4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>0.0005</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>0.0223606797749979</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:9">
       <c r="A5" s="4" t="s">
@@ -3898,17 +3913,17 @@
       <c r="D5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>0.0005</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>0.0223606797749979</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:9">
       <c r="A6" s="4" t="s">
@@ -3920,17 +3935,17 @@
       <c r="D6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>0.001</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>0.0316227766016838</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:9">
       <c r="A7" s="4" t="s">
@@ -3942,17 +3957,17 @@
       <c r="D7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>0.002</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>0.0447213595499958</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4039,8 +4054,8 @@
     <col min="7" max="7" width="10.125" style="4" customWidth="1"/>
     <col min="8" max="8" width="10.5" style="4" customWidth="1"/>
     <col min="9" max="1023" width="8.78333333333333" style="4"/>
-    <col min="1024" max="1025" width="8.78333333333333" style="16"/>
-    <col min="1026" max="16384" width="9" style="16"/>
+    <col min="1024" max="1025" width="8.78333333333333" style="15"/>
+    <col min="1026" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,237 +5,238 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="989" activeTab="9"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="989" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
     <sheet name="Taxon" sheetId="2" r:id="rId2"/>
-    <sheet name="Submodels" sheetId="3" r:id="rId3"/>
-    <sheet name="Compartments" sheetId="4" r:id="rId4"/>
-    <sheet name="Species types" sheetId="5" r:id="rId5"/>
-    <sheet name="Species" sheetId="6" r:id="rId6"/>
-    <sheet name="Initial species concentrations" sheetId="7" r:id="rId7"/>
-    <sheet name="Observables" sheetId="8" r:id="rId8"/>
-    <sheet name="Functions" sheetId="9" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="10" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="11" r:id="rId11"/>
-    <sheet name="dFBA objectives" sheetId="12" r:id="rId12"/>
-    <sheet name="dFBA net reactions" sheetId="13" r:id="rId13"/>
-    <sheet name="dFBA net species" sheetId="14" r:id="rId14"/>
-    <sheet name="Parameters" sheetId="15" r:id="rId15"/>
-    <sheet name="Stop conditions" sheetId="16" r:id="rId16"/>
-    <sheet name="Evidence" sheetId="17" r:id="rId17"/>
-    <sheet name="References" sheetId="18" r:id="rId18"/>
+    <sheet name="Environment" sheetId="19" r:id="rId3"/>
+    <sheet name="Submodels" sheetId="3" r:id="rId4"/>
+    <sheet name="Compartments" sheetId="4" r:id="rId5"/>
+    <sheet name="Species types" sheetId="5" r:id="rId6"/>
+    <sheet name="Species" sheetId="6" r:id="rId7"/>
+    <sheet name="Initial species concentrations" sheetId="7" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
+    <sheet name="dFBA objectives" sheetId="12" r:id="rId13"/>
+    <sheet name="dFBA net reactions" sheetId="13" r:id="rId14"/>
+    <sheet name="dFBA net species" sheetId="14" r:id="rId15"/>
+    <sheet name="Parameters" sheetId="15" r:id="rId16"/>
+    <sheet name="Stop conditions" sheetId="16" r:id="rId17"/>
+    <sheet name="Evidence" sheetId="17" r:id="rId18"/>
+    <sheet name="References" sheetId="18" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$K$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$K$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3">Submodels!#REF!</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="204">
   <si>
     <t>Id</t>
   </si>
@@ -303,7 +304,7 @@
     <t>Updated</t>
   </si>
   <si>
-    <t>ASP_test</t>
+    <t>taxon</t>
   </si>
   <si>
     <t>Test model for TestExecutableModel</t>
@@ -321,6 +322,21 @@
     <t>References</t>
   </si>
   <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature units</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -793,9 +809,6 @@
   </si>
   <si>
     <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
   </si>
   <si>
     <t>Growth media</t>
@@ -842,12 +855,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -891,31 +904,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -928,8 +917,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -944,9 +940,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -957,10 +961,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -972,37 +985,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1016,9 +1008,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1051,7 +1064,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,7 +1076,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,91 +1202,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,43 +1214,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,6 +1227,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,53 +1272,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1325,6 +1294,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1339,135 +1337,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1475,7 +1488,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1514,13 +1527,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2038,9 +2057,97 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="8.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11" style="4" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="4" customWidth="1"/>
+    <col min="9" max="1023" width="8.78333333333333" style="4"/>
+    <col min="1024" max="1025" width="8.78333333333333" style="15"/>
+    <col min="1026" max="16384" width="9" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2064,31 +2171,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>19</v>
@@ -2099,22 +2206,22 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:13">
       <c r="A2" s="4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G2" s="4">
         <v>0</v>
@@ -2123,28 +2230,28 @@
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M2" s="14"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:13">
       <c r="A3" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G3" s="4">
         <v>-1</v>
@@ -2153,48 +2260,48 @@
         <v>2</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M3" s="14"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2207,7 +2314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K6"/>
@@ -2246,25 +2353,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>19</v>
@@ -2275,110 +2382,110 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:10">
       <c r="A4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
@@ -2390,7 +2497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K2"/>
@@ -2420,25 +2527,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>19</v>
@@ -2449,19 +2556,19 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>17</v>
@@ -2477,7 +2584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I2"/>
@@ -2504,19 +2611,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>19</v>
@@ -2527,22 +2634,22 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:8">
       <c r="A2" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2552,7 +2659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J4"/>
@@ -2583,22 +2690,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>19</v>
@@ -2609,69 +2716,69 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:9">
       <c r="A2" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>155</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E2" s="11">
         <v>-3</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="9" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:8">
       <c r="A3" s="9" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E3" s="11">
         <v>-4</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:8">
       <c r="A4" s="9" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E4" s="11">
         <v>1</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -2683,7 +2790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J11"/>
@@ -2713,22 +2820,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>19</v>
@@ -2739,157 +2846,157 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D2" s="4">
         <v>0.3</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D3" s="7">
         <v>2000</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D4" s="7">
         <v>0.001</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D9" s="4">
         <v>1100</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D10" s="4">
         <v>1100</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D11" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2902,7 +3009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -2929,16 +3036,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>19</v>
@@ -2957,7 +3064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N1"/>
@@ -2984,34 +3091,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>19</v>
@@ -3030,7 +3137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R1"/>
@@ -3056,46 +3163,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>18</v>
@@ -3119,18 +3226,19 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D13" sqref="D13"/>
+      <selection pane="topRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1025" width="8.78333333333333" style="4"/>
+    <col min="1026" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:2">
+    <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3138,7 +3246,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:2">
+    <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3146,7 +3254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" ht="15.1" customHeight="1" spans="1:2">
+    <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -3154,13 +3262,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" ht="15.1" customHeight="1" spans="1:2">
+    <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4"/>
-    </row>
-    <row r="5" ht="15.1" customHeight="1" spans="1:2">
+      <c r="B4" s="18"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -3168,7 +3276,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" ht="15.1" customHeight="1" spans="1:1">
+    <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -3181,6 +3289,84 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="F6" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="4" customWidth="1"/>
+    <col min="3" max="1018" width="8.78333333333333" style="4"/>
+    <col min="1019" max="1019" width="8.78333333333333" style="17"/>
+    <col min="1020" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.1" customHeight="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" ht="15.1" customHeight="1" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" ht="15.1" customHeight="1" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="4">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="6" ht="15.1" customHeight="1" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" ht="15.1" customHeight="1" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="15.1" customHeight="1" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G3"/>
@@ -3206,13 +3392,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>19</v>
@@ -3223,24 +3409,24 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3250,7 +3436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P3"/>
@@ -3279,40 +3465,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>19</v>
@@ -3323,28 +3509,28 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:15">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I2" s="7">
         <v>4.58e-17</v>
@@ -3353,38 +3539,38 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:15">
       <c r="A3" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="I3" s="4">
         <v>1</v>
@@ -3393,15 +3579,15 @@
         <v>0</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3414,7 +3600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K7"/>
@@ -3440,25 +3626,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>19</v>
@@ -3469,13 +3655,13 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -3484,7 +3670,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
@@ -3492,13 +3678,13 @@
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E3" s="4">
         <v>2</v>
@@ -3507,7 +3693,7 @@
         <v>-1</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
@@ -3515,13 +3701,13 @@
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E4" s="4">
         <v>3</v>
@@ -3530,7 +3716,7 @@
         <v>-2</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -3538,13 +3724,13 @@
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E5" s="4">
         <v>4</v>
@@ -3553,7 +3739,7 @@
         <v>-5</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
@@ -3561,13 +3747,13 @@
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E6" s="4">
         <v>5</v>
@@ -3576,7 +3762,7 @@
         <v>-3</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
@@ -3584,13 +3770,13 @@
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E7" s="4">
         <v>6</v>
@@ -3599,7 +3785,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
@@ -3614,7 +3800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I9"/>
@@ -3641,19 +3827,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>19</v>
@@ -3664,114 +3850,114 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:5">
       <c r="A7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3784,7 +3970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K7"/>
@@ -3810,25 +3996,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>19</v>
@@ -3839,13 +4025,13 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E2" s="16">
         <v>0.000148</v>
@@ -3854,20 +4040,20 @@
         <v>0.0121655250605964</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E3" s="16">
         <v>0.0002</v>
@@ -3876,20 +4062,20 @@
         <v>0.014142135623731</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E4" s="16">
         <v>0.0005</v>
@@ -3898,20 +4084,20 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E5" s="16">
         <v>0.0005</v>
@@ -3920,20 +4106,20 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E6" s="16">
         <v>0.001</v>
@@ -3942,20 +4128,20 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E7" s="16">
         <v>0.002</v>
@@ -3964,7 +4150,7 @@
         <v>0.0447213595499958</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
@@ -3976,7 +4162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -4002,110 +4188,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="8.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11" style="4" customWidth="1"/>
-    <col min="4" max="4" width="5.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="4" customWidth="1"/>
-    <col min="9" max="1023" width="8.78333333333333" style="4"/>
-    <col min="1024" max="1025" width="8.78333333333333" style="15"/>
-    <col min="1026" max="16384" width="9" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="989" activeTab="1"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="989" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="Reactions" sheetId="10" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
     <sheet name="dFBA objectives" sheetId="12" r:id="rId13"/>
-    <sheet name="dFBA net reactions" sheetId="13" r:id="rId14"/>
-    <sheet name="dFBA net species" sheetId="14" r:id="rId15"/>
+    <sheet name="dFBA objective reactions" sheetId="13" r:id="rId14"/>
+    <sheet name="dFBA objective species" sheetId="14" r:id="rId15"/>
     <sheet name="Parameters" sheetId="15" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="16" r:id="rId17"/>
     <sheet name="Evidence" sheetId="17" r:id="rId18"/>
@@ -727,7 +727,7 @@
     <t>No comment</t>
   </si>
   <si>
-    <t>dFBA net reaction</t>
+    <t>dFBA objective reaction</t>
   </si>
   <si>
     <t>Value</t>
@@ -855,12 +855,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -897,14 +897,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -918,36 +920,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -970,15 +950,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -987,14 +959,34 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1008,6 +1000,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1016,22 +1024,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1052,19 +1052,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,7 +1076,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,7 +1106,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,37 +1124,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,6 +1148,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1166,73 +1232,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,26 +1255,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1294,31 +1279,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1338,157 +1324,171 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1527,20 +1527,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2664,12 +2661,12 @@
   <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -3226,7 +3223,7 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
@@ -3235,7 +3232,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1025" width="8.78333333333333" style="4"/>
-    <col min="1026" max="16384" width="9" style="18"/>
+    <col min="1026" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -3266,7 +3263,7 @@
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="3" t="s">

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="989" firstSheet="5" activeTab="14"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="205">
   <si>
     <t>Id</t>
   </si>
@@ -337,6 +337,12 @@
     <t>pH</t>
   </si>
   <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -710,9 +716,6 @@
   </si>
   <si>
     <t>2*Metabolism_net_rxn</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
   </si>
   <si>
     <t>Cell size units</t>
@@ -857,9 +860,9 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
@@ -889,19 +892,24 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -919,6 +927,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -926,18 +942,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -949,52 +972,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1009,10 +989,25 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1031,9 +1026,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1058,7 +1061,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,91 +1205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1166,55 +1217,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,12 +1236,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,11 +1258,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1294,17 +1303,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1320,17 +1334,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1355,136 +1358,136 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2087,16 +2090,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>19</v>
@@ -2107,26 +2110,26 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2168,31 +2171,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>19</v>
@@ -2203,22 +2206,22 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:13">
       <c r="A2" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G2" s="4">
         <v>0</v>
@@ -2227,28 +2230,28 @@
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M2" s="14"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:13">
       <c r="A3" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G3" s="4">
         <v>-1</v>
@@ -2257,48 +2260,48 @@
         <v>2</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M3" s="14"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2350,25 +2353,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>19</v>
@@ -2379,110 +2382,110 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:10">
       <c r="A3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
@@ -2524,25 +2527,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>19</v>
@@ -2553,19 +2556,19 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>17</v>
@@ -2608,19 +2611,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>19</v>
@@ -2631,22 +2634,22 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:8">
       <c r="A2" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2661,7 +2664,7 @@
   <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2687,22 +2690,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>19</v>
@@ -2713,69 +2716,69 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:9">
       <c r="A2" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E2" s="11">
         <v>-3</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:8">
       <c r="A3" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E3" s="11">
         <v>-4</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:8">
       <c r="A4" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E4" s="11">
         <v>1</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -2817,22 +2820,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>19</v>
@@ -2843,157 +2846,157 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D2" s="4">
         <v>0.3</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="4" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D3" s="7">
         <v>2000</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D4" s="7">
         <v>0.001</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D9" s="4">
         <v>1100</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D10" s="4">
         <v>1100</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D11" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3033,16 +3036,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>19</v>
@@ -3088,34 +3091,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>19</v>
@@ -3160,46 +3163,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>18</v>
@@ -3288,15 +3291,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:AMD9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F6" sqref="$A1:$XFD1048576"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="4" customWidth="1"/>
@@ -3342,18 +3345,1042 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="6" ht="15.1" customHeight="1" spans="1:1">
+    <row r="6" s="17" customFormat="1" ht="15" customHeight="1" spans="1:1018">
       <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
+      <c r="BE6" s="4"/>
+      <c r="BF6" s="4"/>
+      <c r="BG6" s="4"/>
+      <c r="BH6" s="4"/>
+      <c r="BI6" s="4"/>
+      <c r="BJ6" s="4"/>
+      <c r="BK6" s="4"/>
+      <c r="BL6" s="4"/>
+      <c r="BM6" s="4"/>
+      <c r="BN6" s="4"/>
+      <c r="BO6" s="4"/>
+      <c r="BP6" s="4"/>
+      <c r="BQ6" s="4"/>
+      <c r="BR6" s="4"/>
+      <c r="BS6" s="4"/>
+      <c r="BT6" s="4"/>
+      <c r="BU6" s="4"/>
+      <c r="BV6" s="4"/>
+      <c r="BW6" s="4"/>
+      <c r="BX6" s="4"/>
+      <c r="BY6" s="4"/>
+      <c r="BZ6" s="4"/>
+      <c r="CA6" s="4"/>
+      <c r="CB6" s="4"/>
+      <c r="CC6" s="4"/>
+      <c r="CD6" s="4"/>
+      <c r="CE6" s="4"/>
+      <c r="CF6" s="4"/>
+      <c r="CG6" s="4"/>
+      <c r="CH6" s="4"/>
+      <c r="CI6" s="4"/>
+      <c r="CJ6" s="4"/>
+      <c r="CK6" s="4"/>
+      <c r="CL6" s="4"/>
+      <c r="CM6" s="4"/>
+      <c r="CN6" s="4"/>
+      <c r="CO6" s="4"/>
+      <c r="CP6" s="4"/>
+      <c r="CQ6" s="4"/>
+      <c r="CR6" s="4"/>
+      <c r="CS6" s="4"/>
+      <c r="CT6" s="4"/>
+      <c r="CU6" s="4"/>
+      <c r="CV6" s="4"/>
+      <c r="CW6" s="4"/>
+      <c r="CX6" s="4"/>
+      <c r="CY6" s="4"/>
+      <c r="CZ6" s="4"/>
+      <c r="DA6" s="4"/>
+      <c r="DB6" s="4"/>
+      <c r="DC6" s="4"/>
+      <c r="DD6" s="4"/>
+      <c r="DE6" s="4"/>
+      <c r="DF6" s="4"/>
+      <c r="DG6" s="4"/>
+      <c r="DH6" s="4"/>
+      <c r="DI6" s="4"/>
+      <c r="DJ6" s="4"/>
+      <c r="DK6" s="4"/>
+      <c r="DL6" s="4"/>
+      <c r="DM6" s="4"/>
+      <c r="DN6" s="4"/>
+      <c r="DO6" s="4"/>
+      <c r="DP6" s="4"/>
+      <c r="DQ6" s="4"/>
+      <c r="DR6" s="4"/>
+      <c r="DS6" s="4"/>
+      <c r="DT6" s="4"/>
+      <c r="DU6" s="4"/>
+      <c r="DV6" s="4"/>
+      <c r="DW6" s="4"/>
+      <c r="DX6" s="4"/>
+      <c r="DY6" s="4"/>
+      <c r="DZ6" s="4"/>
+      <c r="EA6" s="4"/>
+      <c r="EB6" s="4"/>
+      <c r="EC6" s="4"/>
+      <c r="ED6" s="4"/>
+      <c r="EE6" s="4"/>
+      <c r="EF6" s="4"/>
+      <c r="EG6" s="4"/>
+      <c r="EH6" s="4"/>
+      <c r="EI6" s="4"/>
+      <c r="EJ6" s="4"/>
+      <c r="EK6" s="4"/>
+      <c r="EL6" s="4"/>
+      <c r="EM6" s="4"/>
+      <c r="EN6" s="4"/>
+      <c r="EO6" s="4"/>
+      <c r="EP6" s="4"/>
+      <c r="EQ6" s="4"/>
+      <c r="ER6" s="4"/>
+      <c r="ES6" s="4"/>
+      <c r="ET6" s="4"/>
+      <c r="EU6" s="4"/>
+      <c r="EV6" s="4"/>
+      <c r="EW6" s="4"/>
+      <c r="EX6" s="4"/>
+      <c r="EY6" s="4"/>
+      <c r="EZ6" s="4"/>
+      <c r="FA6" s="4"/>
+      <c r="FB6" s="4"/>
+      <c r="FC6" s="4"/>
+      <c r="FD6" s="4"/>
+      <c r="FE6" s="4"/>
+      <c r="FF6" s="4"/>
+      <c r="FG6" s="4"/>
+      <c r="FH6" s="4"/>
+      <c r="FI6" s="4"/>
+      <c r="FJ6" s="4"/>
+      <c r="FK6" s="4"/>
+      <c r="FL6" s="4"/>
+      <c r="FM6" s="4"/>
+      <c r="FN6" s="4"/>
+      <c r="FO6" s="4"/>
+      <c r="FP6" s="4"/>
+      <c r="FQ6" s="4"/>
+      <c r="FR6" s="4"/>
+      <c r="FS6" s="4"/>
+      <c r="FT6" s="4"/>
+      <c r="FU6" s="4"/>
+      <c r="FV6" s="4"/>
+      <c r="FW6" s="4"/>
+      <c r="FX6" s="4"/>
+      <c r="FY6" s="4"/>
+      <c r="FZ6" s="4"/>
+      <c r="GA6" s="4"/>
+      <c r="GB6" s="4"/>
+      <c r="GC6" s="4"/>
+      <c r="GD6" s="4"/>
+      <c r="GE6" s="4"/>
+      <c r="GF6" s="4"/>
+      <c r="GG6" s="4"/>
+      <c r="GH6" s="4"/>
+      <c r="GI6" s="4"/>
+      <c r="GJ6" s="4"/>
+      <c r="GK6" s="4"/>
+      <c r="GL6" s="4"/>
+      <c r="GM6" s="4"/>
+      <c r="GN6" s="4"/>
+      <c r="GO6" s="4"/>
+      <c r="GP6" s="4"/>
+      <c r="GQ6" s="4"/>
+      <c r="GR6" s="4"/>
+      <c r="GS6" s="4"/>
+      <c r="GT6" s="4"/>
+      <c r="GU6" s="4"/>
+      <c r="GV6" s="4"/>
+      <c r="GW6" s="4"/>
+      <c r="GX6" s="4"/>
+      <c r="GY6" s="4"/>
+      <c r="GZ6" s="4"/>
+      <c r="HA6" s="4"/>
+      <c r="HB6" s="4"/>
+      <c r="HC6" s="4"/>
+      <c r="HD6" s="4"/>
+      <c r="HE6" s="4"/>
+      <c r="HF6" s="4"/>
+      <c r="HG6" s="4"/>
+      <c r="HH6" s="4"/>
+      <c r="HI6" s="4"/>
+      <c r="HJ6" s="4"/>
+      <c r="HK6" s="4"/>
+      <c r="HL6" s="4"/>
+      <c r="HM6" s="4"/>
+      <c r="HN6" s="4"/>
+      <c r="HO6" s="4"/>
+      <c r="HP6" s="4"/>
+      <c r="HQ6" s="4"/>
+      <c r="HR6" s="4"/>
+      <c r="HS6" s="4"/>
+      <c r="HT6" s="4"/>
+      <c r="HU6" s="4"/>
+      <c r="HV6" s="4"/>
+      <c r="HW6" s="4"/>
+      <c r="HX6" s="4"/>
+      <c r="HY6" s="4"/>
+      <c r="HZ6" s="4"/>
+      <c r="IA6" s="4"/>
+      <c r="IB6" s="4"/>
+      <c r="IC6" s="4"/>
+      <c r="ID6" s="4"/>
+      <c r="IE6" s="4"/>
+      <c r="IF6" s="4"/>
+      <c r="IG6" s="4"/>
+      <c r="IH6" s="4"/>
+      <c r="II6" s="4"/>
+      <c r="IJ6" s="4"/>
+      <c r="IK6" s="4"/>
+      <c r="IL6" s="4"/>
+      <c r="IM6" s="4"/>
+      <c r="IN6" s="4"/>
+      <c r="IO6" s="4"/>
+      <c r="IP6" s="4"/>
+      <c r="IQ6" s="4"/>
+      <c r="IR6" s="4"/>
+      <c r="IS6" s="4"/>
+      <c r="IT6" s="4"/>
+      <c r="IU6" s="4"/>
+      <c r="IV6" s="4"/>
+      <c r="IW6" s="4"/>
+      <c r="IX6" s="4"/>
+      <c r="IY6" s="4"/>
+      <c r="IZ6" s="4"/>
+      <c r="JA6" s="4"/>
+      <c r="JB6" s="4"/>
+      <c r="JC6" s="4"/>
+      <c r="JD6" s="4"/>
+      <c r="JE6" s="4"/>
+      <c r="JF6" s="4"/>
+      <c r="JG6" s="4"/>
+      <c r="JH6" s="4"/>
+      <c r="JI6" s="4"/>
+      <c r="JJ6" s="4"/>
+      <c r="JK6" s="4"/>
+      <c r="JL6" s="4"/>
+      <c r="JM6" s="4"/>
+      <c r="JN6" s="4"/>
+      <c r="JO6" s="4"/>
+      <c r="JP6" s="4"/>
+      <c r="JQ6" s="4"/>
+      <c r="JR6" s="4"/>
+      <c r="JS6" s="4"/>
+      <c r="JT6" s="4"/>
+      <c r="JU6" s="4"/>
+      <c r="JV6" s="4"/>
+      <c r="JW6" s="4"/>
+      <c r="JX6" s="4"/>
+      <c r="JY6" s="4"/>
+      <c r="JZ6" s="4"/>
+      <c r="KA6" s="4"/>
+      <c r="KB6" s="4"/>
+      <c r="KC6" s="4"/>
+      <c r="KD6" s="4"/>
+      <c r="KE6" s="4"/>
+      <c r="KF6" s="4"/>
+      <c r="KG6" s="4"/>
+      <c r="KH6" s="4"/>
+      <c r="KI6" s="4"/>
+      <c r="KJ6" s="4"/>
+      <c r="KK6" s="4"/>
+      <c r="KL6" s="4"/>
+      <c r="KM6" s="4"/>
+      <c r="KN6" s="4"/>
+      <c r="KO6" s="4"/>
+      <c r="KP6" s="4"/>
+      <c r="KQ6" s="4"/>
+      <c r="KR6" s="4"/>
+      <c r="KS6" s="4"/>
+      <c r="KT6" s="4"/>
+      <c r="KU6" s="4"/>
+      <c r="KV6" s="4"/>
+      <c r="KW6" s="4"/>
+      <c r="KX6" s="4"/>
+      <c r="KY6" s="4"/>
+      <c r="KZ6" s="4"/>
+      <c r="LA6" s="4"/>
+      <c r="LB6" s="4"/>
+      <c r="LC6" s="4"/>
+      <c r="LD6" s="4"/>
+      <c r="LE6" s="4"/>
+      <c r="LF6" s="4"/>
+      <c r="LG6" s="4"/>
+      <c r="LH6" s="4"/>
+      <c r="LI6" s="4"/>
+      <c r="LJ6" s="4"/>
+      <c r="LK6" s="4"/>
+      <c r="LL6" s="4"/>
+      <c r="LM6" s="4"/>
+      <c r="LN6" s="4"/>
+      <c r="LO6" s="4"/>
+      <c r="LP6" s="4"/>
+      <c r="LQ6" s="4"/>
+      <c r="LR6" s="4"/>
+      <c r="LS6" s="4"/>
+      <c r="LT6" s="4"/>
+      <c r="LU6" s="4"/>
+      <c r="LV6" s="4"/>
+      <c r="LW6" s="4"/>
+      <c r="LX6" s="4"/>
+      <c r="LY6" s="4"/>
+      <c r="LZ6" s="4"/>
+      <c r="MA6" s="4"/>
+      <c r="MB6" s="4"/>
+      <c r="MC6" s="4"/>
+      <c r="MD6" s="4"/>
+      <c r="ME6" s="4"/>
+      <c r="MF6" s="4"/>
+      <c r="MG6" s="4"/>
+      <c r="MH6" s="4"/>
+      <c r="MI6" s="4"/>
+      <c r="MJ6" s="4"/>
+      <c r="MK6" s="4"/>
+      <c r="ML6" s="4"/>
+      <c r="MM6" s="4"/>
+      <c r="MN6" s="4"/>
+      <c r="MO6" s="4"/>
+      <c r="MP6" s="4"/>
+      <c r="MQ6" s="4"/>
+      <c r="MR6" s="4"/>
+      <c r="MS6" s="4"/>
+      <c r="MT6" s="4"/>
+      <c r="MU6" s="4"/>
+      <c r="MV6" s="4"/>
+      <c r="MW6" s="4"/>
+      <c r="MX6" s="4"/>
+      <c r="MY6" s="4"/>
+      <c r="MZ6" s="4"/>
+      <c r="NA6" s="4"/>
+      <c r="NB6" s="4"/>
+      <c r="NC6" s="4"/>
+      <c r="ND6" s="4"/>
+      <c r="NE6" s="4"/>
+      <c r="NF6" s="4"/>
+      <c r="NG6" s="4"/>
+      <c r="NH6" s="4"/>
+      <c r="NI6" s="4"/>
+      <c r="NJ6" s="4"/>
+      <c r="NK6" s="4"/>
+      <c r="NL6" s="4"/>
+      <c r="NM6" s="4"/>
+      <c r="NN6" s="4"/>
+      <c r="NO6" s="4"/>
+      <c r="NP6" s="4"/>
+      <c r="NQ6" s="4"/>
+      <c r="NR6" s="4"/>
+      <c r="NS6" s="4"/>
+      <c r="NT6" s="4"/>
+      <c r="NU6" s="4"/>
+      <c r="NV6" s="4"/>
+      <c r="NW6" s="4"/>
+      <c r="NX6" s="4"/>
+      <c r="NY6" s="4"/>
+      <c r="NZ6" s="4"/>
+      <c r="OA6" s="4"/>
+      <c r="OB6" s="4"/>
+      <c r="OC6" s="4"/>
+      <c r="OD6" s="4"/>
+      <c r="OE6" s="4"/>
+      <c r="OF6" s="4"/>
+      <c r="OG6" s="4"/>
+      <c r="OH6" s="4"/>
+      <c r="OI6" s="4"/>
+      <c r="OJ6" s="4"/>
+      <c r="OK6" s="4"/>
+      <c r="OL6" s="4"/>
+      <c r="OM6" s="4"/>
+      <c r="ON6" s="4"/>
+      <c r="OO6" s="4"/>
+      <c r="OP6" s="4"/>
+      <c r="OQ6" s="4"/>
+      <c r="OR6" s="4"/>
+      <c r="OS6" s="4"/>
+      <c r="OT6" s="4"/>
+      <c r="OU6" s="4"/>
+      <c r="OV6" s="4"/>
+      <c r="OW6" s="4"/>
+      <c r="OX6" s="4"/>
+      <c r="OY6" s="4"/>
+      <c r="OZ6" s="4"/>
+      <c r="PA6" s="4"/>
+      <c r="PB6" s="4"/>
+      <c r="PC6" s="4"/>
+      <c r="PD6" s="4"/>
+      <c r="PE6" s="4"/>
+      <c r="PF6" s="4"/>
+      <c r="PG6" s="4"/>
+      <c r="PH6" s="4"/>
+      <c r="PI6" s="4"/>
+      <c r="PJ6" s="4"/>
+      <c r="PK6" s="4"/>
+      <c r="PL6" s="4"/>
+      <c r="PM6" s="4"/>
+      <c r="PN6" s="4"/>
+      <c r="PO6" s="4"/>
+      <c r="PP6" s="4"/>
+      <c r="PQ6" s="4"/>
+      <c r="PR6" s="4"/>
+      <c r="PS6" s="4"/>
+      <c r="PT6" s="4"/>
+      <c r="PU6" s="4"/>
+      <c r="PV6" s="4"/>
+      <c r="PW6" s="4"/>
+      <c r="PX6" s="4"/>
+      <c r="PY6" s="4"/>
+      <c r="PZ6" s="4"/>
+      <c r="QA6" s="4"/>
+      <c r="QB6" s="4"/>
+      <c r="QC6" s="4"/>
+      <c r="QD6" s="4"/>
+      <c r="QE6" s="4"/>
+      <c r="QF6" s="4"/>
+      <c r="QG6" s="4"/>
+      <c r="QH6" s="4"/>
+      <c r="QI6" s="4"/>
+      <c r="QJ6" s="4"/>
+      <c r="QK6" s="4"/>
+      <c r="QL6" s="4"/>
+      <c r="QM6" s="4"/>
+      <c r="QN6" s="4"/>
+      <c r="QO6" s="4"/>
+      <c r="QP6" s="4"/>
+      <c r="QQ6" s="4"/>
+      <c r="QR6" s="4"/>
+      <c r="QS6" s="4"/>
+      <c r="QT6" s="4"/>
+      <c r="QU6" s="4"/>
+      <c r="QV6" s="4"/>
+      <c r="QW6" s="4"/>
+      <c r="QX6" s="4"/>
+      <c r="QY6" s="4"/>
+      <c r="QZ6" s="4"/>
+      <c r="RA6" s="4"/>
+      <c r="RB6" s="4"/>
+      <c r="RC6" s="4"/>
+      <c r="RD6" s="4"/>
+      <c r="RE6" s="4"/>
+      <c r="RF6" s="4"/>
+      <c r="RG6" s="4"/>
+      <c r="RH6" s="4"/>
+      <c r="RI6" s="4"/>
+      <c r="RJ6" s="4"/>
+      <c r="RK6" s="4"/>
+      <c r="RL6" s="4"/>
+      <c r="RM6" s="4"/>
+      <c r="RN6" s="4"/>
+      <c r="RO6" s="4"/>
+      <c r="RP6" s="4"/>
+      <c r="RQ6" s="4"/>
+      <c r="RR6" s="4"/>
+      <c r="RS6" s="4"/>
+      <c r="RT6" s="4"/>
+      <c r="RU6" s="4"/>
+      <c r="RV6" s="4"/>
+      <c r="RW6" s="4"/>
+      <c r="RX6" s="4"/>
+      <c r="RY6" s="4"/>
+      <c r="RZ6" s="4"/>
+      <c r="SA6" s="4"/>
+      <c r="SB6" s="4"/>
+      <c r="SC6" s="4"/>
+      <c r="SD6" s="4"/>
+      <c r="SE6" s="4"/>
+      <c r="SF6" s="4"/>
+      <c r="SG6" s="4"/>
+      <c r="SH6" s="4"/>
+      <c r="SI6" s="4"/>
+      <c r="SJ6" s="4"/>
+      <c r="SK6" s="4"/>
+      <c r="SL6" s="4"/>
+      <c r="SM6" s="4"/>
+      <c r="SN6" s="4"/>
+      <c r="SO6" s="4"/>
+      <c r="SP6" s="4"/>
+      <c r="SQ6" s="4"/>
+      <c r="SR6" s="4"/>
+      <c r="SS6" s="4"/>
+      <c r="ST6" s="4"/>
+      <c r="SU6" s="4"/>
+      <c r="SV6" s="4"/>
+      <c r="SW6" s="4"/>
+      <c r="SX6" s="4"/>
+      <c r="SY6" s="4"/>
+      <c r="SZ6" s="4"/>
+      <c r="TA6" s="4"/>
+      <c r="TB6" s="4"/>
+      <c r="TC6" s="4"/>
+      <c r="TD6" s="4"/>
+      <c r="TE6" s="4"/>
+      <c r="TF6" s="4"/>
+      <c r="TG6" s="4"/>
+      <c r="TH6" s="4"/>
+      <c r="TI6" s="4"/>
+      <c r="TJ6" s="4"/>
+      <c r="TK6" s="4"/>
+      <c r="TL6" s="4"/>
+      <c r="TM6" s="4"/>
+      <c r="TN6" s="4"/>
+      <c r="TO6" s="4"/>
+      <c r="TP6" s="4"/>
+      <c r="TQ6" s="4"/>
+      <c r="TR6" s="4"/>
+      <c r="TS6" s="4"/>
+      <c r="TT6" s="4"/>
+      <c r="TU6" s="4"/>
+      <c r="TV6" s="4"/>
+      <c r="TW6" s="4"/>
+      <c r="TX6" s="4"/>
+      <c r="TY6" s="4"/>
+      <c r="TZ6" s="4"/>
+      <c r="UA6" s="4"/>
+      <c r="UB6" s="4"/>
+      <c r="UC6" s="4"/>
+      <c r="UD6" s="4"/>
+      <c r="UE6" s="4"/>
+      <c r="UF6" s="4"/>
+      <c r="UG6" s="4"/>
+      <c r="UH6" s="4"/>
+      <c r="UI6" s="4"/>
+      <c r="UJ6" s="4"/>
+      <c r="UK6" s="4"/>
+      <c r="UL6" s="4"/>
+      <c r="UM6" s="4"/>
+      <c r="UN6" s="4"/>
+      <c r="UO6" s="4"/>
+      <c r="UP6" s="4"/>
+      <c r="UQ6" s="4"/>
+      <c r="UR6" s="4"/>
+      <c r="US6" s="4"/>
+      <c r="UT6" s="4"/>
+      <c r="UU6" s="4"/>
+      <c r="UV6" s="4"/>
+      <c r="UW6" s="4"/>
+      <c r="UX6" s="4"/>
+      <c r="UY6" s="4"/>
+      <c r="UZ6" s="4"/>
+      <c r="VA6" s="4"/>
+      <c r="VB6" s="4"/>
+      <c r="VC6" s="4"/>
+      <c r="VD6" s="4"/>
+      <c r="VE6" s="4"/>
+      <c r="VF6" s="4"/>
+      <c r="VG6" s="4"/>
+      <c r="VH6" s="4"/>
+      <c r="VI6" s="4"/>
+      <c r="VJ6" s="4"/>
+      <c r="VK6" s="4"/>
+      <c r="VL6" s="4"/>
+      <c r="VM6" s="4"/>
+      <c r="VN6" s="4"/>
+      <c r="VO6" s="4"/>
+      <c r="VP6" s="4"/>
+      <c r="VQ6" s="4"/>
+      <c r="VR6" s="4"/>
+      <c r="VS6" s="4"/>
+      <c r="VT6" s="4"/>
+      <c r="VU6" s="4"/>
+      <c r="VV6" s="4"/>
+      <c r="VW6" s="4"/>
+      <c r="VX6" s="4"/>
+      <c r="VY6" s="4"/>
+      <c r="VZ6" s="4"/>
+      <c r="WA6" s="4"/>
+      <c r="WB6" s="4"/>
+      <c r="WC6" s="4"/>
+      <c r="WD6" s="4"/>
+      <c r="WE6" s="4"/>
+      <c r="WF6" s="4"/>
+      <c r="WG6" s="4"/>
+      <c r="WH6" s="4"/>
+      <c r="WI6" s="4"/>
+      <c r="WJ6" s="4"/>
+      <c r="WK6" s="4"/>
+      <c r="WL6" s="4"/>
+      <c r="WM6" s="4"/>
+      <c r="WN6" s="4"/>
+      <c r="WO6" s="4"/>
+      <c r="WP6" s="4"/>
+      <c r="WQ6" s="4"/>
+      <c r="WR6" s="4"/>
+      <c r="WS6" s="4"/>
+      <c r="WT6" s="4"/>
+      <c r="WU6" s="4"/>
+      <c r="WV6" s="4"/>
+      <c r="WW6" s="4"/>
+      <c r="WX6" s="4"/>
+      <c r="WY6" s="4"/>
+      <c r="WZ6" s="4"/>
+      <c r="XA6" s="4"/>
+      <c r="XB6" s="4"/>
+      <c r="XC6" s="4"/>
+      <c r="XD6" s="4"/>
+      <c r="XE6" s="4"/>
+      <c r="XF6" s="4"/>
+      <c r="XG6" s="4"/>
+      <c r="XH6" s="4"/>
+      <c r="XI6" s="4"/>
+      <c r="XJ6" s="4"/>
+      <c r="XK6" s="4"/>
+      <c r="XL6" s="4"/>
+      <c r="XM6" s="4"/>
+      <c r="XN6" s="4"/>
+      <c r="XO6" s="4"/>
+      <c r="XP6" s="4"/>
+      <c r="XQ6" s="4"/>
+      <c r="XR6" s="4"/>
+      <c r="XS6" s="4"/>
+      <c r="XT6" s="4"/>
+      <c r="XU6" s="4"/>
+      <c r="XV6" s="4"/>
+      <c r="XW6" s="4"/>
+      <c r="XX6" s="4"/>
+      <c r="XY6" s="4"/>
+      <c r="XZ6" s="4"/>
+      <c r="YA6" s="4"/>
+      <c r="YB6" s="4"/>
+      <c r="YC6" s="4"/>
+      <c r="YD6" s="4"/>
+      <c r="YE6" s="4"/>
+      <c r="YF6" s="4"/>
+      <c r="YG6" s="4"/>
+      <c r="YH6" s="4"/>
+      <c r="YI6" s="4"/>
+      <c r="YJ6" s="4"/>
+      <c r="YK6" s="4"/>
+      <c r="YL6" s="4"/>
+      <c r="YM6" s="4"/>
+      <c r="YN6" s="4"/>
+      <c r="YO6" s="4"/>
+      <c r="YP6" s="4"/>
+      <c r="YQ6" s="4"/>
+      <c r="YR6" s="4"/>
+      <c r="YS6" s="4"/>
+      <c r="YT6" s="4"/>
+      <c r="YU6" s="4"/>
+      <c r="YV6" s="4"/>
+      <c r="YW6" s="4"/>
+      <c r="YX6" s="4"/>
+      <c r="YY6" s="4"/>
+      <c r="YZ6" s="4"/>
+      <c r="ZA6" s="4"/>
+      <c r="ZB6" s="4"/>
+      <c r="ZC6" s="4"/>
+      <c r="ZD6" s="4"/>
+      <c r="ZE6" s="4"/>
+      <c r="ZF6" s="4"/>
+      <c r="ZG6" s="4"/>
+      <c r="ZH6" s="4"/>
+      <c r="ZI6" s="4"/>
+      <c r="ZJ6" s="4"/>
+      <c r="ZK6" s="4"/>
+      <c r="ZL6" s="4"/>
+      <c r="ZM6" s="4"/>
+      <c r="ZN6" s="4"/>
+      <c r="ZO6" s="4"/>
+      <c r="ZP6" s="4"/>
+      <c r="ZQ6" s="4"/>
+      <c r="ZR6" s="4"/>
+      <c r="ZS6" s="4"/>
+      <c r="ZT6" s="4"/>
+      <c r="ZU6" s="4"/>
+      <c r="ZV6" s="4"/>
+      <c r="ZW6" s="4"/>
+      <c r="ZX6" s="4"/>
+      <c r="ZY6" s="4"/>
+      <c r="ZZ6" s="4"/>
+      <c r="AAA6" s="4"/>
+      <c r="AAB6" s="4"/>
+      <c r="AAC6" s="4"/>
+      <c r="AAD6" s="4"/>
+      <c r="AAE6" s="4"/>
+      <c r="AAF6" s="4"/>
+      <c r="AAG6" s="4"/>
+      <c r="AAH6" s="4"/>
+      <c r="AAI6" s="4"/>
+      <c r="AAJ6" s="4"/>
+      <c r="AAK6" s="4"/>
+      <c r="AAL6" s="4"/>
+      <c r="AAM6" s="4"/>
+      <c r="AAN6" s="4"/>
+      <c r="AAO6" s="4"/>
+      <c r="AAP6" s="4"/>
+      <c r="AAQ6" s="4"/>
+      <c r="AAR6" s="4"/>
+      <c r="AAS6" s="4"/>
+      <c r="AAT6" s="4"/>
+      <c r="AAU6" s="4"/>
+      <c r="AAV6" s="4"/>
+      <c r="AAW6" s="4"/>
+      <c r="AAX6" s="4"/>
+      <c r="AAY6" s="4"/>
+      <c r="AAZ6" s="4"/>
+      <c r="ABA6" s="4"/>
+      <c r="ABB6" s="4"/>
+      <c r="ABC6" s="4"/>
+      <c r="ABD6" s="4"/>
+      <c r="ABE6" s="4"/>
+      <c r="ABF6" s="4"/>
+      <c r="ABG6" s="4"/>
+      <c r="ABH6" s="4"/>
+      <c r="ABI6" s="4"/>
+      <c r="ABJ6" s="4"/>
+      <c r="ABK6" s="4"/>
+      <c r="ABL6" s="4"/>
+      <c r="ABM6" s="4"/>
+      <c r="ABN6" s="4"/>
+      <c r="ABO6" s="4"/>
+      <c r="ABP6" s="4"/>
+      <c r="ABQ6" s="4"/>
+      <c r="ABR6" s="4"/>
+      <c r="ABS6" s="4"/>
+      <c r="ABT6" s="4"/>
+      <c r="ABU6" s="4"/>
+      <c r="ABV6" s="4"/>
+      <c r="ABW6" s="4"/>
+      <c r="ABX6" s="4"/>
+      <c r="ABY6" s="4"/>
+      <c r="ABZ6" s="4"/>
+      <c r="ACA6" s="4"/>
+      <c r="ACB6" s="4"/>
+      <c r="ACC6" s="4"/>
+      <c r="ACD6" s="4"/>
+      <c r="ACE6" s="4"/>
+      <c r="ACF6" s="4"/>
+      <c r="ACG6" s="4"/>
+      <c r="ACH6" s="4"/>
+      <c r="ACI6" s="4"/>
+      <c r="ACJ6" s="4"/>
+      <c r="ACK6" s="4"/>
+      <c r="ACL6" s="4"/>
+      <c r="ACM6" s="4"/>
+      <c r="ACN6" s="4"/>
+      <c r="ACO6" s="4"/>
+      <c r="ACP6" s="4"/>
+      <c r="ACQ6" s="4"/>
+      <c r="ACR6" s="4"/>
+      <c r="ACS6" s="4"/>
+      <c r="ACT6" s="4"/>
+      <c r="ACU6" s="4"/>
+      <c r="ACV6" s="4"/>
+      <c r="ACW6" s="4"/>
+      <c r="ACX6" s="4"/>
+      <c r="ACY6" s="4"/>
+      <c r="ACZ6" s="4"/>
+      <c r="ADA6" s="4"/>
+      <c r="ADB6" s="4"/>
+      <c r="ADC6" s="4"/>
+      <c r="ADD6" s="4"/>
+      <c r="ADE6" s="4"/>
+      <c r="ADF6" s="4"/>
+      <c r="ADG6" s="4"/>
+      <c r="ADH6" s="4"/>
+      <c r="ADI6" s="4"/>
+      <c r="ADJ6" s="4"/>
+      <c r="ADK6" s="4"/>
+      <c r="ADL6" s="4"/>
+      <c r="ADM6" s="4"/>
+      <c r="ADN6" s="4"/>
+      <c r="ADO6" s="4"/>
+      <c r="ADP6" s="4"/>
+      <c r="ADQ6" s="4"/>
+      <c r="ADR6" s="4"/>
+      <c r="ADS6" s="4"/>
+      <c r="ADT6" s="4"/>
+      <c r="ADU6" s="4"/>
+      <c r="ADV6" s="4"/>
+      <c r="ADW6" s="4"/>
+      <c r="ADX6" s="4"/>
+      <c r="ADY6" s="4"/>
+      <c r="ADZ6" s="4"/>
+      <c r="AEA6" s="4"/>
+      <c r="AEB6" s="4"/>
+      <c r="AEC6" s="4"/>
+      <c r="AED6" s="4"/>
+      <c r="AEE6" s="4"/>
+      <c r="AEF6" s="4"/>
+      <c r="AEG6" s="4"/>
+      <c r="AEH6" s="4"/>
+      <c r="AEI6" s="4"/>
+      <c r="AEJ6" s="4"/>
+      <c r="AEK6" s="4"/>
+      <c r="AEL6" s="4"/>
+      <c r="AEM6" s="4"/>
+      <c r="AEN6" s="4"/>
+      <c r="AEO6" s="4"/>
+      <c r="AEP6" s="4"/>
+      <c r="AEQ6" s="4"/>
+      <c r="AER6" s="4"/>
+      <c r="AES6" s="4"/>
+      <c r="AET6" s="4"/>
+      <c r="AEU6" s="4"/>
+      <c r="AEV6" s="4"/>
+      <c r="AEW6" s="4"/>
+      <c r="AEX6" s="4"/>
+      <c r="AEY6" s="4"/>
+      <c r="AEZ6" s="4"/>
+      <c r="AFA6" s="4"/>
+      <c r="AFB6" s="4"/>
+      <c r="AFC6" s="4"/>
+      <c r="AFD6" s="4"/>
+      <c r="AFE6" s="4"/>
+      <c r="AFF6" s="4"/>
+      <c r="AFG6" s="4"/>
+      <c r="AFH6" s="4"/>
+      <c r="AFI6" s="4"/>
+      <c r="AFJ6" s="4"/>
+      <c r="AFK6" s="4"/>
+      <c r="AFL6" s="4"/>
+      <c r="AFM6" s="4"/>
+      <c r="AFN6" s="4"/>
+      <c r="AFO6" s="4"/>
+      <c r="AFP6" s="4"/>
+      <c r="AFQ6" s="4"/>
+      <c r="AFR6" s="4"/>
+      <c r="AFS6" s="4"/>
+      <c r="AFT6" s="4"/>
+      <c r="AFU6" s="4"/>
+      <c r="AFV6" s="4"/>
+      <c r="AFW6" s="4"/>
+      <c r="AFX6" s="4"/>
+      <c r="AFY6" s="4"/>
+      <c r="AFZ6" s="4"/>
+      <c r="AGA6" s="4"/>
+      <c r="AGB6" s="4"/>
+      <c r="AGC6" s="4"/>
+      <c r="AGD6" s="4"/>
+      <c r="AGE6" s="4"/>
+      <c r="AGF6" s="4"/>
+      <c r="AGG6" s="4"/>
+      <c r="AGH6" s="4"/>
+      <c r="AGI6" s="4"/>
+      <c r="AGJ6" s="4"/>
+      <c r="AGK6" s="4"/>
+      <c r="AGL6" s="4"/>
+      <c r="AGM6" s="4"/>
+      <c r="AGN6" s="4"/>
+      <c r="AGO6" s="4"/>
+      <c r="AGP6" s="4"/>
+      <c r="AGQ6" s="4"/>
+      <c r="AGR6" s="4"/>
+      <c r="AGS6" s="4"/>
+      <c r="AGT6" s="4"/>
+      <c r="AGU6" s="4"/>
+      <c r="AGV6" s="4"/>
+      <c r="AGW6" s="4"/>
+      <c r="AGX6" s="4"/>
+      <c r="AGY6" s="4"/>
+      <c r="AGZ6" s="4"/>
+      <c r="AHA6" s="4"/>
+      <c r="AHB6" s="4"/>
+      <c r="AHC6" s="4"/>
+      <c r="AHD6" s="4"/>
+      <c r="AHE6" s="4"/>
+      <c r="AHF6" s="4"/>
+      <c r="AHG6" s="4"/>
+      <c r="AHH6" s="4"/>
+      <c r="AHI6" s="4"/>
+      <c r="AHJ6" s="4"/>
+      <c r="AHK6" s="4"/>
+      <c r="AHL6" s="4"/>
+      <c r="AHM6" s="4"/>
+      <c r="AHN6" s="4"/>
+      <c r="AHO6" s="4"/>
+      <c r="AHP6" s="4"/>
+      <c r="AHQ6" s="4"/>
+      <c r="AHR6" s="4"/>
+      <c r="AHS6" s="4"/>
+      <c r="AHT6" s="4"/>
+      <c r="AHU6" s="4"/>
+      <c r="AHV6" s="4"/>
+      <c r="AHW6" s="4"/>
+      <c r="AHX6" s="4"/>
+      <c r="AHY6" s="4"/>
+      <c r="AHZ6" s="4"/>
+      <c r="AIA6" s="4"/>
+      <c r="AIB6" s="4"/>
+      <c r="AIC6" s="4"/>
+      <c r="AID6" s="4"/>
+      <c r="AIE6" s="4"/>
+      <c r="AIF6" s="4"/>
+      <c r="AIG6" s="4"/>
+      <c r="AIH6" s="4"/>
+      <c r="AII6" s="4"/>
+      <c r="AIJ6" s="4"/>
+      <c r="AIK6" s="4"/>
+      <c r="AIL6" s="4"/>
+      <c r="AIM6" s="4"/>
+      <c r="AIN6" s="4"/>
+      <c r="AIO6" s="4"/>
+      <c r="AIP6" s="4"/>
+      <c r="AIQ6" s="4"/>
+      <c r="AIR6" s="4"/>
+      <c r="AIS6" s="4"/>
+      <c r="AIT6" s="4"/>
+      <c r="AIU6" s="4"/>
+      <c r="AIV6" s="4"/>
+      <c r="AIW6" s="4"/>
+      <c r="AIX6" s="4"/>
+      <c r="AIY6" s="4"/>
+      <c r="AIZ6" s="4"/>
+      <c r="AJA6" s="4"/>
+      <c r="AJB6" s="4"/>
+      <c r="AJC6" s="4"/>
+      <c r="AJD6" s="4"/>
+      <c r="AJE6" s="4"/>
+      <c r="AJF6" s="4"/>
+      <c r="AJG6" s="4"/>
+      <c r="AJH6" s="4"/>
+      <c r="AJI6" s="4"/>
+      <c r="AJJ6" s="4"/>
+      <c r="AJK6" s="4"/>
+      <c r="AJL6" s="4"/>
+      <c r="AJM6" s="4"/>
+      <c r="AJN6" s="4"/>
+      <c r="AJO6" s="4"/>
+      <c r="AJP6" s="4"/>
+      <c r="AJQ6" s="4"/>
+      <c r="AJR6" s="4"/>
+      <c r="AJS6" s="4"/>
+      <c r="AJT6" s="4"/>
+      <c r="AJU6" s="4"/>
+      <c r="AJV6" s="4"/>
+      <c r="AJW6" s="4"/>
+      <c r="AJX6" s="4"/>
+      <c r="AJY6" s="4"/>
+      <c r="AJZ6" s="4"/>
+      <c r="AKA6" s="4"/>
+      <c r="AKB6" s="4"/>
+      <c r="AKC6" s="4"/>
+      <c r="AKD6" s="4"/>
+      <c r="AKE6" s="4"/>
+      <c r="AKF6" s="4"/>
+      <c r="AKG6" s="4"/>
+      <c r="AKH6" s="4"/>
+      <c r="AKI6" s="4"/>
+      <c r="AKJ6" s="4"/>
+      <c r="AKK6" s="4"/>
+      <c r="AKL6" s="4"/>
+      <c r="AKM6" s="4"/>
+      <c r="AKN6" s="4"/>
+      <c r="AKO6" s="4"/>
+      <c r="AKP6" s="4"/>
+      <c r="AKQ6" s="4"/>
+      <c r="AKR6" s="4"/>
+      <c r="AKS6" s="4"/>
+      <c r="AKT6" s="4"/>
+      <c r="AKU6" s="4"/>
+      <c r="AKV6" s="4"/>
+      <c r="AKW6" s="4"/>
+      <c r="AKX6" s="4"/>
+      <c r="AKY6" s="4"/>
+      <c r="AKZ6" s="4"/>
+      <c r="ALA6" s="4"/>
+      <c r="ALB6" s="4"/>
+      <c r="ALC6" s="4"/>
+      <c r="ALD6" s="4"/>
+      <c r="ALE6" s="4"/>
+      <c r="ALF6" s="4"/>
+      <c r="ALG6" s="4"/>
+      <c r="ALH6" s="4"/>
+      <c r="ALI6" s="4"/>
+      <c r="ALJ6" s="4"/>
+      <c r="ALK6" s="4"/>
+      <c r="ALL6" s="4"/>
+      <c r="ALM6" s="4"/>
+      <c r="ALN6" s="4"/>
+      <c r="ALO6" s="4"/>
+      <c r="ALP6" s="4"/>
+      <c r="ALQ6" s="4"/>
+      <c r="ALR6" s="4"/>
+      <c r="ALS6" s="4"/>
+      <c r="ALT6" s="4"/>
+      <c r="ALU6" s="4"/>
+      <c r="ALV6" s="4"/>
+      <c r="ALW6" s="4"/>
+      <c r="ALX6" s="4"/>
+      <c r="ALY6" s="4"/>
+      <c r="ALZ6" s="4"/>
+      <c r="AMA6" s="4"/>
+      <c r="AMB6" s="4"/>
+      <c r="AMC6" s="4"/>
+      <c r="AMD6" s="4"/>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:1">
       <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" ht="15.1" customHeight="1" spans="1:1">
+      <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3389,13 +4416,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>19</v>
@@ -3406,24 +4433,24 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3462,40 +4489,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>19</v>
@@ -3506,28 +4533,28 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:15">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I2" s="7">
         <v>4.58e-17</v>
@@ -3536,38 +4563,38 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:15">
       <c r="A3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I3" s="4">
         <v>1</v>
@@ -3576,15 +4603,15 @@
         <v>0</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3623,25 +4650,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>19</v>
@@ -3652,13 +4679,13 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -3667,7 +4694,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
@@ -3675,13 +4702,13 @@
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E3" s="4">
         <v>2</v>
@@ -3690,7 +4717,7 @@
         <v>-1</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
@@ -3698,13 +4725,13 @@
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E4" s="4">
         <v>3</v>
@@ -3713,7 +4740,7 @@
         <v>-2</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -3721,13 +4748,13 @@
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E5" s="4">
         <v>4</v>
@@ -3736,7 +4763,7 @@
         <v>-5</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
@@ -3744,13 +4771,13 @@
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E6" s="4">
         <v>5</v>
@@ -3759,7 +4786,7 @@
         <v>-3</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
@@ -3767,13 +4794,13 @@
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E7" s="4">
         <v>6</v>
@@ -3782,7 +4809,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
@@ -3824,19 +4851,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>19</v>
@@ -3847,114 +4874,114 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:5">
       <c r="A4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3993,25 +5020,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>19</v>
@@ -4022,13 +5049,13 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" s="16">
         <v>0.000148</v>
@@ -4037,20 +5064,20 @@
         <v>0.0121655250605964</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3" s="16">
         <v>0.0002</v>
@@ -4059,20 +5086,20 @@
         <v>0.014142135623731</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4" s="16">
         <v>0.0005</v>
@@ -4081,20 +5108,20 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5" s="16">
         <v>0.0005</v>
@@ -4103,20 +5130,20 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" s="16">
         <v>0.001</v>
@@ -4125,20 +5152,20 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E7" s="16">
         <v>0.002</v>
@@ -4147,7 +5174,7 @@
         <v>0.0447213595499958</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
@@ -4185,16 +5212,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>19</v>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="989" activeTab="2"/>
+    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="989" firstSheet="10" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -26,93 +26,94 @@
     <sheet name="Parameters" sheetId="15" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="16" r:id="rId17"/>
     <sheet name="Evidence" sheetId="17" r:id="rId18"/>
-    <sheet name="References" sheetId="18" r:id="rId19"/>
+    <sheet name="Interpretations" sheetId="20" r:id="rId19"/>
+    <sheet name="References" sheetId="18" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$K$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$L$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">Submodels!#REF!</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$O$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$6</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
@@ -191,52 +192,52 @@
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="211">
   <si>
     <t>Id</t>
   </si>
@@ -349,6 +350,9 @@
     <t>Evidence</t>
   </si>
   <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
     <t>dfba_submodel</t>
   </si>
   <si>
@@ -811,10 +815,25 @@
     <t>Genetic variant</t>
   </si>
   <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
     <t>Growth media</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Experiment type</t>
+  </si>
+  <si>
+    <t>Experiment design</t>
+  </si>
+  <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
+    <t>Method</t>
   </si>
   <si>
     <t>Title</t>
@@ -860,10 +879,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -892,6 +911,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -899,9 +926,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -912,11 +954,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -928,7 +970,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -936,7 +978,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -957,26 +1007,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -988,24 +1022,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1018,25 +1036,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1061,19 +1080,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,19 +1128,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,13 +1152,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,13 +1230,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,85 +1248,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,16 +1277,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1307,7 +1335,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1323,16 +1351,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1346,152 +1374,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1506,6 +1525,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2057,32 +2079,32 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="8.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="4" customWidth="1"/>
     <col min="3" max="3" width="11" style="4" customWidth="1"/>
     <col min="4" max="4" width="5.25" style="4" customWidth="1"/>
     <col min="5" max="5" width="18.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="4" customWidth="1"/>
-    <col min="9" max="1023" width="8.78333333333333" style="4"/>
-    <col min="1024" max="1025" width="8.78333333333333" style="15"/>
-    <col min="1026" max="16384" width="9" style="15"/>
+    <col min="6" max="7" width="8.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="4" customWidth="1"/>
+    <col min="10" max="1024" width="8.78333333333333" style="4"/>
+    <col min="1025" max="1026" width="8.78333333333333" style="16"/>
+    <col min="1027" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2090,10 +2112,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>
@@ -2102,34 +2124,37 @@
         <v>36</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2145,14 +2170,14 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:F5"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -2160,10 +2185,10 @@
     <col min="1" max="1" width="8.78333333333333" style="4"/>
     <col min="2" max="3" width="13.3916666666667" style="4"/>
     <col min="4" max="4" width="49.8083333333333" style="4"/>
-    <col min="5" max="1026" width="8.78333333333333" style="4"/>
+    <col min="5" max="1027" width="8.78333333333333" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:13">
+    <row r="1" ht="15.1" customHeight="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2171,25 +2196,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>18</v>
@@ -2198,30 +2223,33 @@
         <v>36</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:13">
+    <row r="2" ht="15.1" customHeight="1" spans="1:14">
       <c r="A2" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G2" s="4">
         <v>0</v>
@@ -2230,28 +2258,28 @@
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M2" s="14"/>
-    </row>
-    <row r="3" ht="15.1" customHeight="1" spans="1:13">
+        <v>132</v>
+      </c>
+      <c r="N2" s="15"/>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="1:14">
       <c r="A3" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G3" s="4">
         <v>-1</v>
@@ -2260,48 +2288,48 @@
         <v>2</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M3" s="14"/>
+        <v>132</v>
+      </c>
+      <c r="N3" s="15"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>140</v>
+        <v>41</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2317,14 +2345,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -2337,15 +2365,15 @@
     <col min="6" max="6" width="57.75" style="4" customWidth="1"/>
     <col min="7" max="7" width="5.25" style="4" customWidth="1"/>
     <col min="8" max="8" width="18.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="4" customWidth="1"/>
-    <col min="12" max="1023" width="8.78333333333333" style="4"/>
-    <col min="1024" max="1025" width="8.78333333333333" style="12"/>
-    <col min="1026" max="16384" width="9" style="12"/>
+    <col min="9" max="10" width="8.625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="4" customWidth="1"/>
+    <col min="13" max="1024" width="8.78333333333333" style="4"/>
+    <col min="1025" max="1026" width="8.78333333333333" style="13"/>
+    <col min="1027" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+    <row r="1" ht="15.1" customHeight="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2353,19 +2381,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
@@ -2374,121 +2402,129 @@
         <v>36</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:10">
+    <row r="2" ht="15.1" customHeight="1" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" s="9" t="s">
         <v>145</v>
       </c>
+      <c r="E2" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="F2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" ht="15.1" customHeight="1" spans="1:10">
-      <c r="A3" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" ht="15.1" customHeight="1" spans="1:11">
+      <c r="A4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" ht="15.1" customHeight="1" spans="1:10">
-      <c r="A4" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" ht="15.1" customHeight="1" spans="1:11">
+      <c r="A5" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" ht="15.1" customHeight="1" spans="1:11">
+      <c r="A6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" ht="15.1" customHeight="1" spans="1:10">
-      <c r="A5" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" ht="15.1" customHeight="1" spans="1:10">
-      <c r="A6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>145</v>
+      <c r="E6" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+        <v>131</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2500,14 +2536,14 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F1:F2"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -2516,10 +2552,10 @@
     <col min="2" max="3" width="9.10833333333333" style="4"/>
     <col min="4" max="4" width="19.3916666666667" style="4"/>
     <col min="5" max="7" width="11.7833333333333" style="4"/>
-    <col min="8" max="1027" width="9.10833333333333" style="4"/>
+    <col min="8" max="1028" width="9.10833333333333" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+    <row r="1" ht="15.1" customHeight="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2527,19 +2563,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
@@ -2548,27 +2584,30 @@
         <v>36</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>17</v>
@@ -2587,37 +2626,37 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="9" width="8.78333333333333" style="9"/>
-    <col min="10" max="1025" width="8.78333333333333" style="4"/>
+    <col min="1" max="10" width="8.78333333333333" style="10"/>
+    <col min="11" max="1026" width="8.78333333333333" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A1" s="10" t="s">
+    <row r="1" ht="15.1" customHeight="1" spans="1:10">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>160</v>
+      <c r="C1" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -2625,31 +2664,34 @@
       <c r="G1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:8">
-      <c r="A2" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="2" ht="15.1" customHeight="1" spans="1:9">
+      <c r="A2" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>163</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2662,44 +2704,44 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="2" width="8.78333333333333" style="9"/>
-    <col min="3" max="3" width="20.35" style="9"/>
-    <col min="4" max="9" width="8.78333333333333" style="9"/>
-    <col min="10" max="10" width="10.3916666666667" style="9"/>
-    <col min="11" max="1023" width="8.78333333333333" style="4"/>
-    <col min="1024" max="1025" width="8.78333333333333" style="8"/>
+    <col min="1" max="2" width="8.78333333333333" style="10"/>
+    <col min="3" max="3" width="20.35" style="10"/>
+    <col min="4" max="10" width="8.78333333333333" style="10"/>
+    <col min="11" max="11" width="10.3916666666667" style="10"/>
+    <col min="12" max="1024" width="8.78333333333333" style="4"/>
+    <col min="1025" max="1026" width="8.78333333333333" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="15.1" customHeight="1" spans="1:10">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="9" customFormat="1" ht="15.1" customHeight="1" spans="1:11">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>94</v>
+      <c r="D1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>18</v>
@@ -2707,81 +2749,87 @@
       <c r="H1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A2" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="2" ht="15.1" customHeight="1" spans="1:10">
+      <c r="A2" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>161</v>
+      <c r="B2" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="11">
+        <v>99</v>
+      </c>
+      <c r="E2" s="12">
         <v>-3</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>131</v>
+      <c r="F2" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" ht="15.1" customHeight="1" spans="1:8">
-      <c r="A3" s="9" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="9" t="s">
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="1:9">
+      <c r="A3" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>161</v>
+      <c r="B3" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="11">
+        <v>100</v>
+      </c>
+      <c r="E3" s="12">
         <v>-4</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>131</v>
+      <c r="F3" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-    </row>
-    <row r="4" ht="15.1" customHeight="1" spans="1:8">
-      <c r="A4" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" ht="15.1" customHeight="1" spans="1:9">
+      <c r="A4" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>161</v>
+      <c r="B4" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="11">
+        <v>101</v>
+      </c>
+      <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>131</v>
+      <c r="F4" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2793,14 +2841,14 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2808,11 +2856,11 @@
     <col min="1" max="1" width="15.25" style="4" customWidth="1"/>
     <col min="2" max="3" width="8.78333333333333" style="4"/>
     <col min="4" max="4" width="9.25" style="4"/>
-    <col min="5" max="1025" width="8.78333333333333" style="4"/>
-    <col min="1026" max="16384" width="9" style="6"/>
+    <col min="5" max="1026" width="8.78333333333333" style="4"/>
+    <col min="1027" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:10">
+    <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2820,16 +2868,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>18</v>
@@ -2838,165 +2886,168 @@
         <v>36</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:9">
+    <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D2" s="4">
         <v>0.3</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>176</v>
+      <c r="J2" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="6"/>
+        <v>178</v>
+      </c>
+      <c r="B3" s="7"/>
       <c r="C3" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="7">
+        <v>179</v>
+      </c>
+      <c r="D3" s="8">
         <v>2000</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" s="6"/>
+        <v>181</v>
+      </c>
+      <c r="B4" s="7"/>
       <c r="C4" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" s="7">
+        <v>182</v>
+      </c>
+      <c r="D4" s="8">
         <v>0.001</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B5" s="6"/>
+        <v>183</v>
+      </c>
+      <c r="B5" s="7"/>
       <c r="C5" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6" s="6"/>
+        <v>184</v>
+      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B7" s="6"/>
+        <v>185</v>
+      </c>
+      <c r="B7" s="7"/>
       <c r="C7" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B8" s="6"/>
+        <v>186</v>
+      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D9" s="4">
         <v>1100</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D10" s="4">
         <v>1100</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="7">
+        <v>146</v>
+      </c>
+      <c r="D11" s="8">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3012,23 +3063,23 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1023" width="8.78333333333333" style="1"/>
-    <col min="1024" max="1025" width="8.78333333333333"/>
+    <col min="1" max="1024" width="8.78333333333333" style="1"/>
+    <col min="1025" max="1026" width="8.78333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:8">
+    <row r="1" ht="15.1" customHeight="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3036,10 +3087,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>
@@ -3048,9 +3099,12 @@
         <v>36</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3067,23 +3121,23 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P30" sqref="P30"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="13.3916666666667" style="4"/>
-    <col min="3" max="1025" width="9.10833333333333" style="4"/>
+    <col min="3" max="1033" width="9.10833333333333" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:14">
+    <row r="1" ht="15.1" customHeight="1" spans="1:22">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3091,16 +3145,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>190</v>
@@ -3109,21 +3163,45 @@
         <v>191</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3138,6 +3216,171 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="4" customWidth="1"/>
+    <col min="3" max="1022" width="9.10833333333333" style="4"/>
+    <col min="1023" max="1023" width="9.10833333333333"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1025" width="8.78333333333333" style="4"/>
+    <col min="1026" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R1"/>
@@ -3163,46 +3406,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>18</v>
@@ -3215,73 +3458,6 @@
   <autoFilter ref="A1:D1">
     <extLst/>
   </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight" activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="4"/>
-    <col min="1026" max="16384" width="9" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
@@ -3293,7 +3469,7 @@
   <sheetPr/>
   <dimension ref="A1:AMD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
@@ -3304,8 +3480,8 @@
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="4" customWidth="1"/>
     <col min="3" max="1018" width="8.78333333333333" style="4"/>
-    <col min="1019" max="1019" width="8.78333333333333" style="17"/>
-    <col min="1020" max="16384" width="9" style="17"/>
+    <col min="1019" max="1019" width="8.78333333333333" style="18"/>
+    <col min="1020" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:2">
@@ -3345,7 +3521,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="6" s="17" customFormat="1" ht="15" customHeight="1" spans="1:1018">
+    <row r="6" s="18" customFormat="1" ht="15" customHeight="1" spans="1:1018">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -4393,22 +4569,22 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="4"/>
+    <col min="1" max="1026" width="8.78333333333333" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:7">
+    <row r="1" ht="15.1" customHeight="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4425,32 +4601,35 @@
         <v>36</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4463,25 +4642,25 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:K1"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="9" width="8.78333333333333" style="4"/>
     <col min="10" max="10" width="9.375" style="4"/>
-    <col min="11" max="1027" width="8.78333333333333" style="4"/>
-    <col min="1028" max="1030" width="8.78333333333333"/>
+    <col min="11" max="1028" width="8.78333333333333" style="4"/>
+    <col min="1029" max="1031" width="8.78333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:16">
+    <row r="1" ht="15.1" customHeight="1" spans="1:17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4489,34 +4668,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>18</v>
@@ -4525,76 +4704,80 @@
         <v>36</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:15">
+    <row r="2" ht="15.1" customHeight="1" spans="1:16">
       <c r="A2" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="7">
+        <v>61</v>
+      </c>
+      <c r="I2" s="8">
         <v>4.58e-17</v>
       </c>
       <c r="J2" s="4">
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="1:16">
+      <c r="A3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" ht="15.1" customHeight="1" spans="1:15">
-      <c r="A3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="I3" s="4">
         <v>1</v>
@@ -4603,19 +4786,20 @@
         <v>0</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O3">
+  <autoFilter ref="A1:P3">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4627,22 +4811,22 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="4"/>
+    <col min="1" max="1026" width="8.78333333333333" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+    <row r="1" ht="15.1" customHeight="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4650,19 +4834,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
@@ -4671,21 +4855,24 @@
         <v>36</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:10">
+    <row r="2" ht="15.1" customHeight="1" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -4693,22 +4880,23 @@
       <c r="F2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-    </row>
-    <row r="3" ht="15.1" customHeight="1" spans="1:10">
+      <c r="G2" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E3" s="4">
         <v>2</v>
@@ -4716,22 +4904,23 @@
       <c r="F3" s="4">
         <v>-1</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" ht="15.1" customHeight="1" spans="1:10">
+      <c r="G3" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+    </row>
+    <row r="4" ht="15.1" customHeight="1" spans="1:11">
       <c r="A4" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4" s="4">
         <v>3</v>
@@ -4739,22 +4928,23 @@
       <c r="F4" s="4">
         <v>-2</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" ht="15.1" customHeight="1" spans="1:10">
+      <c r="G4" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" ht="15.1" customHeight="1" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E5" s="4">
         <v>4</v>
@@ -4762,22 +4952,23 @@
       <c r="F5" s="4">
         <v>-5</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" ht="15.1" customHeight="1" spans="1:10">
+      <c r="G5" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" ht="15.1" customHeight="1" spans="1:11">
       <c r="A6" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E6" s="4">
         <v>5</v>
@@ -4785,22 +4976,23 @@
       <c r="F6" s="4">
         <v>-3</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" ht="15.1" customHeight="1" spans="1:9">
+      <c r="G6" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" ht="15.1" customHeight="1" spans="1:10">
       <c r="A7" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E7" s="4">
         <v>6</v>
@@ -4808,14 +5000,15 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="G7" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K7">
+  <autoFilter ref="A1:L7">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4827,23 +5020,23 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="9" width="16.3916666666667" style="4"/>
-    <col min="10" max="1025" width="9.10833333333333" style="4"/>
+    <col min="1" max="10" width="16.3916666666667" style="4"/>
+    <col min="11" max="1026" width="9.10833333333333" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:9">
+    <row r="1" ht="15.1" customHeight="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4851,13 +5044,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -4866,122 +5059,125 @@
         <v>36</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:5">
       <c r="A3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4997,22 +5193,22 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="4"/>
+    <col min="1" max="1026" width="8.78333333333333" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+    <row r="1" ht="15.1" customHeight="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5020,19 +5216,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
@@ -5041,143 +5237,152 @@
         <v>36</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:9">
+    <row r="2" ht="15.1" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="16">
+        <v>61</v>
+      </c>
+      <c r="E2" s="17">
         <v>0.000148</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="17">
         <v>0.0121655250605964</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" ht="15.1" customHeight="1" spans="1:9">
+      <c r="G2" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="1:10">
       <c r="A3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.0002</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.014142135623731</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="16">
-        <v>0.0002</v>
-      </c>
-      <c r="F3" s="16">
-        <v>0.014142135623731</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" ht="15.1" customHeight="1" spans="1:9">
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" ht="15.1" customHeight="1" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="16">
+        <v>61</v>
+      </c>
+      <c r="E4" s="17">
         <v>0.0005</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="17">
         <v>0.0223606797749979</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" ht="15.1" customHeight="1" spans="1:9">
+      <c r="G4" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" ht="15.1" customHeight="1" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="16">
+        <v>61</v>
+      </c>
+      <c r="E5" s="17">
         <v>0.0005</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="17">
         <v>0.0223606797749979</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" ht="15.1" customHeight="1" spans="1:9">
+      <c r="G5" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" ht="15.1" customHeight="1" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="16">
+        <v>61</v>
+      </c>
+      <c r="E6" s="17">
         <v>0.001</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="17">
         <v>0.0316227766016838</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" ht="15.1" customHeight="1" spans="1:9">
+      <c r="G6" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" ht="15.1" customHeight="1" spans="1:10">
       <c r="A7" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="16">
+        <v>61</v>
+      </c>
+      <c r="E7" s="17">
         <v>0.002</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="17">
         <v>0.0447213595499958</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="G7" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5189,22 +5394,22 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L39" sqref="L39"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="4"/>
+    <col min="1" max="1026" width="8.78333333333333" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:8">
+    <row r="1" ht="15.1" customHeight="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5212,10 +5417,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>
@@ -5224,9 +5429,12 @@
         <v>36</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>27</v>
       </c>
     </row>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="989" firstSheet="10" activeTab="18"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="989" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -407,13 +407,13 @@
     <t>Cell</t>
   </si>
   <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
+    <t>WCM:0000003 ! cellular compartment</t>
+  </si>
+  <si>
+    <t>WCM:0000006 ! fluid compartment</t>
+  </si>
+  <si>
+    <t>WCM:0000009 ! 3d compartment</t>
   </si>
   <si>
     <t>e</t>
@@ -437,7 +437,7 @@
     <t>Extracellular space</t>
   </si>
   <si>
-    <t>extracellular</t>
+    <t>WCM:0000004 ! extracellular compartment</t>
   </si>
   <si>
     <t>density_e</t>
@@ -877,12 +877,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -919,10 +919,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -934,38 +955,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -984,7 +977,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -992,31 +984,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1030,15 +1015,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1052,8 +1029,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1074,7 +1074,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,7 +1212,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1098,55 +1236,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1158,103 +1254,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,6 +1281,35 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1331,26 +1360,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1365,147 +1374,138 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3220,7 +3220,7 @@
   <sheetPr/>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -4644,12 +4644,12 @@
   <sheetPr/>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="989" activeTab="4"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="989" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
     <t>Metabolism</t>
   </si>
   <si>
-    <t>dfba</t>
+    <t>WCM:0000013 ! dFBA</t>
   </si>
   <si>
     <t>ssa_submodel</t>
@@ -368,7 +368,7 @@
     <t>RNA degradation</t>
   </si>
   <si>
-    <t>ssa</t>
+    <t>WCM:0000011 ! SSA</t>
   </si>
   <si>
     <t>Biological type</t>
@@ -4571,12 +4571,12 @@
   <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -4644,7 +4644,7 @@
   <sheetPr/>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="989" activeTab="3"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="989" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="210">
   <si>
     <t>Id</t>
   </si>
@@ -413,7 +413,7 @@
     <t>WCM:0000006 ! fluid compartment</t>
   </si>
   <si>
-    <t>WCM:0000009 ! 3d compartment</t>
+    <t>WCM:0000009 ! 3D compartment</t>
   </si>
   <si>
     <t>e</t>
@@ -422,7 +422,7 @@
     <t>g</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>WCM:0000065 ! normal distribution</t>
   </si>
   <si>
     <t>l</t>
@@ -470,7 +470,7 @@
     <t>NaHCO</t>
   </si>
   <si>
-    <t>pseudo_species</t>
+    <t>WCM:0000019 ! pseudo-species</t>
   </si>
   <si>
     <t>specie_2</t>
@@ -677,9 +677,6 @@
     <t>forward</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>k_cat_1 * max( specie_1[e], specie_2[e] )</t>
   </si>
   <si>
@@ -776,7 +773,7 @@
     <t>k_cat_2</t>
   </si>
   <si>
-    <t>k_cat</t>
+    <t>WCM:0000026 ! k_cat</t>
   </si>
   <si>
     <t>molecule^-1 s^-1</t>
@@ -785,7 +782,7 @@
     <t>k_m_3</t>
   </si>
   <si>
-    <t>K_m</t>
+    <t>WCM:0000027 ! K_m</t>
   </si>
   <si>
     <t>k_cat_1</t>
@@ -2352,7 +2349,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -2421,11 +2418,9 @@
       <c r="D2" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>131</v>
@@ -2436,7 +2431,7 @@
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>133</v>
@@ -2444,11 +2439,9 @@
       <c r="D3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>146</v>
-      </c>
+      <c r="E3" s="10"/>
       <c r="F3" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>131</v>
@@ -2459,7 +2452,7 @@
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:11">
       <c r="A4" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>136</v>
@@ -2467,11 +2460,9 @@
       <c r="D4" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>146</v>
-      </c>
+      <c r="E4" s="10"/>
       <c r="F4" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>131</v>
@@ -2482,19 +2473,17 @@
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>136</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>131</v>
@@ -2505,7 +2494,7 @@
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:11">
       <c r="A6" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>139</v>
@@ -2513,11 +2502,9 @@
       <c r="D6" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>146</v>
-      </c>
+      <c r="E6" s="10"/>
       <c r="F6" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>131</v>
@@ -2572,10 +2559,10 @@
         <v>95</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
@@ -2595,13 +2582,13 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>34</v>
@@ -2656,7 +2643,7 @@
         <v>95</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -2676,10 +2663,10 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:9">
       <c r="A2" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>163</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>38</v>
@@ -2691,7 +2678,7 @@
         <v>62</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2732,13 +2719,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>105</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>95</v>
@@ -2761,13 +2748,13 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:10">
       <c r="A2" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>168</v>
-      </c>
       <c r="C2" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>99</v>
@@ -2782,18 +2769,18 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:9">
       <c r="A3" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>171</v>
-      </c>
       <c r="C3" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>100</v>
@@ -2810,13 +2797,13 @@
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:9">
       <c r="A4" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>173</v>
-      </c>
       <c r="C4" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>101</v>
@@ -2848,13 +2835,14 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.25" style="4" customWidth="1"/>
-    <col min="2" max="3" width="8.78333333333333" style="4"/>
+    <col min="2" max="2" width="8.78333333333333" style="4"/>
+    <col min="3" max="3" width="18.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="4"/>
     <col min="5" max="1026" width="8.78333333333333" style="4"/>
     <col min="1027" max="16384" width="9" style="7"/>
@@ -2871,10 +2859,10 @@
         <v>73</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>95</v>
@@ -2897,14 +2885,12 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>146</v>
-      </c>
+      <c r="C2" s="4"/>
       <c r="D2" s="4">
         <v>0.3</v>
       </c>
@@ -2913,32 +2899,32 @@
         <v>34</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D3" s="8">
         <v>2000</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D4" s="8">
         <v>0.001</v>
@@ -2950,26 +2936,26 @@
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -2980,74 +2966,65 @@
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="D9" s="4">
         <v>1100</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="D10" s="4">
         <v>1100</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="D11" s="8">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3145,10 +3122,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>95</v>
@@ -3157,10 +3134,10 @@
         <v>73</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>29</v>
@@ -3175,22 +3152,22 @@
         <v>33</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>18</v>
@@ -3244,10 +3221,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>95</v>
@@ -3256,7 +3233,7 @@
         <v>73</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>18</v>
@@ -3386,11 +3363,11 @@
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3406,46 +3383,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>18</v>
@@ -4571,12 +4548,12 @@
   <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -4649,7 +4626,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -4818,12 +4795,14 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1026" width="8.78333333333333" style="4"/>
+    <col min="1" max="6" width="8.78333333333333" style="4"/>
+    <col min="7" max="7" width="27.25" style="4" customWidth="1"/>
+    <col min="8" max="1026" width="8.78333333333333" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:12">
@@ -5195,12 +5174,12 @@
   <sheetPr/>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="989" activeTab="7"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="989" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -344,7 +344,7 @@
     <t>dimensionless</t>
   </si>
   <si>
-    <t>Algorithm</t>
+    <t>Framework</t>
   </si>
   <si>
     <t>Evidence</t>
@@ -359,7 +359,7 @@
     <t>Metabolism</t>
   </si>
   <si>
-    <t>WCM:0000013 ! dFBA</t>
+    <t>dynamic_flux_balance_analysis</t>
   </si>
   <si>
     <t>ssa_submodel</t>
@@ -368,7 +368,7 @@
     <t>RNA degradation</t>
   </si>
   <si>
-    <t>WCM:0000011 ! SSA</t>
+    <t>stochastic_simulation_algorithm</t>
   </si>
   <si>
     <t>Biological type</t>
@@ -407,13 +407,13 @@
     <t>Cell</t>
   </si>
   <si>
-    <t>WCM:0000003 ! cellular compartment</t>
-  </si>
-  <si>
-    <t>WCM:0000006 ! fluid compartment</t>
-  </si>
-  <si>
-    <t>WCM:0000009 ! 3D compartment</t>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
   </si>
   <si>
     <t>e</t>
@@ -422,7 +422,7 @@
     <t>g</t>
   </si>
   <si>
-    <t>WCM:0000065 ! normal distribution</t>
+    <t>normal_distribution</t>
   </si>
   <si>
     <t>l</t>
@@ -437,7 +437,7 @@
     <t>Extracellular space</t>
   </si>
   <si>
-    <t>WCM:0000004 ! extracellular compartment</t>
+    <t>extracellular_compartment</t>
   </si>
   <si>
     <t>density_e</t>
@@ -470,7 +470,7 @@
     <t>NaHCO</t>
   </si>
   <si>
-    <t>WCM:0000019 ! pseudo-species</t>
+    <t>pseudo_species</t>
   </si>
   <si>
     <t>specie_2</t>
@@ -773,7 +773,7 @@
     <t>k_cat_2</t>
   </si>
   <si>
-    <t>WCM:0000026 ! k_cat</t>
+    <t>k_cat</t>
   </si>
   <si>
     <t>molecule^-1 s^-1</t>
@@ -782,7 +782,7 @@
     <t>k_m_3</t>
   </si>
   <si>
-    <t>WCM:0000027 ! K_m</t>
+    <t>K_m</t>
   </si>
   <si>
     <t>k_cat_1</t>
@@ -874,11 +874,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
@@ -922,7 +922,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -937,15 +959,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -959,23 +982,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -989,9 +1005,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1012,37 +1034,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1053,6 +1045,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1071,7 +1071,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,31 +1179,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,72 +1209,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1203,19 +1221,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,31 +1233,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1279,50 +1279,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1357,6 +1313,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1374,104 +1374,104 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1479,27 +1479,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2174,7 +2174,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -2835,7 +2835,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2890,7 +2890,6 @@
       <c r="B2" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="4"/>
       <c r="D2" s="4">
         <v>0.3</v>
       </c>
@@ -4548,12 +4547,12 @@
   <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C2:C3"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -4626,7 +4625,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -4795,7 +4794,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -5174,12 +5173,12 @@
   <sheetPr/>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:D7"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="989" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="211">
   <si>
     <t>Id</t>
   </si>
@@ -290,433 +290,436 @@
     <t>Time units</t>
   </si>
   <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>Database references</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>taxon</t>
+  </si>
+  <si>
+    <t>Test model for TestExecutableModel</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>Rank not used</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature units</t>
+  </si>
+  <si>
+    <t>degC</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Evidence</t>
+  </si>
+  <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
+    <t>dfba_submodel</t>
+  </si>
+  <si>
+    <t>Metabolism</t>
+  </si>
+  <si>
+    <t>dynamic_flux_balance_analysis</t>
+  </si>
+  <si>
+    <t>ssa_submodel</t>
+  </si>
+  <si>
+    <t>RNA degradation</t>
+  </si>
+  <si>
+    <t>stochastic_simulation_algorithm</t>
+  </si>
+  <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Initial volume distribution</t>
+  </si>
+  <si>
+    <t>Initial volume mean</t>
+  </si>
+  <si>
+    <t>Initial volume standard deviation</t>
+  </si>
+  <si>
+    <t>Initial volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal_distribution</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular_compartment</t>
+  </si>
+  <si>
+    <t>density_e</t>
+  </si>
+  <si>
+    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>specie_1</t>
+  </si>
+  <si>
+    <t>specie_name_1</t>
+  </si>
+  <si>
+    <t>NaHCO</t>
+  </si>
+  <si>
+    <t>pseudo_species</t>
+  </si>
+  <si>
+    <t>specie_2</t>
+  </si>
+  <si>
+    <t>specie_name_2</t>
+  </si>
+  <si>
+    <t>N2O2P</t>
+  </si>
+  <si>
+    <t>specie_3</t>
+  </si>
+  <si>
+    <t>specie_name_3</t>
+  </si>
+  <si>
+    <t>N4O4P2</t>
+  </si>
+  <si>
+    <t>specie_4</t>
+  </si>
+  <si>
+    <t>specie_name_4</t>
+  </si>
+  <si>
+    <t>N10O10P5</t>
+  </si>
+  <si>
+    <t>specie_5</t>
+  </si>
+  <si>
+    <t>specie_name_5</t>
+  </si>
+  <si>
+    <t>N5O5</t>
+  </si>
+  <si>
+    <t>specie_6</t>
+  </si>
+  <si>
+    <t>specie_name_6</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>specie_1[e]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>specie_2[e]</t>
+  </si>
+  <si>
+    <t>specie_1[c]</t>
+  </si>
+  <si>
+    <t>specie_2[c]</t>
+  </si>
+  <si>
+    <t>specie_3[c]</t>
+  </si>
+  <si>
+    <t>specie_4[c]</t>
+  </si>
+  <si>
+    <t>specie_5[c]</t>
+  </si>
+  <si>
+    <t>specie_6[c]</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_1[e]</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_2[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_2[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_4[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_5[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_6[c]</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>volume_c</t>
+  </si>
+  <si>
+    <t>c / density_c</t>
+  </si>
+  <si>
+    <t>volume_e</t>
+  </si>
+  <si>
+    <t>e / density_e</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Rate units</t>
+  </si>
+  <si>
+    <t>Flux min</t>
+  </si>
+  <si>
+    <t>Flux max</t>
+  </si>
+  <si>
+    <t>Flux bound units</t>
+  </si>
+  <si>
+    <t>reaction_1</t>
+  </si>
+  <si>
+    <t>reaction_name_1</t>
+  </si>
+  <si>
+    <t>specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>M s^-1</t>
+  </si>
+  <si>
+    <t>reaction_2</t>
+  </si>
+  <si>
+    <t>reaction_name_2</t>
+  </si>
+  <si>
+    <t>[c]: (2) specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t>reaction_3</t>
+  </si>
+  <si>
+    <t>reaction_name_3</t>
+  </si>
+  <si>
+    <t>[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
+  </si>
+  <si>
+    <t>reaction_4</t>
+  </si>
+  <si>
+    <t>reaction_name_4</t>
+  </si>
+  <si>
+    <t>[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>reaction_1-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>k_cat_1 * max( specie_1[e], specie_2[e] )</t>
+  </si>
+  <si>
+    <t>reaction_2-forward</t>
+  </si>
+  <si>
+    <t>k_cat_2 * specie_2[c]</t>
+  </si>
+  <si>
+    <t>reaction_3-forward</t>
+  </si>
+  <si>
+    <t>k_cat_3_for * specie_4[c] / (specie_4[c] + k_m_3  * Avogadro * volume_c)</t>
+  </si>
+  <si>
+    <t>reaction_3-backward</t>
+  </si>
+  <si>
+    <t>backward</t>
+  </si>
+  <si>
+    <t>k_cat_3_rev * (specie_5[c] + specie_6[c])</t>
+  </si>
+  <si>
+    <t>reaction_4-forward</t>
+  </si>
+  <si>
+    <t>k_cat_4 * specie_2[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
+  </si>
+  <si>
+    <t>dfba-obj-dfba_submodel</t>
+  </si>
+  <si>
+    <t>2*Metabolism_net_rxn</t>
+  </si>
+  <si>
     <t>s</t>
-  </si>
-  <si>
-    <t>Database references</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Created</t>
-  </si>
-  <si>
-    <t>Updated</t>
-  </si>
-  <si>
-    <t>taxon</t>
-  </si>
-  <si>
-    <t>Test model for TestExecutableModel</t>
-  </si>
-  <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>Rank not used</t>
-  </si>
-  <si>
-    <t>References</t>
-  </si>
-  <si>
-    <t>env</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Temperature units</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>pH units</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>Framework</t>
-  </si>
-  <si>
-    <t>Evidence</t>
-  </si>
-  <si>
-    <t>Interpretations</t>
-  </si>
-  <si>
-    <t>dfba_submodel</t>
-  </si>
-  <si>
-    <t>Metabolism</t>
-  </si>
-  <si>
-    <t>dynamic_flux_balance_analysis</t>
-  </si>
-  <si>
-    <t>ssa_submodel</t>
-  </si>
-  <si>
-    <t>RNA degradation</t>
-  </si>
-  <si>
-    <t>stochastic_simulation_algorithm</t>
-  </si>
-  <si>
-    <t>Biological type</t>
-  </si>
-  <si>
-    <t>Physical type</t>
-  </si>
-  <si>
-    <t>Geometry</t>
-  </si>
-  <si>
-    <t>Parent compartment</t>
-  </si>
-  <si>
-    <t>Mass units</t>
-  </si>
-  <si>
-    <t>Initial volume distribution</t>
-  </si>
-  <si>
-    <t>Initial volume mean</t>
-  </si>
-  <si>
-    <t>Initial volume standard deviation</t>
-  </si>
-  <si>
-    <t>Initial volume units</t>
-  </si>
-  <si>
-    <t>Initial density</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>cellular_compartment</t>
-  </si>
-  <si>
-    <t>fluid_compartment</t>
-  </si>
-  <si>
-    <t>3D_compartment</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>normal_distribution</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>density_c</t>
-  </si>
-  <si>
-    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>extracellular_compartment</t>
-  </si>
-  <si>
-    <t>density_e</t>
-  </si>
-  <si>
-    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>specie_1</t>
-  </si>
-  <si>
-    <t>specie_name_1</t>
-  </si>
-  <si>
-    <t>NaHCO</t>
-  </si>
-  <si>
-    <t>pseudo_species</t>
-  </si>
-  <si>
-    <t>specie_2</t>
-  </si>
-  <si>
-    <t>specie_name_2</t>
-  </si>
-  <si>
-    <t>N2O2P</t>
-  </si>
-  <si>
-    <t>specie_3</t>
-  </si>
-  <si>
-    <t>specie_name_3</t>
-  </si>
-  <si>
-    <t>N4O4P2</t>
-  </si>
-  <si>
-    <t>specie_4</t>
-  </si>
-  <si>
-    <t>specie_name_4</t>
-  </si>
-  <si>
-    <t>N10O10P5</t>
-  </si>
-  <si>
-    <t>specie_5</t>
-  </si>
-  <si>
-    <t>specie_name_5</t>
-  </si>
-  <si>
-    <t>N5O5</t>
-  </si>
-  <si>
-    <t>specie_6</t>
-  </si>
-  <si>
-    <t>specie_name_6</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>specie_1[e]</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>specie_2[e]</t>
-  </si>
-  <si>
-    <t>specie_1[c]</t>
-  </si>
-  <si>
-    <t>specie_2[c]</t>
-  </si>
-  <si>
-    <t>specie_3[c]</t>
-  </si>
-  <si>
-    <t>specie_4[c]</t>
-  </si>
-  <si>
-    <t>specie_5[c]</t>
-  </si>
-  <si>
-    <t>specie_6[c]</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_1[e]</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_2[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_2[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_4[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_5[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_6[c]</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>volume_c</t>
-  </si>
-  <si>
-    <t>c / density_c</t>
-  </si>
-  <si>
-    <t>volume_e</t>
-  </si>
-  <si>
-    <t>e / density_e</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Reversible</t>
-  </si>
-  <si>
-    <t>Rate units</t>
-  </si>
-  <si>
-    <t>Flux min</t>
-  </si>
-  <si>
-    <t>Flux max</t>
-  </si>
-  <si>
-    <t>Flux bound units</t>
-  </si>
-  <si>
-    <t>reaction_1</t>
-  </si>
-  <si>
-    <t>reaction_name_1</t>
-  </si>
-  <si>
-    <t>specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
-  </si>
-  <si>
-    <t>s^-1</t>
-  </si>
-  <si>
-    <t>M s^-1</t>
-  </si>
-  <si>
-    <t>reaction_2</t>
-  </si>
-  <si>
-    <t>reaction_name_2</t>
-  </si>
-  <si>
-    <t>[c]: (2) specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t>reaction_3</t>
-  </si>
-  <si>
-    <t>reaction_name_3</t>
-  </si>
-  <si>
-    <t>[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
-  </si>
-  <si>
-    <t>reaction_4</t>
-  </si>
-  <si>
-    <t>reaction_name_4</t>
-  </si>
-  <si>
-    <t>[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>reaction_1-forward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>k_cat_1 * max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t>reaction_2-forward</t>
-  </si>
-  <si>
-    <t>k_cat_2 * specie_2[c]</t>
-  </si>
-  <si>
-    <t>reaction_3-forward</t>
-  </si>
-  <si>
-    <t>k_cat_3_for * specie_4[c] / (specie_4[c] + k_m_3  * Avogadro * volume_c)</t>
-  </si>
-  <si>
-    <t>reaction_3-backward</t>
-  </si>
-  <si>
-    <t>backward</t>
-  </si>
-  <si>
-    <t>k_cat_3_rev * (specie_5[c] + specie_6[c])</t>
-  </si>
-  <si>
-    <t>reaction_4-forward</t>
-  </si>
-  <si>
-    <t>k_cat_4 * specie_2[c]</t>
-  </si>
-  <si>
-    <t>Reaction rate units</t>
-  </si>
-  <si>
-    <t>Coefficient units</t>
-  </si>
-  <si>
-    <t>dfba-obj-dfba_submodel</t>
-  </si>
-  <si>
-    <t>2*Metabolism_net_rxn</t>
   </si>
   <si>
     <t>Cell size units</t>
@@ -921,6 +924,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -935,23 +969,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -966,32 +985,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1006,7 +1001,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1019,40 +1051,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1071,7 +1074,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,25 +1200,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,145 +1248,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,6 +1274,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1298,6 +1325,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1309,6 +1347,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1327,179 +1374,135 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1953,15 +1956,15 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+      <selection pane="topRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1025" width="8.78333333333333" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:2">
+    <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1969,7 +1972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:2">
+    <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1977,7 +1980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="15.1" customHeight="1" spans="1:2">
+    <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1985,7 +1988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="15.1" customHeight="1" spans="1:2">
+    <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1993,7 +1996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="15.1" customHeight="1" spans="1:2">
+    <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -2001,7 +2004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="15.1" customHeight="1" spans="1:2">
+    <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2009,7 +2012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="15.1" customHeight="1" spans="1:2">
+    <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -2017,25 +2020,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="15.1" customHeight="1" spans="1:2">
+    <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B8"/>
     </row>
-    <row r="9" ht="15.1" customHeight="1" spans="1:2">
+    <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B9"/>
     </row>
-    <row r="10" ht="15.1" customHeight="1" spans="1:2">
+    <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B10"/>
     </row>
-    <row r="11" ht="15.1" customHeight="1" spans="1:2">
+    <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -2043,22 +2046,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" ht="15.1" customHeight="1" spans="1:1">
+    <row r="12" customHeight="1" spans="1:1">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" ht="15.1" customHeight="1" spans="1:1">
+    <row r="13" customHeight="1" spans="1:1">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" ht="15.1" customHeight="1" spans="1:1">
+    <row r="14" customHeight="1" spans="1:1">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" ht="15.1" customHeight="1" spans="1:1">
+    <row r="15" customHeight="1" spans="1:1">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -2597,7 +2600,7 @@
         <v>131</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2643,7 +2646,7 @@
         <v>95</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -2663,10 +2666,10 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:9">
       <c r="A2" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>38</v>
@@ -2678,7 +2681,7 @@
         <v>62</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2719,13 +2722,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>105</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>95</v>
@@ -2748,13 +2751,13 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:10">
       <c r="A2" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>99</v>
@@ -2769,18 +2772,18 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:9">
       <c r="A3" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>100</v>
@@ -2797,13 +2800,13 @@
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:9">
       <c r="A4" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>101</v>
@@ -2859,10 +2862,10 @@
         <v>73</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>95</v>
@@ -2885,10 +2888,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D2" s="4">
         <v>0.3</v>
@@ -2898,32 +2901,32 @@
         <v>34</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D3" s="8">
         <v>2000</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D4" s="8">
         <v>0.001</v>
@@ -2935,26 +2938,26 @@
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -2965,32 +2968,32 @@
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
@@ -3001,7 +3004,7 @@
         <v>1100</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
@@ -3012,18 +3015,18 @@
         <v>1100</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D11" s="8">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3121,10 +3124,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>95</v>
@@ -3133,10 +3136,10 @@
         <v>73</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>29</v>
@@ -3151,22 +3154,22 @@
         <v>33</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>18</v>
@@ -3220,10 +3223,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>95</v>
@@ -3232,7 +3235,7 @@
         <v>73</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>18</v>
@@ -3382,46 +3385,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>18</v>
@@ -3445,10 +3448,10 @@
   <sheetPr/>
   <dimension ref="A1:AMD9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4547,7 +4550,7 @@
   <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/fixtures/test_validate_model.xlsx
+++ b/tests/fixtures/test_validate_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="989" firstSheet="6" activeTab="20"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="989" firstSheet="8" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="226">
   <si>
     <t>Id</t>
   </si>
@@ -829,6 +829,9 @@
     <t>Method</t>
   </si>
   <si>
+    <t>Authors</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
@@ -895,6 +898,9 @@
     <t>Target</t>
   </si>
   <si>
+    <t>Target submodel</t>
+  </si>
+  <si>
     <t>Target type</t>
   </si>
   <si>
@@ -908,9 +914,6 @@
   </si>
   <si>
     <t>Intention type</t>
-  </si>
-  <si>
-    <t>Authors</t>
   </si>
   <si>
     <t>Date</t>
@@ -922,11 +925,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -968,33 +971,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1003,6 +984,28 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1022,6 +1025,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1030,16 +1047,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1053,14 +1085,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1068,38 +1093,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1118,7 +1121,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,7 +1163,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,19 +1229,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1172,19 +1283,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,109 +1301,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1321,26 +1324,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1369,21 +1372,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1404,149 +1392,164 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6